--- a/BackTest/2020-01-12 BackTest XLM.xlsx
+++ b/BackTest/2020-01-12 BackTest XLM.xlsx
@@ -1186,20 +1186,14 @@
         <v>53.78600000000001</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>53.46</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1227,20 +1221,14 @@
         <v>53.78516666666668</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>53.54</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1268,20 +1256,14 @@
         <v>53.78166666666667</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>53.4</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1309,20 +1291,14 @@
         <v>53.77966666666668</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>53.38</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1350,20 +1326,14 @@
         <v>53.77766666666668</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>53.38</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1391,20 +1361,14 @@
         <v>53.78266666666669</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>53.75</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1432,20 +1396,14 @@
         <v>53.78266666666669</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>53.73</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1473,20 +1431,14 @@
         <v>53.78066666666668</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>53.92</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1514,20 +1466,14 @@
         <v>53.78033333333335</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>53.99</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1562,11 +1508,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1601,11 +1543,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1640,11 +1578,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1679,11 +1613,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1718,11 +1648,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1757,11 +1683,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1796,11 +1718,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1835,11 +1753,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1874,11 +1788,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1913,11 +1823,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1952,11 +1858,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1991,11 +1893,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2030,11 +1928,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2069,11 +1963,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2108,11 +1998,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2147,11 +2033,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2186,11 +2068,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2225,11 +2103,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2264,11 +2138,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2303,11 +2173,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2342,11 +2208,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2381,11 +2243,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2420,11 +2278,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2459,11 +2313,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2498,11 +2348,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2537,11 +2383,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2576,11 +2418,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2615,11 +2453,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2654,11 +2488,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2693,11 +2523,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2732,11 +2558,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2771,11 +2593,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2810,11 +2628,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2849,11 +2663,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2888,11 +2698,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2927,11 +2733,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2966,11 +2768,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3005,11 +2803,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3044,11 +2838,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3083,11 +2873,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3122,11 +2908,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3161,11 +2943,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3200,11 +2978,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3239,11 +3013,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3278,11 +3048,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3317,11 +3083,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3356,11 +3118,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3395,11 +3153,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3434,11 +3188,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3473,11 +3223,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3512,11 +3258,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3551,11 +3293,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3590,11 +3328,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3629,11 +3363,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3668,11 +3398,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3707,11 +3433,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3746,11 +3468,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3785,11 +3503,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3824,11 +3538,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3863,11 +3573,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3902,11 +3608,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3941,11 +3643,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3980,11 +3678,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4019,11 +3713,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4058,11 +3748,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4097,11 +3783,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4136,11 +3818,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4175,11 +3853,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4214,11 +3888,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4253,11 +3923,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4292,11 +3958,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4331,11 +3993,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4370,11 +4028,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4409,11 +4063,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4448,11 +4098,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4487,11 +4133,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4526,11 +4168,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4565,11 +4203,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4604,11 +4238,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4643,11 +4273,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4682,11 +4308,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4717,16 +4339,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4824,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4859,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4894,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4964,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4999,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -5279,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -13256,13 +12876,17 @@
         <v>54.02666666666668</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
       </c>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="K357" t="n">
+        <v>53.7</v>
+      </c>
       <c r="L357" t="inlineStr"/>
       <c r="M357" t="n">
         <v>1</v>
@@ -13291,14 +12915,22 @@
         <v>54.01700000000002</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
       </c>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="K358" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13326,14 +12958,22 @@
         <v>54.00750000000001</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
       </c>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>53.69</v>
+      </c>
+      <c r="K359" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -13361,13 +13001,17 @@
         <v>53.99800000000001</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
       </c>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="K360" t="n">
+        <v>53.7</v>
+      </c>
       <c r="L360" t="inlineStr"/>
       <c r="M360" t="n">
         <v>1</v>
@@ -13402,8 +13046,14 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="K361" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13437,8 +13087,14 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="K362" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-12 BackTest XLM.xlsx
+++ b/BackTest/2020-01-12 BackTest XLM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M367"/>
+  <dimension ref="A1:M368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>53.82</v>
+        <v>54.03</v>
       </c>
       <c r="C2" t="n">
-        <v>53.65</v>
+        <v>54.03</v>
       </c>
       <c r="D2" t="n">
-        <v>53.82</v>
+        <v>54.03</v>
       </c>
       <c r="E2" t="n">
-        <v>53.65</v>
+        <v>54.03</v>
       </c>
       <c r="F2" t="n">
-        <v>8492.0466</v>
+        <v>10000</v>
       </c>
       <c r="G2" t="n">
-        <v>53.71583333333334</v>
+        <v>53.722</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>53.8</v>
+        <v>53.82</v>
       </c>
       <c r="C3" t="n">
-        <v>53.8</v>
+        <v>53.65</v>
       </c>
       <c r="D3" t="n">
-        <v>53.8</v>
+        <v>53.82</v>
       </c>
       <c r="E3" t="n">
-        <v>53.8</v>
+        <v>53.65</v>
       </c>
       <c r="F3" t="n">
-        <v>300</v>
+        <v>8492.0466</v>
       </c>
       <c r="G3" t="n">
-        <v>53.71033333333334</v>
+        <v>53.71583333333334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>53.9</v>
+        <v>53.8</v>
       </c>
       <c r="C4" t="n">
-        <v>53.9</v>
+        <v>53.8</v>
       </c>
       <c r="D4" t="n">
-        <v>53.9</v>
+        <v>53.8</v>
       </c>
       <c r="E4" t="n">
-        <v>53.9</v>
+        <v>53.8</v>
       </c>
       <c r="F4" t="n">
-        <v>8328</v>
+        <v>300</v>
       </c>
       <c r="G4" t="n">
-        <v>53.70816666666667</v>
+        <v>53.71033333333334</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>54.02</v>
+        <v>53.9</v>
       </c>
       <c r="C5" t="n">
-        <v>54.02</v>
+        <v>53.9</v>
       </c>
       <c r="D5" t="n">
-        <v>54.02</v>
+        <v>53.9</v>
       </c>
       <c r="E5" t="n">
-        <v>54.02</v>
+        <v>53.9</v>
       </c>
       <c r="F5" t="n">
-        <v>16.6605</v>
+        <v>8328</v>
       </c>
       <c r="G5" t="n">
-        <v>53.70316666666667</v>
+        <v>53.70816666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>54.02</v>
       </c>
       <c r="F6" t="n">
-        <v>600</v>
+        <v>16.6605</v>
       </c>
       <c r="G6" t="n">
-        <v>53.70166666666667</v>
+        <v>53.70316666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>54.01</v>
+        <v>54.02</v>
       </c>
       <c r="C7" t="n">
-        <v>54.01</v>
+        <v>54.02</v>
       </c>
       <c r="D7" t="n">
-        <v>54.01</v>
+        <v>54.02</v>
       </c>
       <c r="E7" t="n">
-        <v>54.01</v>
+        <v>54.02</v>
       </c>
       <c r="F7" t="n">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="G7" t="n">
-        <v>53.7015</v>
+        <v>53.70166666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>53.91</v>
+        <v>54.01</v>
       </c>
       <c r="C8" t="n">
-        <v>53.9</v>
+        <v>54.01</v>
       </c>
       <c r="D8" t="n">
-        <v>53.91</v>
+        <v>54.01</v>
       </c>
       <c r="E8" t="n">
-        <v>53.9</v>
+        <v>54.01</v>
       </c>
       <c r="F8" t="n">
-        <v>69522.6627</v>
+        <v>616</v>
       </c>
       <c r="G8" t="n">
-        <v>53.7025</v>
+        <v>53.7015</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>53.8</v>
+        <v>53.91</v>
       </c>
       <c r="C9" t="n">
-        <v>53.64</v>
+        <v>53.9</v>
       </c>
       <c r="D9" t="n">
-        <v>53.8</v>
+        <v>53.91</v>
       </c>
       <c r="E9" t="n">
-        <v>53.64</v>
+        <v>53.9</v>
       </c>
       <c r="F9" t="n">
-        <v>1463.3361</v>
+        <v>69522.6627</v>
       </c>
       <c r="G9" t="n">
-        <v>53.70316666666667</v>
+        <v>53.7025</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>53.83</v>
+        <v>53.8</v>
       </c>
       <c r="C10" t="n">
-        <v>53.83</v>
+        <v>53.64</v>
       </c>
       <c r="D10" t="n">
-        <v>53.83</v>
+        <v>53.8</v>
       </c>
       <c r="E10" t="n">
-        <v>53.83</v>
+        <v>53.64</v>
       </c>
       <c r="F10" t="n">
-        <v>1288.9533</v>
+        <v>1463.3361</v>
       </c>
       <c r="G10" t="n">
-        <v>53.71366666666667</v>
+        <v>53.70316666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>53.85</v>
+        <v>53.83</v>
       </c>
       <c r="C11" t="n">
-        <v>53.85</v>
+        <v>53.83</v>
       </c>
       <c r="D11" t="n">
-        <v>53.85</v>
+        <v>53.83</v>
       </c>
       <c r="E11" t="n">
-        <v>53.85</v>
+        <v>53.83</v>
       </c>
       <c r="F11" t="n">
-        <v>2899.1528</v>
+        <v>1288.9533</v>
       </c>
       <c r="G11" t="n">
-        <v>53.72616666666667</v>
+        <v>53.71366666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>53.71</v>
+        <v>53.85</v>
       </c>
       <c r="C12" t="n">
-        <v>53.71</v>
+        <v>53.85</v>
       </c>
       <c r="D12" t="n">
-        <v>53.71</v>
+        <v>53.85</v>
       </c>
       <c r="E12" t="n">
-        <v>53.71</v>
+        <v>53.85</v>
       </c>
       <c r="F12" t="n">
-        <v>17890.6799</v>
+        <v>2899.1528</v>
       </c>
       <c r="G12" t="n">
-        <v>53.73583333333333</v>
+        <v>53.72616666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>53.71</v>
       </c>
       <c r="F13" t="n">
-        <v>9.3201</v>
+        <v>17890.6799</v>
       </c>
       <c r="G13" t="n">
-        <v>53.746</v>
+        <v>53.73583333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>53.87</v>
+        <v>53.71</v>
       </c>
       <c r="C14" t="n">
-        <v>53.87</v>
+        <v>53.71</v>
       </c>
       <c r="D14" t="n">
-        <v>53.87</v>
+        <v>53.71</v>
       </c>
       <c r="E14" t="n">
-        <v>53.87</v>
+        <v>53.71</v>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>9.3201</v>
       </c>
       <c r="G14" t="n">
-        <v>53.75783333333334</v>
+        <v>53.746</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>53.87</v>
       </c>
       <c r="F15" t="n">
-        <v>3645.8326</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>53.76333333333334</v>
+        <v>53.75783333333334</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>53.87</v>
       </c>
       <c r="F16" t="n">
-        <v>4786.4901</v>
+        <v>3645.8326</v>
       </c>
       <c r="G16" t="n">
-        <v>53.7685</v>
+        <v>53.76333333333334</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>53.81</v>
+        <v>53.87</v>
       </c>
       <c r="C17" t="n">
-        <v>53.71</v>
+        <v>53.87</v>
       </c>
       <c r="D17" t="n">
-        <v>53.81</v>
+        <v>53.87</v>
       </c>
       <c r="E17" t="n">
-        <v>53.71</v>
+        <v>53.87</v>
       </c>
       <c r="F17" t="n">
-        <v>2682.52</v>
+        <v>4786.4901</v>
       </c>
       <c r="G17" t="n">
-        <v>53.77516666666667</v>
+        <v>53.7685</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>53.71</v>
+        <v>53.81</v>
       </c>
       <c r="C18" t="n">
         <v>53.71</v>
       </c>
       <c r="D18" t="n">
-        <v>53.71</v>
+        <v>53.81</v>
       </c>
       <c r="E18" t="n">
         <v>53.71</v>
       </c>
       <c r="F18" t="n">
-        <v>17414.3044</v>
+        <v>2682.52</v>
       </c>
       <c r="G18" t="n">
-        <v>53.77766666666667</v>
+        <v>53.77516666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>53.7</v>
+        <v>53.71</v>
       </c>
       <c r="C19" t="n">
-        <v>53.7</v>
+        <v>53.71</v>
       </c>
       <c r="D19" t="n">
-        <v>53.7</v>
+        <v>53.71</v>
       </c>
       <c r="E19" t="n">
-        <v>53.7</v>
+        <v>53.71</v>
       </c>
       <c r="F19" t="n">
-        <v>624</v>
+        <v>17414.3044</v>
       </c>
       <c r="G19" t="n">
-        <v>53.78033333333334</v>
+        <v>53.77766666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>53.6</v>
+        <v>53.7</v>
       </c>
       <c r="C20" t="n">
-        <v>53.57</v>
+        <v>53.7</v>
       </c>
       <c r="D20" t="n">
-        <v>53.6</v>
+        <v>53.7</v>
       </c>
       <c r="E20" t="n">
-        <v>53.57</v>
+        <v>53.7</v>
       </c>
       <c r="F20" t="n">
-        <v>12688</v>
+        <v>624</v>
       </c>
       <c r="G20" t="n">
-        <v>53.78483333333334</v>
+        <v>53.78033333333334</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>53.48</v>
+        <v>53.6</v>
       </c>
       <c r="C21" t="n">
-        <v>53.46</v>
+        <v>53.57</v>
       </c>
       <c r="D21" t="n">
-        <v>53.48</v>
+        <v>53.6</v>
       </c>
       <c r="E21" t="n">
-        <v>53.45</v>
+        <v>53.57</v>
       </c>
       <c r="F21" t="n">
-        <v>7201.8632</v>
+        <v>12688</v>
       </c>
       <c r="G21" t="n">
-        <v>53.78883333333334</v>
+        <v>53.78483333333334</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>53.46</v>
+        <v>53.48</v>
       </c>
       <c r="C22" t="n">
         <v>53.46</v>
       </c>
       <c r="D22" t="n">
-        <v>53.46</v>
+        <v>53.48</v>
       </c>
       <c r="E22" t="n">
-        <v>53.46</v>
+        <v>53.45</v>
       </c>
       <c r="F22" t="n">
-        <v>653.9043</v>
+        <v>7201.8632</v>
       </c>
       <c r="G22" t="n">
-        <v>53.78816666666668</v>
+        <v>53.78883333333334</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1171,19 +1171,19 @@
         <v>53.46</v>
       </c>
       <c r="C23" t="n">
-        <v>53.45</v>
+        <v>53.46</v>
       </c>
       <c r="D23" t="n">
         <v>53.46</v>
       </c>
       <c r="E23" t="n">
-        <v>53.45</v>
+        <v>53.46</v>
       </c>
       <c r="F23" t="n">
-        <v>4229.2532</v>
+        <v>653.9043</v>
       </c>
       <c r="G23" t="n">
-        <v>53.78600000000001</v>
+        <v>53.78816666666668</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>53.54</v>
+        <v>53.46</v>
       </c>
       <c r="C24" t="n">
-        <v>53.53</v>
+        <v>53.45</v>
       </c>
       <c r="D24" t="n">
-        <v>53.54</v>
+        <v>53.46</v>
       </c>
       <c r="E24" t="n">
-        <v>53.4</v>
+        <v>53.45</v>
       </c>
       <c r="F24" t="n">
-        <v>12416.5574</v>
+        <v>4229.2532</v>
       </c>
       <c r="G24" t="n">
-        <v>53.78516666666668</v>
+        <v>53.78600000000001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>53.54</v>
+      </c>
+      <c r="C25" t="n">
+        <v>53.53</v>
+      </c>
+      <c r="D25" t="n">
+        <v>53.54</v>
+      </c>
+      <c r="E25" t="n">
         <v>53.4</v>
       </c>
-      <c r="C25" t="n">
-        <v>53.38</v>
-      </c>
-      <c r="D25" t="n">
-        <v>53.4</v>
-      </c>
-      <c r="E25" t="n">
-        <v>53.38</v>
-      </c>
       <c r="F25" t="n">
-        <v>60504.0129</v>
+        <v>12416.5574</v>
       </c>
       <c r="G25" t="n">
-        <v>53.78166666666667</v>
+        <v>53.78516666666668</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,32 +1273,38 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>53.38</v>
+        <v>53.4</v>
       </c>
       <c r="C26" t="n">
         <v>53.38</v>
       </c>
       <c r="D26" t="n">
-        <v>53.38</v>
+        <v>53.4</v>
       </c>
       <c r="E26" t="n">
         <v>53.38</v>
       </c>
       <c r="F26" t="n">
-        <v>12438.4052</v>
+        <v>60504.0129</v>
       </c>
       <c r="G26" t="n">
-        <v>53.77966666666668</v>
+        <v>53.78166666666667</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>53.53</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1320,20 +1326,26 @@
         <v>53.38</v>
       </c>
       <c r="F27" t="n">
-        <v>2889.38</v>
+        <v>12438.4052</v>
       </c>
       <c r="G27" t="n">
-        <v>53.77766666666668</v>
+        <v>53.77966666666668</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>53.38</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1343,32 +1355,38 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>53.75</v>
+        <v>53.38</v>
       </c>
       <c r="C28" t="n">
-        <v>53.75</v>
+        <v>53.38</v>
       </c>
       <c r="D28" t="n">
-        <v>53.75</v>
+        <v>53.38</v>
       </c>
       <c r="E28" t="n">
-        <v>53.75</v>
+        <v>53.38</v>
       </c>
       <c r="F28" t="n">
-        <v>558.1396</v>
+        <v>2889.38</v>
       </c>
       <c r="G28" t="n">
-        <v>53.78266666666669</v>
+        <v>53.77766666666668</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>53.38</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1378,32 +1396,38 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>53.73</v>
+        <v>53.75</v>
       </c>
       <c r="C29" t="n">
-        <v>53.7</v>
+        <v>53.75</v>
       </c>
       <c r="D29" t="n">
-        <v>53.73</v>
+        <v>53.75</v>
       </c>
       <c r="E29" t="n">
-        <v>53.7</v>
+        <v>53.75</v>
       </c>
       <c r="F29" t="n">
-        <v>576.3058</v>
+        <v>558.1396</v>
       </c>
       <c r="G29" t="n">
         <v>53.78266666666669</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>53.38</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1413,22 +1437,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>53.92</v>
+        <v>53.73</v>
       </c>
       <c r="C30" t="n">
-        <v>53.66</v>
+        <v>53.7</v>
       </c>
       <c r="D30" t="n">
-        <v>54.21</v>
+        <v>53.73</v>
       </c>
       <c r="E30" t="n">
-        <v>53.66</v>
+        <v>53.7</v>
       </c>
       <c r="F30" t="n">
-        <v>870181.8768</v>
+        <v>576.3058</v>
       </c>
       <c r="G30" t="n">
-        <v>53.78066666666668</v>
+        <v>53.78266666666669</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1438,7 +1462,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1448,22 +1476,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>53.99</v>
+        <v>53.92</v>
       </c>
       <c r="C31" t="n">
-        <v>53.76</v>
+        <v>53.66</v>
       </c>
       <c r="D31" t="n">
-        <v>54</v>
+        <v>54.21</v>
       </c>
       <c r="E31" t="n">
-        <v>53.76</v>
+        <v>53.66</v>
       </c>
       <c r="F31" t="n">
-        <v>47628.4182</v>
+        <v>870181.8768</v>
       </c>
       <c r="G31" t="n">
-        <v>53.78033333333335</v>
+        <v>53.78066666666668</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1473,7 +1501,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1483,22 +1515,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>53.96</v>
+        <v>53.99</v>
       </c>
       <c r="C32" t="n">
-        <v>53.85</v>
+        <v>53.76</v>
       </c>
       <c r="D32" t="n">
-        <v>53.96</v>
+        <v>54</v>
       </c>
       <c r="E32" t="n">
-        <v>53.85</v>
+        <v>53.76</v>
       </c>
       <c r="F32" t="n">
-        <v>20277.5763</v>
+        <v>47628.4182</v>
       </c>
       <c r="G32" t="n">
-        <v>53.77866666666668</v>
+        <v>53.78033333333335</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1508,7 +1540,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>53.71</v>
+        <v>53.96</v>
       </c>
       <c r="C33" t="n">
-        <v>53.71</v>
+        <v>53.85</v>
       </c>
       <c r="D33" t="n">
-        <v>53.72</v>
+        <v>53.96</v>
       </c>
       <c r="E33" t="n">
-        <v>53.71</v>
+        <v>53.85</v>
       </c>
       <c r="F33" t="n">
-        <v>33687.8055</v>
+        <v>20277.5763</v>
       </c>
       <c r="G33" t="n">
-        <v>53.77350000000001</v>
+        <v>53.77866666666668</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1543,7 +1579,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1556,19 +1596,19 @@
         <v>53.71</v>
       </c>
       <c r="C34" t="n">
-        <v>53.7</v>
+        <v>53.71</v>
       </c>
       <c r="D34" t="n">
+        <v>53.72</v>
+      </c>
+      <c r="E34" t="n">
         <v>53.71</v>
       </c>
-      <c r="E34" t="n">
-        <v>53.7</v>
-      </c>
       <c r="F34" t="n">
-        <v>18169.5475</v>
+        <v>33687.8055</v>
       </c>
       <c r="G34" t="n">
-        <v>53.77100000000001</v>
+        <v>53.77350000000001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1578,7 +1618,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1588,22 +1632,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>53.7</v>
+        <v>53.71</v>
       </c>
       <c r="C35" t="n">
         <v>53.7</v>
       </c>
       <c r="D35" t="n">
-        <v>53.7</v>
+        <v>53.71</v>
       </c>
       <c r="E35" t="n">
         <v>53.7</v>
       </c>
       <c r="F35" t="n">
-        <v>16517.2954</v>
+        <v>18169.5475</v>
       </c>
       <c r="G35" t="n">
-        <v>53.76683333333335</v>
+        <v>53.77100000000001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1613,7 +1657,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1635,10 +1683,10 @@
         <v>53.7</v>
       </c>
       <c r="F36" t="n">
-        <v>561</v>
+        <v>16517.2954</v>
       </c>
       <c r="G36" t="n">
-        <v>53.76433333333334</v>
+        <v>53.76683333333335</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1648,7 +1696,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1670,10 +1722,10 @@
         <v>53.7</v>
       </c>
       <c r="F37" t="n">
-        <v>3881.078</v>
+        <v>561</v>
       </c>
       <c r="G37" t="n">
-        <v>53.76483333333334</v>
+        <v>53.76433333333334</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1683,7 +1735,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1705,10 +1761,10 @@
         <v>53.7</v>
       </c>
       <c r="F38" t="n">
-        <v>17892.8135</v>
+        <v>3881.078</v>
       </c>
       <c r="G38" t="n">
-        <v>53.76216666666667</v>
+        <v>53.76483333333334</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1718,7 +1774,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1728,22 +1788,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>53.61</v>
+        <v>53.7</v>
       </c>
       <c r="C39" t="n">
-        <v>53.61</v>
+        <v>53.7</v>
       </c>
       <c r="D39" t="n">
-        <v>53.61</v>
+        <v>53.7</v>
       </c>
       <c r="E39" t="n">
-        <v>53.61</v>
+        <v>53.7</v>
       </c>
       <c r="F39" t="n">
-        <v>19900.2104</v>
+        <v>17892.8135</v>
       </c>
       <c r="G39" t="n">
-        <v>53.75816666666667</v>
+        <v>53.76216666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1753,7 +1813,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1763,22 +1827,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>53.71</v>
+        <v>53.61</v>
       </c>
       <c r="C40" t="n">
-        <v>53.74</v>
+        <v>53.61</v>
       </c>
       <c r="D40" t="n">
-        <v>53.74</v>
+        <v>53.61</v>
       </c>
       <c r="E40" t="n">
-        <v>53.7</v>
+        <v>53.61</v>
       </c>
       <c r="F40" t="n">
-        <v>66140.5603</v>
+        <v>19900.2104</v>
       </c>
       <c r="G40" t="n">
-        <v>53.75666666666667</v>
+        <v>53.75816666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1788,7 +1852,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1798,7 +1866,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>53.73</v>
+        <v>53.71</v>
       </c>
       <c r="C41" t="n">
         <v>53.74</v>
@@ -1807,13 +1875,13 @@
         <v>53.74</v>
       </c>
       <c r="E41" t="n">
-        <v>53.73</v>
+        <v>53.7</v>
       </c>
       <c r="F41" t="n">
-        <v>9891.8632</v>
+        <v>66140.5603</v>
       </c>
       <c r="G41" t="n">
-        <v>53.75733333333334</v>
+        <v>53.75666666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1823,7 +1891,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1833,22 +1905,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>53.75</v>
+        <v>53.73</v>
       </c>
       <c r="C42" t="n">
         <v>53.74</v>
       </c>
       <c r="D42" t="n">
-        <v>53.75</v>
+        <v>53.74</v>
       </c>
       <c r="E42" t="n">
-        <v>53.74</v>
+        <v>53.73</v>
       </c>
       <c r="F42" t="n">
-        <v>32035.6957</v>
+        <v>9891.8632</v>
       </c>
       <c r="G42" t="n">
-        <v>53.758</v>
+        <v>53.75733333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1858,7 +1930,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1868,22 +1944,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>53.62</v>
+        <v>53.75</v>
       </c>
       <c r="C43" t="n">
-        <v>53.62</v>
+        <v>53.74</v>
       </c>
       <c r="D43" t="n">
-        <v>53.62</v>
+        <v>53.75</v>
       </c>
       <c r="E43" t="n">
-        <v>53.62</v>
+        <v>53.74</v>
       </c>
       <c r="F43" t="n">
-        <v>2508.7194</v>
+        <v>32035.6957</v>
       </c>
       <c r="G43" t="n">
-        <v>53.75666666666667</v>
+        <v>53.758</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1893,7 +1969,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1903,22 +1983,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>53.8</v>
+        <v>53.62</v>
       </c>
       <c r="C44" t="n">
-        <v>53.74</v>
+        <v>53.62</v>
       </c>
       <c r="D44" t="n">
-        <v>53.95</v>
+        <v>53.62</v>
       </c>
       <c r="E44" t="n">
-        <v>53.72</v>
+        <v>53.62</v>
       </c>
       <c r="F44" t="n">
-        <v>53106.52097645</v>
+        <v>2508.7194</v>
       </c>
       <c r="G44" t="n">
-        <v>53.7565</v>
+        <v>53.75666666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1928,7 +2008,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1938,22 +2022,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="C45" t="n">
         <v>53.74</v>
       </c>
-      <c r="C45" t="n">
-        <v>53.85</v>
-      </c>
       <c r="D45" t="n">
-        <v>53.85</v>
+        <v>53.95</v>
       </c>
       <c r="E45" t="n">
-        <v>53.73</v>
+        <v>53.72</v>
       </c>
       <c r="F45" t="n">
-        <v>3265.95770213</v>
+        <v>53106.52097645</v>
       </c>
       <c r="G45" t="n">
-        <v>53.75816666666666</v>
+        <v>53.7565</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1963,7 +2047,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1973,22 +2061,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>53.63</v>
+        <v>53.74</v>
       </c>
       <c r="C46" t="n">
-        <v>53.62</v>
+        <v>53.85</v>
       </c>
       <c r="D46" t="n">
-        <v>53.63</v>
+        <v>53.85</v>
       </c>
       <c r="E46" t="n">
-        <v>53.62</v>
+        <v>53.73</v>
       </c>
       <c r="F46" t="n">
-        <v>7905.7521</v>
+        <v>3265.95770213</v>
       </c>
       <c r="G46" t="n">
-        <v>53.75599999999999</v>
+        <v>53.75816666666666</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1998,7 +2086,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2011,19 +2103,19 @@
         <v>53.63</v>
       </c>
       <c r="C47" t="n">
-        <v>53.63</v>
+        <v>53.62</v>
       </c>
       <c r="D47" t="n">
         <v>53.63</v>
       </c>
       <c r="E47" t="n">
-        <v>53.63</v>
+        <v>53.62</v>
       </c>
       <c r="F47" t="n">
-        <v>11992.6134</v>
+        <v>7905.7521</v>
       </c>
       <c r="G47" t="n">
-        <v>53.754</v>
+        <v>53.75599999999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2033,7 +2125,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2043,22 +2139,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>53.78</v>
+        <v>53.63</v>
       </c>
       <c r="C48" t="n">
-        <v>53.79</v>
+        <v>53.63</v>
       </c>
       <c r="D48" t="n">
-        <v>53.79</v>
+        <v>53.63</v>
       </c>
       <c r="E48" t="n">
-        <v>53.78</v>
+        <v>53.63</v>
       </c>
       <c r="F48" t="n">
-        <v>10726.5157</v>
+        <v>11992.6134</v>
       </c>
       <c r="G48" t="n">
-        <v>53.75466666666667</v>
+        <v>53.754</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2068,7 +2164,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2078,22 +2178,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>53.79</v>
+        <v>53.78</v>
       </c>
       <c r="C49" t="n">
         <v>53.79</v>
       </c>
       <c r="D49" t="n">
-        <v>53.8</v>
+        <v>53.79</v>
       </c>
       <c r="E49" t="n">
         <v>53.78</v>
       </c>
       <c r="F49" t="n">
-        <v>98820.5309</v>
+        <v>10726.5157</v>
       </c>
       <c r="G49" t="n">
-        <v>53.75333333333333</v>
+        <v>53.75466666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2103,7 +2203,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2113,22 +2217,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>53.77</v>
+        <v>53.79</v>
       </c>
       <c r="C50" t="n">
-        <v>53.77</v>
+        <v>53.79</v>
       </c>
       <c r="D50" t="n">
-        <v>53.77</v>
+        <v>53.8</v>
       </c>
       <c r="E50" t="n">
-        <v>53.77</v>
+        <v>53.78</v>
       </c>
       <c r="F50" t="n">
-        <v>348.2</v>
+        <v>98820.5309</v>
       </c>
       <c r="G50" t="n">
-        <v>53.75183333333333</v>
+        <v>53.75333333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2138,7 +2242,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2160,10 +2268,10 @@
         <v>53.77</v>
       </c>
       <c r="F51" t="n">
-        <v>570.0547</v>
+        <v>348.2</v>
       </c>
       <c r="G51" t="n">
-        <v>53.75033333333332</v>
+        <v>53.75183333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2173,7 +2281,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2186,19 +2298,19 @@
         <v>53.77</v>
       </c>
       <c r="C52" t="n">
-        <v>53.78</v>
+        <v>53.77</v>
       </c>
       <c r="D52" t="n">
-        <v>53.78</v>
+        <v>53.77</v>
       </c>
       <c r="E52" t="n">
         <v>53.77</v>
       </c>
       <c r="F52" t="n">
-        <v>8495.7863</v>
+        <v>570.0547</v>
       </c>
       <c r="G52" t="n">
-        <v>53.74816666666666</v>
+        <v>53.75033333333332</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2208,7 +2320,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2218,22 +2334,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>53.87</v>
+        <v>53.77</v>
       </c>
       <c r="C53" t="n">
-        <v>53.87</v>
+        <v>53.78</v>
       </c>
       <c r="D53" t="n">
-        <v>53.87</v>
+        <v>53.78</v>
       </c>
       <c r="E53" t="n">
-        <v>53.87</v>
+        <v>53.77</v>
       </c>
       <c r="F53" t="n">
-        <v>19907</v>
+        <v>8495.7863</v>
       </c>
       <c r="G53" t="n">
-        <v>53.74633333333333</v>
+        <v>53.74816666666666</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2243,7 +2359,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +2373,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>53.89</v>
+        <v>53.87</v>
       </c>
       <c r="C54" t="n">
-        <v>53.89</v>
+        <v>53.87</v>
       </c>
       <c r="D54" t="n">
-        <v>53.89</v>
+        <v>53.87</v>
       </c>
       <c r="E54" t="n">
-        <v>53.89</v>
+        <v>53.87</v>
       </c>
       <c r="F54" t="n">
-        <v>96712.951</v>
+        <v>19907</v>
       </c>
       <c r="G54" t="n">
-        <v>53.74716666666666</v>
+        <v>53.74633333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2278,7 +2398,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2288,22 +2412,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>53.96</v>
+        <v>53.89</v>
       </c>
       <c r="C55" t="n">
-        <v>53.96</v>
+        <v>53.89</v>
       </c>
       <c r="D55" t="n">
-        <v>54.06</v>
+        <v>53.89</v>
       </c>
       <c r="E55" t="n">
-        <v>53.96</v>
+        <v>53.89</v>
       </c>
       <c r="F55" t="n">
-        <v>7779.61</v>
+        <v>96712.951</v>
       </c>
       <c r="G55" t="n">
-        <v>53.74983333333332</v>
+        <v>53.74716666666666</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2313,7 +2437,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2326,19 +2454,19 @@
         <v>53.96</v>
       </c>
       <c r="C56" t="n">
-        <v>54.1</v>
+        <v>53.96</v>
       </c>
       <c r="D56" t="n">
-        <v>54.1</v>
+        <v>54.06</v>
       </c>
       <c r="E56" t="n">
         <v>53.96</v>
       </c>
       <c r="F56" t="n">
-        <v>8271.144399999999</v>
+        <v>7779.61</v>
       </c>
       <c r="G56" t="n">
-        <v>53.75466666666666</v>
+        <v>53.74983333333332</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2348,7 +2476,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,7 +2490,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>54.1</v>
+        <v>53.96</v>
       </c>
       <c r="C57" t="n">
         <v>54.1</v>
@@ -2367,13 +2499,13 @@
         <v>54.1</v>
       </c>
       <c r="E57" t="n">
-        <v>54.1</v>
+        <v>53.96</v>
       </c>
       <c r="F57" t="n">
-        <v>10000</v>
+        <v>8271.144399999999</v>
       </c>
       <c r="G57" t="n">
-        <v>53.75966666666665</v>
+        <v>53.75466666666666</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2383,7 +2515,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2405,10 +2541,10 @@
         <v>54.1</v>
       </c>
       <c r="F58" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G58" t="n">
-        <v>53.76066666666665</v>
+        <v>53.75966666666665</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2418,7 +2554,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2431,16 +2571,16 @@
         <v>54.1</v>
       </c>
       <c r="C59" t="n">
-        <v>54.05</v>
+        <v>54.1</v>
       </c>
       <c r="D59" t="n">
-        <v>54.2</v>
+        <v>54.1</v>
       </c>
       <c r="E59" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="F59" t="n">
-        <v>2710.52791771</v>
+        <v>20000</v>
       </c>
       <c r="G59" t="n">
         <v>53.76066666666665</v>
@@ -2453,7 +2593,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2463,22 +2607,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>54.06</v>
+        <v>54.1</v>
       </c>
       <c r="C60" t="n">
-        <v>53.92</v>
+        <v>54.05</v>
       </c>
       <c r="D60" t="n">
-        <v>54.06</v>
+        <v>54.2</v>
       </c>
       <c r="E60" t="n">
-        <v>53.92</v>
+        <v>54</v>
       </c>
       <c r="F60" t="n">
-        <v>1137.2395</v>
+        <v>2710.52791771</v>
       </c>
       <c r="G60" t="n">
-        <v>53.75866666666665</v>
+        <v>53.76066666666665</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,7 +2632,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2498,22 +2646,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>54.1</v>
+        <v>54.06</v>
       </c>
       <c r="C61" t="n">
-        <v>54.02</v>
+        <v>53.92</v>
       </c>
       <c r="D61" t="n">
-        <v>54.2</v>
+        <v>54.06</v>
       </c>
       <c r="E61" t="n">
-        <v>54.02</v>
+        <v>53.92</v>
       </c>
       <c r="F61" t="n">
-        <v>23135.5451</v>
+        <v>1137.2395</v>
       </c>
       <c r="G61" t="n">
-        <v>53.75849999999998</v>
+        <v>53.75866666666665</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2523,7 +2671,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2533,22 +2685,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>53.9</v>
+        <v>54.1</v>
       </c>
       <c r="C62" t="n">
-        <v>53.9</v>
+        <v>54.02</v>
       </c>
       <c r="D62" t="n">
-        <v>53.9</v>
+        <v>54.2</v>
       </c>
       <c r="E62" t="n">
-        <v>53.9</v>
+        <v>54.02</v>
       </c>
       <c r="F62" t="n">
-        <v>8800</v>
+        <v>23135.5451</v>
       </c>
       <c r="G62" t="n">
-        <v>53.76266666666665</v>
+        <v>53.75849999999998</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2558,7 +2710,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2568,22 +2724,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>53.89</v>
+        <v>53.9</v>
       </c>
       <c r="C63" t="n">
-        <v>53.89</v>
+        <v>53.9</v>
       </c>
       <c r="D63" t="n">
-        <v>53.89</v>
+        <v>53.9</v>
       </c>
       <c r="E63" t="n">
-        <v>53.89</v>
+        <v>53.9</v>
       </c>
       <c r="F63" t="n">
-        <v>11500</v>
+        <v>8800</v>
       </c>
       <c r="G63" t="n">
-        <v>53.76416666666664</v>
+        <v>53.76266666666665</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2593,7 +2749,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,19 +2763,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>54.1</v>
+        <v>53.89</v>
       </c>
       <c r="C64" t="n">
-        <v>53.9</v>
+        <v>53.89</v>
       </c>
       <c r="D64" t="n">
-        <v>54.2</v>
+        <v>53.89</v>
       </c>
       <c r="E64" t="n">
-        <v>53.9</v>
+        <v>53.89</v>
       </c>
       <c r="F64" t="n">
-        <v>2572.07630959</v>
+        <v>11500</v>
       </c>
       <c r="G64" t="n">
         <v>53.76416666666664</v>
@@ -2628,7 +2788,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2638,22 +2802,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>53.95</v>
+        <v>54.1</v>
       </c>
       <c r="C65" t="n">
-        <v>53.95</v>
+        <v>53.9</v>
       </c>
       <c r="D65" t="n">
-        <v>53.95</v>
+        <v>54.2</v>
       </c>
       <c r="E65" t="n">
-        <v>53.95</v>
+        <v>53.9</v>
       </c>
       <c r="F65" t="n">
-        <v>19257.7521</v>
+        <v>2572.07630959</v>
       </c>
       <c r="G65" t="n">
-        <v>53.76299999999997</v>
+        <v>53.76416666666664</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2663,7 +2827,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2673,22 +2841,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>53.97</v>
+        <v>53.95</v>
       </c>
       <c r="C66" t="n">
-        <v>53.97</v>
+        <v>53.95</v>
       </c>
       <c r="D66" t="n">
-        <v>53.97</v>
+        <v>53.95</v>
       </c>
       <c r="E66" t="n">
-        <v>53.97</v>
+        <v>53.95</v>
       </c>
       <c r="F66" t="n">
-        <v>25657.9137</v>
+        <v>19257.7521</v>
       </c>
       <c r="G66" t="n">
-        <v>53.76216666666664</v>
+        <v>53.76299999999997</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2698,7 +2866,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +2880,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>53.98</v>
+        <v>53.97</v>
       </c>
       <c r="C67" t="n">
-        <v>53.99</v>
+        <v>53.97</v>
       </c>
       <c r="D67" t="n">
-        <v>53.99</v>
+        <v>53.97</v>
       </c>
       <c r="E67" t="n">
-        <v>53.96</v>
+        <v>53.97</v>
       </c>
       <c r="F67" t="n">
-        <v>25847.337</v>
+        <v>25657.9137</v>
       </c>
       <c r="G67" t="n">
-        <v>53.76183333333329</v>
+        <v>53.76216666666664</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2733,7 +2905,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2743,22 +2919,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>54.2</v>
+        <v>53.98</v>
       </c>
       <c r="C68" t="n">
-        <v>54.11</v>
+        <v>53.99</v>
       </c>
       <c r="D68" t="n">
-        <v>54.2</v>
+        <v>53.99</v>
       </c>
       <c r="E68" t="n">
-        <v>54.11</v>
+        <v>53.96</v>
       </c>
       <c r="F68" t="n">
-        <v>14324.348</v>
+        <v>25847.337</v>
       </c>
       <c r="G68" t="n">
-        <v>53.7653333333333</v>
+        <v>53.76183333333329</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2768,7 +2944,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +2958,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>54.22</v>
+        <v>54.2</v>
       </c>
       <c r="C69" t="n">
-        <v>54.02</v>
+        <v>54.11</v>
       </c>
       <c r="D69" t="n">
-        <v>54.22</v>
+        <v>54.2</v>
       </c>
       <c r="E69" t="n">
-        <v>54.02</v>
+        <v>54.11</v>
       </c>
       <c r="F69" t="n">
-        <v>86954.0738</v>
+        <v>14324.348</v>
       </c>
       <c r="G69" t="n">
-        <v>53.77166666666663</v>
+        <v>53.7653333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2803,7 +2983,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2813,22 +2997,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>54.2</v>
+        <v>54.22</v>
       </c>
       <c r="C70" t="n">
-        <v>54.29</v>
+        <v>54.02</v>
       </c>
       <c r="D70" t="n">
-        <v>54.29</v>
+        <v>54.22</v>
       </c>
       <c r="E70" t="n">
-        <v>54.2</v>
+        <v>54.02</v>
       </c>
       <c r="F70" t="n">
-        <v>14333.3791</v>
+        <v>86954.0738</v>
       </c>
       <c r="G70" t="n">
-        <v>53.7793333333333</v>
+        <v>53.77166666666663</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2838,7 +3022,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2848,22 +3036,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>54.13</v>
+        <v>54.2</v>
       </c>
       <c r="C71" t="n">
-        <v>54.12</v>
+        <v>54.29</v>
       </c>
       <c r="D71" t="n">
-        <v>54.13</v>
+        <v>54.29</v>
       </c>
       <c r="E71" t="n">
-        <v>54.11</v>
+        <v>54.2</v>
       </c>
       <c r="F71" t="n">
-        <v>35373.8925</v>
+        <v>14333.3791</v>
       </c>
       <c r="G71" t="n">
-        <v>53.7838333333333</v>
+        <v>53.7793333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2873,7 +3061,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2883,63 +3075,65 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
+        <v>54.13</v>
+      </c>
+      <c r="C72" t="n">
         <v>54.12</v>
       </c>
-      <c r="C72" t="n">
-        <v>54.01</v>
-      </c>
       <c r="D72" t="n">
-        <v>54.12</v>
+        <v>54.13</v>
       </c>
       <c r="E72" t="n">
-        <v>54.01</v>
+        <v>54.11</v>
       </c>
       <c r="F72" t="n">
-        <v>14164.9842</v>
+        <v>35373.8925</v>
       </c>
       <c r="G72" t="n">
-        <v>53.7888333333333</v>
+        <v>53.7838333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>54.18</v>
+        <v>54.12</v>
       </c>
       <c r="C73" t="n">
-        <v>54.28</v>
+        <v>54.01</v>
       </c>
       <c r="D73" t="n">
-        <v>54.28</v>
+        <v>54.12</v>
       </c>
       <c r="E73" t="n">
-        <v>54.18</v>
+        <v>54.01</v>
       </c>
       <c r="F73" t="n">
-        <v>18739.47179034</v>
+        <v>14164.9842</v>
       </c>
       <c r="G73" t="n">
-        <v>53.7983333333333</v>
+        <v>53.7888333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -2953,28 +3147,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>54.12</v>
+        <v>54.18</v>
       </c>
       <c r="C74" t="n">
-        <v>54.13</v>
+        <v>54.28</v>
       </c>
       <c r="D74" t="n">
-        <v>54.13</v>
+        <v>54.28</v>
       </c>
       <c r="E74" t="n">
-        <v>54.12</v>
+        <v>54.18</v>
       </c>
       <c r="F74" t="n">
-        <v>1274.091</v>
+        <v>18739.47179034</v>
       </c>
       <c r="G74" t="n">
-        <v>53.80266666666664</v>
+        <v>53.7983333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -2991,25 +3185,25 @@
         <v>54.12</v>
       </c>
       <c r="C75" t="n">
-        <v>54.01</v>
+        <v>54.13</v>
       </c>
       <c r="D75" t="n">
+        <v>54.13</v>
+      </c>
+      <c r="E75" t="n">
         <v>54.12</v>
       </c>
-      <c r="E75" t="n">
-        <v>54.01</v>
-      </c>
       <c r="F75" t="n">
-        <v>1580.6942</v>
+        <v>1274.091</v>
       </c>
       <c r="G75" t="n">
-        <v>53.80499999999998</v>
+        <v>53.80266666666664</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3023,28 +3217,28 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>54.03</v>
+        <v>54.12</v>
       </c>
       <c r="C76" t="n">
-        <v>54</v>
+        <v>54.01</v>
       </c>
       <c r="D76" t="n">
-        <v>54.04</v>
+        <v>54.12</v>
       </c>
       <c r="E76" t="n">
-        <v>54</v>
+        <v>54.01</v>
       </c>
       <c r="F76" t="n">
-        <v>37889.4002</v>
+        <v>1580.6942</v>
       </c>
       <c r="G76" t="n">
-        <v>53.80716666666665</v>
+        <v>53.80499999999998</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3058,22 +3252,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>54.02</v>
+        <v>54.03</v>
       </c>
       <c r="C77" t="n">
-        <v>53.91</v>
+        <v>54</v>
       </c>
       <c r="D77" t="n">
-        <v>54.02</v>
+        <v>54.04</v>
       </c>
       <c r="E77" t="n">
-        <v>53.91</v>
+        <v>54</v>
       </c>
       <c r="F77" t="n">
-        <v>42948.2632</v>
+        <v>37889.4002</v>
       </c>
       <c r="G77" t="n">
-        <v>53.81049999999998</v>
+        <v>53.80716666666665</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3287,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>53.87</v>
+        <v>54.02</v>
       </c>
       <c r="C78" t="n">
-        <v>53.85</v>
+        <v>53.91</v>
       </c>
       <c r="D78" t="n">
-        <v>53.87</v>
+        <v>54.02</v>
       </c>
       <c r="E78" t="n">
-        <v>53.85</v>
+        <v>53.91</v>
       </c>
       <c r="F78" t="n">
-        <v>117472.9409</v>
+        <v>42948.2632</v>
       </c>
       <c r="G78" t="n">
-        <v>53.81283333333331</v>
+        <v>53.81049999999998</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,7 +3322,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>53.86</v>
+        <v>53.87</v>
       </c>
       <c r="C79" t="n">
         <v>53.85</v>
@@ -3140,10 +3334,10 @@
         <v>53.85</v>
       </c>
       <c r="F79" t="n">
-        <v>87903.41439999999</v>
+        <v>117472.9409</v>
       </c>
       <c r="G79" t="n">
-        <v>53.81533333333331</v>
+        <v>53.81283333333331</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3357,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>53.85</v>
+        <v>53.86</v>
       </c>
       <c r="C80" t="n">
         <v>53.85</v>
       </c>
       <c r="D80" t="n">
-        <v>53.85</v>
+        <v>53.87</v>
       </c>
       <c r="E80" t="n">
         <v>53.85</v>
       </c>
       <c r="F80" t="n">
-        <v>5708.0867</v>
+        <v>87903.41439999999</v>
       </c>
       <c r="G80" t="n">
-        <v>53.81999999999997</v>
+        <v>53.81533333333331</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3392,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>53.8</v>
+        <v>53.85</v>
       </c>
       <c r="C81" t="n">
-        <v>53.8</v>
+        <v>53.85</v>
       </c>
       <c r="D81" t="n">
-        <v>53.8</v>
+        <v>53.85</v>
       </c>
       <c r="E81" t="n">
-        <v>53.8</v>
+        <v>53.85</v>
       </c>
       <c r="F81" t="n">
-        <v>2886.1378</v>
+        <v>5708.0867</v>
       </c>
       <c r="G81" t="n">
-        <v>53.82566666666664</v>
+        <v>53.81999999999997</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3427,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>54.19</v>
+        <v>53.8</v>
       </c>
       <c r="C82" t="n">
-        <v>54.19</v>
+        <v>53.8</v>
       </c>
       <c r="D82" t="n">
-        <v>54.19</v>
+        <v>53.8</v>
       </c>
       <c r="E82" t="n">
-        <v>54.19</v>
+        <v>53.8</v>
       </c>
       <c r="F82" t="n">
-        <v>1281.4735</v>
+        <v>2886.1378</v>
       </c>
       <c r="G82" t="n">
-        <v>53.83783333333331</v>
+        <v>53.82566666666664</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3462,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>54.15</v>
+        <v>54.19</v>
       </c>
       <c r="C83" t="n">
-        <v>54.15</v>
+        <v>54.19</v>
       </c>
       <c r="D83" t="n">
-        <v>54.15</v>
+        <v>54.19</v>
       </c>
       <c r="E83" t="n">
-        <v>54.15</v>
+        <v>54.19</v>
       </c>
       <c r="F83" t="n">
-        <v>1640.7532</v>
+        <v>1281.4735</v>
       </c>
       <c r="G83" t="n">
-        <v>53.84949999999998</v>
+        <v>53.83783333333331</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3497,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>53.93</v>
+        <v>54.15</v>
       </c>
       <c r="C84" t="n">
-        <v>54.02</v>
+        <v>54.15</v>
       </c>
       <c r="D84" t="n">
-        <v>54.02</v>
+        <v>54.15</v>
       </c>
       <c r="E84" t="n">
-        <v>53.92</v>
+        <v>54.15</v>
       </c>
       <c r="F84" t="n">
-        <v>41544.2798</v>
+        <v>1640.7532</v>
       </c>
       <c r="G84" t="n">
-        <v>53.85766666666665</v>
+        <v>53.84949999999998</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3532,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>53.9</v>
+        <v>53.93</v>
       </c>
       <c r="C85" t="n">
-        <v>53.83</v>
+        <v>54.02</v>
       </c>
       <c r="D85" t="n">
-        <v>53.9</v>
+        <v>54.02</v>
       </c>
       <c r="E85" t="n">
-        <v>53.83</v>
+        <v>53.92</v>
       </c>
       <c r="F85" t="n">
-        <v>17461.2</v>
+        <v>41544.2798</v>
       </c>
       <c r="G85" t="n">
-        <v>53.86516666666664</v>
+        <v>53.85766666666665</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3567,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>54.05</v>
+        <v>53.9</v>
       </c>
       <c r="C86" t="n">
-        <v>54.05</v>
+        <v>53.83</v>
       </c>
       <c r="D86" t="n">
-        <v>54.05</v>
+        <v>53.9</v>
       </c>
       <c r="E86" t="n">
-        <v>54.05</v>
+        <v>53.83</v>
       </c>
       <c r="F86" t="n">
-        <v>853</v>
+        <v>17461.2</v>
       </c>
       <c r="G86" t="n">
-        <v>53.87633333333331</v>
+        <v>53.86516666666664</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3602,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>54.15</v>
+        <v>54.05</v>
       </c>
       <c r="C87" t="n">
-        <v>54.15</v>
+        <v>54.05</v>
       </c>
       <c r="D87" t="n">
-        <v>54.15</v>
+        <v>54.05</v>
       </c>
       <c r="E87" t="n">
-        <v>54.15</v>
+        <v>54.05</v>
       </c>
       <c r="F87" t="n">
-        <v>11500</v>
+        <v>853</v>
       </c>
       <c r="G87" t="n">
-        <v>53.88916666666664</v>
+        <v>53.87633333333331</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3446,19 +3640,19 @@
         <v>54.15</v>
       </c>
       <c r="C88" t="n">
-        <v>54.16</v>
+        <v>54.15</v>
       </c>
       <c r="D88" t="n">
-        <v>54.16</v>
+        <v>54.15</v>
       </c>
       <c r="E88" t="n">
         <v>54.15</v>
       </c>
       <c r="F88" t="n">
-        <v>1342.0006</v>
+        <v>11500</v>
       </c>
       <c r="G88" t="n">
-        <v>53.89599999999997</v>
+        <v>53.88916666666664</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,7 +3672,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>54.16</v>
+        <v>54.15</v>
       </c>
       <c r="C89" t="n">
         <v>54.16</v>
@@ -3487,13 +3681,13 @@
         <v>54.16</v>
       </c>
       <c r="E89" t="n">
-        <v>54.16</v>
+        <v>54.15</v>
       </c>
       <c r="F89" t="n">
-        <v>16007.8658</v>
+        <v>1342.0006</v>
       </c>
       <c r="G89" t="n">
-        <v>53.90366666666664</v>
+        <v>53.89599999999997</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3516,19 +3710,19 @@
         <v>54.16</v>
       </c>
       <c r="C90" t="n">
-        <v>54.15</v>
+        <v>54.16</v>
       </c>
       <c r="D90" t="n">
         <v>54.16</v>
       </c>
       <c r="E90" t="n">
-        <v>54.15</v>
+        <v>54.16</v>
       </c>
       <c r="F90" t="n">
-        <v>62596.2465</v>
+        <v>16007.8658</v>
       </c>
       <c r="G90" t="n">
-        <v>53.91183333333331</v>
+        <v>53.90366666666664</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3742,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>54.15</v>
+        <v>54.16</v>
       </c>
       <c r="C91" t="n">
         <v>54.15</v>
       </c>
       <c r="D91" t="n">
-        <v>54.15</v>
+        <v>54.16</v>
       </c>
       <c r="E91" t="n">
         <v>54.15</v>
       </c>
       <c r="F91" t="n">
-        <v>3506.6871</v>
+        <v>62596.2465</v>
       </c>
       <c r="G91" t="n">
-        <v>53.91833333333331</v>
+        <v>53.91183333333331</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3777,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>54.09</v>
+        <v>54.15</v>
       </c>
       <c r="C92" t="n">
-        <v>54.09</v>
+        <v>54.15</v>
       </c>
       <c r="D92" t="n">
-        <v>54.09</v>
+        <v>54.15</v>
       </c>
       <c r="E92" t="n">
-        <v>54.09</v>
+        <v>54.15</v>
       </c>
       <c r="F92" t="n">
-        <v>774</v>
+        <v>3506.6871</v>
       </c>
       <c r="G92" t="n">
-        <v>53.92233333333331</v>
+        <v>53.91833333333331</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3812,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>54.1</v>
+        <v>54.09</v>
       </c>
       <c r="C93" t="n">
-        <v>54.1</v>
+        <v>54.09</v>
       </c>
       <c r="D93" t="n">
-        <v>54.1</v>
+        <v>54.09</v>
       </c>
       <c r="E93" t="n">
-        <v>54.1</v>
+        <v>54.09</v>
       </c>
       <c r="F93" t="n">
-        <v>8715.254499999999</v>
+        <v>774</v>
       </c>
       <c r="G93" t="n">
-        <v>53.92883333333331</v>
+        <v>53.92233333333331</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3847,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>54.15</v>
+        <v>54.1</v>
       </c>
       <c r="C94" t="n">
-        <v>54.24</v>
+        <v>54.1</v>
       </c>
       <c r="D94" t="n">
-        <v>54.25</v>
+        <v>54.1</v>
       </c>
       <c r="E94" t="n">
-        <v>54.15</v>
+        <v>54.1</v>
       </c>
       <c r="F94" t="n">
-        <v>11511.41862621</v>
+        <v>8715.254499999999</v>
       </c>
       <c r="G94" t="n">
-        <v>53.93783333333331</v>
+        <v>53.92883333333331</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3882,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>54.24</v>
+        <v>54.15</v>
       </c>
       <c r="C95" t="n">
         <v>54.24</v>
       </c>
       <c r="D95" t="n">
-        <v>54.24</v>
+        <v>54.25</v>
       </c>
       <c r="E95" t="n">
-        <v>54.24</v>
+        <v>54.15</v>
       </c>
       <c r="F95" t="n">
-        <v>19745.5627</v>
+        <v>11511.41862621</v>
       </c>
       <c r="G95" t="n">
-        <v>53.94683333333331</v>
+        <v>53.93783333333331</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3917,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>54.29</v>
+        <v>54.24</v>
       </c>
       <c r="C96" t="n">
-        <v>54.4</v>
+        <v>54.24</v>
       </c>
       <c r="D96" t="n">
-        <v>54.4</v>
+        <v>54.24</v>
       </c>
       <c r="E96" t="n">
-        <v>54.29</v>
+        <v>54.24</v>
       </c>
       <c r="F96" t="n">
-        <v>32880.13217149</v>
+        <v>19745.5627</v>
       </c>
       <c r="G96" t="n">
-        <v>53.95849999999998</v>
+        <v>53.94683333333331</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3952,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>54.37</v>
+        <v>54.29</v>
       </c>
       <c r="C97" t="n">
-        <v>54.29</v>
+        <v>54.4</v>
       </c>
       <c r="D97" t="n">
-        <v>54.37</v>
+        <v>54.4</v>
       </c>
       <c r="E97" t="n">
         <v>54.29</v>
       </c>
       <c r="F97" t="n">
-        <v>6998.1797</v>
+        <v>32880.13217149</v>
       </c>
       <c r="G97" t="n">
-        <v>53.96833333333332</v>
+        <v>53.95849999999998</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3987,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>54.4</v>
+        <v>54.37</v>
       </c>
       <c r="C98" t="n">
-        <v>54.4</v>
+        <v>54.29</v>
       </c>
       <c r="D98" t="n">
-        <v>54.4</v>
+        <v>54.37</v>
       </c>
       <c r="E98" t="n">
-        <v>54.4</v>
+        <v>54.29</v>
       </c>
       <c r="F98" t="n">
-        <v>4999.99992942</v>
+        <v>6998.1797</v>
       </c>
       <c r="G98" t="n">
-        <v>53.97999999999999</v>
+        <v>53.96833333333332</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3831,19 +4025,19 @@
         <v>54.4</v>
       </c>
       <c r="C99" t="n">
-        <v>54.21</v>
+        <v>54.4</v>
       </c>
       <c r="D99" t="n">
         <v>54.4</v>
       </c>
       <c r="E99" t="n">
-        <v>54.21</v>
+        <v>54.4</v>
       </c>
       <c r="F99" t="n">
-        <v>31363.2168</v>
+        <v>4999.99992942</v>
       </c>
       <c r="G99" t="n">
-        <v>53.98999999999999</v>
+        <v>53.97999999999999</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +4057,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>54.31</v>
+        <v>54.4</v>
       </c>
       <c r="C100" t="n">
-        <v>54.31</v>
+        <v>54.21</v>
       </c>
       <c r="D100" t="n">
-        <v>54.31</v>
+        <v>54.4</v>
       </c>
       <c r="E100" t="n">
-        <v>54.31</v>
+        <v>54.21</v>
       </c>
       <c r="F100" t="n">
-        <v>776</v>
+        <v>31363.2168</v>
       </c>
       <c r="G100" t="n">
-        <v>53.99949999999999</v>
+        <v>53.98999999999999</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +4092,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>54.41</v>
+        <v>54.31</v>
       </c>
       <c r="C101" t="n">
-        <v>54.41</v>
+        <v>54.31</v>
       </c>
       <c r="D101" t="n">
-        <v>54.41</v>
+        <v>54.31</v>
       </c>
       <c r="E101" t="n">
-        <v>54.41</v>
+        <v>54.31</v>
       </c>
       <c r="F101" t="n">
-        <v>1724.1172</v>
+        <v>776</v>
       </c>
       <c r="G101" t="n">
-        <v>54.01066666666666</v>
+        <v>53.99949999999999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3945,10 +4139,10 @@
         <v>54.41</v>
       </c>
       <c r="F102" t="n">
-        <v>10717.617</v>
+        <v>1724.1172</v>
       </c>
       <c r="G102" t="n">
-        <v>54.02183333333333</v>
+        <v>54.01066666666666</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +4162,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>54.42</v>
+        <v>54.41</v>
       </c>
       <c r="C103" t="n">
-        <v>54.42</v>
+        <v>54.41</v>
       </c>
       <c r="D103" t="n">
-        <v>54.42</v>
+        <v>54.41</v>
       </c>
       <c r="E103" t="n">
-        <v>54.42</v>
+        <v>54.41</v>
       </c>
       <c r="F103" t="n">
-        <v>2000</v>
+        <v>10717.617</v>
       </c>
       <c r="G103" t="n">
-        <v>54.03516666666666</v>
+        <v>54.02183333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4015,10 +4209,10 @@
         <v>54.42</v>
       </c>
       <c r="F104" t="n">
-        <v>2971.7774</v>
+        <v>2000</v>
       </c>
       <c r="G104" t="n">
-        <v>54.0465</v>
+        <v>54.03516666666666</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4232,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>54.41</v>
+        <v>54.42</v>
       </c>
       <c r="C105" t="n">
-        <v>54.41</v>
+        <v>54.42</v>
       </c>
       <c r="D105" t="n">
-        <v>54.41</v>
+        <v>54.42</v>
       </c>
       <c r="E105" t="n">
-        <v>54.41</v>
+        <v>54.42</v>
       </c>
       <c r="F105" t="n">
-        <v>1404.8725</v>
+        <v>2971.7774</v>
       </c>
       <c r="G105" t="n">
-        <v>54.05583333333333</v>
+        <v>54.0465</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4076,19 +4270,19 @@
         <v>54.41</v>
       </c>
       <c r="C106" t="n">
-        <v>54.46</v>
+        <v>54.41</v>
       </c>
       <c r="D106" t="n">
-        <v>54.46</v>
+        <v>54.41</v>
       </c>
       <c r="E106" t="n">
         <v>54.41</v>
       </c>
       <c r="F106" t="n">
-        <v>14498.6</v>
+        <v>1404.8725</v>
       </c>
       <c r="G106" t="n">
-        <v>54.06983333333334</v>
+        <v>54.05583333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4302,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
+        <v>54.41</v>
+      </c>
+      <c r="C107" t="n">
         <v>54.46</v>
       </c>
-      <c r="C107" t="n">
-        <v>54.4</v>
-      </c>
       <c r="D107" t="n">
-        <v>54.51</v>
+        <v>54.46</v>
       </c>
       <c r="E107" t="n">
-        <v>54.4</v>
+        <v>54.41</v>
       </c>
       <c r="F107" t="n">
-        <v>29983.149984</v>
+        <v>14498.6</v>
       </c>
       <c r="G107" t="n">
-        <v>54.08266666666667</v>
+        <v>54.06983333333334</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4146,19 +4340,19 @@
         <v>54.46</v>
       </c>
       <c r="C108" t="n">
-        <v>54.46</v>
+        <v>54.4</v>
       </c>
       <c r="D108" t="n">
-        <v>54.46</v>
+        <v>54.51</v>
       </c>
       <c r="E108" t="n">
-        <v>54.46</v>
+        <v>54.4</v>
       </c>
       <c r="F108" t="n">
-        <v>477.2233</v>
+        <v>29983.149984</v>
       </c>
       <c r="G108" t="n">
-        <v>54.09383333333334</v>
+        <v>54.08266666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4372,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>54.41</v>
+        <v>54.46</v>
       </c>
       <c r="C109" t="n">
-        <v>54.41</v>
+        <v>54.46</v>
       </c>
       <c r="D109" t="n">
-        <v>54.41</v>
+        <v>54.46</v>
       </c>
       <c r="E109" t="n">
-        <v>54.41</v>
+        <v>54.46</v>
       </c>
       <c r="F109" t="n">
-        <v>35689.2606</v>
+        <v>477.2233</v>
       </c>
       <c r="G109" t="n">
-        <v>54.10416666666666</v>
+        <v>54.09383333333334</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4407,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>54.51</v>
+        <v>54.41</v>
       </c>
       <c r="C110" t="n">
-        <v>54.62</v>
+        <v>54.41</v>
       </c>
       <c r="D110" t="n">
-        <v>54.62</v>
+        <v>54.41</v>
       </c>
       <c r="E110" t="n">
-        <v>54.51</v>
+        <v>54.41</v>
       </c>
       <c r="F110" t="n">
-        <v>31020.925616</v>
+        <v>35689.2606</v>
       </c>
       <c r="G110" t="n">
-        <v>54.11833333333333</v>
+        <v>54.10416666666666</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4442,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>54.61</v>
+        <v>54.51</v>
       </c>
       <c r="C111" t="n">
-        <v>54.74</v>
+        <v>54.62</v>
       </c>
       <c r="D111" t="n">
-        <v>54.74</v>
+        <v>54.62</v>
       </c>
       <c r="E111" t="n">
-        <v>54.61</v>
+        <v>54.51</v>
       </c>
       <c r="F111" t="n">
-        <v>47388.7247</v>
+        <v>31020.925616</v>
       </c>
       <c r="G111" t="n">
-        <v>54.1345</v>
+        <v>54.11833333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4477,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
+        <v>54.61</v>
+      </c>
+      <c r="C112" t="n">
         <v>54.74</v>
       </c>
-      <c r="C112" t="n">
-        <v>54.58</v>
-      </c>
       <c r="D112" t="n">
-        <v>54.84</v>
+        <v>54.74</v>
       </c>
       <c r="E112" t="n">
-        <v>54.58</v>
+        <v>54.61</v>
       </c>
       <c r="F112" t="n">
-        <v>255834.55590182</v>
+        <v>47388.7247</v>
       </c>
       <c r="G112" t="n">
-        <v>54.14783333333332</v>
+        <v>54.1345</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4512,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
+        <v>54.74</v>
+      </c>
+      <c r="C113" t="n">
         <v>54.58</v>
       </c>
-      <c r="C113" t="n">
-        <v>54.55</v>
-      </c>
       <c r="D113" t="n">
+        <v>54.84</v>
+      </c>
+      <c r="E113" t="n">
         <v>54.58</v>
       </c>
-      <c r="E113" t="n">
-        <v>54.55</v>
-      </c>
       <c r="F113" t="n">
-        <v>20974.5609</v>
+        <v>255834.55590182</v>
       </c>
       <c r="G113" t="n">
-        <v>54.15916666666666</v>
+        <v>54.14783333333332</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,28 +4547,28 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>54.73</v>
+        <v>54.58</v>
       </c>
       <c r="C114" t="n">
-        <v>54.83</v>
+        <v>54.55</v>
       </c>
       <c r="D114" t="n">
-        <v>54.83</v>
+        <v>54.58</v>
       </c>
       <c r="E114" t="n">
-        <v>54.73</v>
+        <v>54.55</v>
       </c>
       <c r="F114" t="n">
-        <v>23870.75816159</v>
+        <v>20974.5609</v>
       </c>
       <c r="G114" t="n">
-        <v>54.17483333333333</v>
+        <v>54.15916666666666</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4388,22 +4582,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
+        <v>54.73</v>
+      </c>
+      <c r="C115" t="n">
         <v>54.83</v>
-      </c>
-      <c r="C115" t="n">
-        <v>54.82</v>
       </c>
       <c r="D115" t="n">
         <v>54.83</v>
       </c>
       <c r="E115" t="n">
-        <v>54.82</v>
+        <v>54.73</v>
       </c>
       <c r="F115" t="n">
-        <v>8868.178099999999</v>
+        <v>23870.75816159</v>
       </c>
       <c r="G115" t="n">
-        <v>54.18916666666667</v>
+        <v>54.17483333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4617,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
+        <v>54.83</v>
+      </c>
+      <c r="C116" t="n">
         <v>54.82</v>
       </c>
-      <c r="C116" t="n">
-        <v>54.89</v>
-      </c>
       <c r="D116" t="n">
-        <v>54.89</v>
+        <v>54.83</v>
       </c>
       <c r="E116" t="n">
         <v>54.82</v>
       </c>
       <c r="F116" t="n">
-        <v>150983.23256221</v>
+        <v>8868.178099999999</v>
       </c>
       <c r="G116" t="n">
-        <v>54.20233333333333</v>
+        <v>54.18916666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,28 +4652,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>54.88</v>
+        <v>54.82</v>
       </c>
       <c r="C117" t="n">
-        <v>55</v>
+        <v>54.89</v>
       </c>
       <c r="D117" t="n">
-        <v>55</v>
+        <v>54.89</v>
       </c>
       <c r="E117" t="n">
-        <v>54.88</v>
+        <v>54.82</v>
       </c>
       <c r="F117" t="n">
-        <v>113540.06323597</v>
+        <v>150983.23256221</v>
       </c>
       <c r="G117" t="n">
-        <v>54.21733333333334</v>
+        <v>54.20233333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4493,7 +4687,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>54.99</v>
+        <v>54.88</v>
       </c>
       <c r="C118" t="n">
         <v>55</v>
@@ -4502,19 +4696,19 @@
         <v>55</v>
       </c>
       <c r="E118" t="n">
-        <v>54.99</v>
+        <v>54.88</v>
       </c>
       <c r="F118" t="n">
-        <v>49475.3504</v>
+        <v>113540.06323597</v>
       </c>
       <c r="G118" t="n">
-        <v>54.23233333333334</v>
+        <v>54.21733333333334</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4528,22 +4722,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>55.06</v>
+        <v>54.99</v>
       </c>
       <c r="C119" t="n">
-        <v>54.91</v>
+        <v>55</v>
       </c>
       <c r="D119" t="n">
-        <v>55.16</v>
+        <v>55</v>
       </c>
       <c r="E119" t="n">
-        <v>54.91</v>
+        <v>54.99</v>
       </c>
       <c r="F119" t="n">
-        <v>51740.72322828</v>
+        <v>49475.3504</v>
       </c>
       <c r="G119" t="n">
-        <v>54.24666666666666</v>
+        <v>54.23233333333334</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,28 +4757,28 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>54.91</v>
+        <v>55.06</v>
       </c>
       <c r="C120" t="n">
         <v>54.91</v>
       </c>
       <c r="D120" t="n">
-        <v>54.91</v>
+        <v>55.16</v>
       </c>
       <c r="E120" t="n">
         <v>54.91</v>
       </c>
       <c r="F120" t="n">
-        <v>42966.4</v>
+        <v>51740.72322828</v>
       </c>
       <c r="G120" t="n">
-        <v>54.26316666666666</v>
+        <v>54.24666666666666</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4598,28 +4792,28 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>54.92</v>
+        <v>54.91</v>
       </c>
       <c r="C121" t="n">
-        <v>54.92</v>
+        <v>54.91</v>
       </c>
       <c r="D121" t="n">
-        <v>54.92</v>
+        <v>54.91</v>
       </c>
       <c r="E121" t="n">
-        <v>54.92</v>
+        <v>54.91</v>
       </c>
       <c r="F121" t="n">
-        <v>8000</v>
+        <v>42966.4</v>
       </c>
       <c r="G121" t="n">
-        <v>54.27816666666666</v>
+        <v>54.26316666666666</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -4633,22 +4827,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>54.93</v>
+        <v>54.92</v>
       </c>
       <c r="C122" t="n">
         <v>54.92</v>
       </c>
       <c r="D122" t="n">
-        <v>54.93</v>
+        <v>54.92</v>
       </c>
       <c r="E122" t="n">
-        <v>54.9</v>
+        <v>54.92</v>
       </c>
       <c r="F122" t="n">
-        <v>17952.6442</v>
+        <v>8000</v>
       </c>
       <c r="G122" t="n">
-        <v>54.29516666666666</v>
+        <v>54.27816666666666</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4862,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>54.92</v>
+        <v>54.93</v>
       </c>
       <c r="C123" t="n">
         <v>54.92</v>
       </c>
       <c r="D123" t="n">
-        <v>54.92</v>
+        <v>54.93</v>
       </c>
       <c r="E123" t="n">
-        <v>54.92</v>
+        <v>54.9</v>
       </c>
       <c r="F123" t="n">
-        <v>1120.3838</v>
+        <v>17952.6442</v>
       </c>
       <c r="G123" t="n">
-        <v>54.31233333333333</v>
+        <v>54.29516666666666</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4706,19 +4900,19 @@
         <v>54.92</v>
       </c>
       <c r="C124" t="n">
-        <v>55.15</v>
+        <v>54.92</v>
       </c>
       <c r="D124" t="n">
-        <v>55.15</v>
+        <v>54.92</v>
       </c>
       <c r="E124" t="n">
         <v>54.92</v>
       </c>
       <c r="F124" t="n">
-        <v>34125.25403975</v>
+        <v>1120.3838</v>
       </c>
       <c r="G124" t="n">
-        <v>54.33316666666666</v>
+        <v>54.31233333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4932,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>55.03</v>
+        <v>54.92</v>
       </c>
       <c r="C125" t="n">
-        <v>55.03</v>
+        <v>55.15</v>
       </c>
       <c r="D125" t="n">
-        <v>55.03</v>
+        <v>55.15</v>
       </c>
       <c r="E125" t="n">
-        <v>55.03</v>
+        <v>54.92</v>
       </c>
       <c r="F125" t="n">
-        <v>642.968</v>
+        <v>34125.25403975</v>
       </c>
       <c r="G125" t="n">
-        <v>54.35116666666667</v>
+        <v>54.33316666666666</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4776,19 +4970,19 @@
         <v>55.03</v>
       </c>
       <c r="C126" t="n">
-        <v>55.06</v>
+        <v>55.03</v>
       </c>
       <c r="D126" t="n">
-        <v>55.07</v>
+        <v>55.03</v>
       </c>
       <c r="E126" t="n">
         <v>55.03</v>
       </c>
       <c r="F126" t="n">
-        <v>56616.6383</v>
+        <v>642.968</v>
       </c>
       <c r="G126" t="n">
-        <v>54.36933333333334</v>
+        <v>54.35116666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +5002,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>55.06</v>
+        <v>55.03</v>
       </c>
       <c r="C127" t="n">
         <v>55.06</v>
       </c>
       <c r="D127" t="n">
-        <v>55.06</v>
+        <v>55.07</v>
       </c>
       <c r="E127" t="n">
-        <v>55.06</v>
+        <v>55.03</v>
       </c>
       <c r="F127" t="n">
-        <v>10160.1791</v>
+        <v>56616.6383</v>
       </c>
       <c r="G127" t="n">
-        <v>54.38716666666667</v>
+        <v>54.36933333333334</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +5037,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>55.04</v>
+        <v>55.06</v>
       </c>
       <c r="C128" t="n">
-        <v>55.03</v>
+        <v>55.06</v>
       </c>
       <c r="D128" t="n">
-        <v>55.04</v>
+        <v>55.06</v>
       </c>
       <c r="E128" t="n">
-        <v>55.03</v>
+        <v>55.06</v>
       </c>
       <c r="F128" t="n">
-        <v>12462.4656</v>
+        <v>10160.1791</v>
       </c>
       <c r="G128" t="n">
-        <v>54.40250000000001</v>
+        <v>54.38716666666667</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4890,16 +5084,16 @@
         <v>55.03</v>
       </c>
       <c r="F129" t="n">
-        <v>4282.652</v>
+        <v>12462.4656</v>
       </c>
       <c r="G129" t="n">
-        <v>54.41933333333335</v>
+        <v>54.40250000000001</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -4913,22 +5107,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>55.02</v>
+        <v>55.04</v>
       </c>
       <c r="C130" t="n">
-        <v>55.02</v>
+        <v>55.03</v>
       </c>
       <c r="D130" t="n">
-        <v>55.02</v>
+        <v>55.04</v>
       </c>
       <c r="E130" t="n">
-        <v>55.02</v>
+        <v>55.03</v>
       </c>
       <c r="F130" t="n">
-        <v>13518.6799</v>
+        <v>4282.652</v>
       </c>
       <c r="G130" t="n">
-        <v>54.43150000000001</v>
+        <v>54.41933333333335</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4960,10 +5154,10 @@
         <v>55.02</v>
       </c>
       <c r="F131" t="n">
-        <v>20172.2661</v>
+        <v>13518.6799</v>
       </c>
       <c r="G131" t="n">
-        <v>54.44650000000001</v>
+        <v>54.43150000000001</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4986,19 +5180,19 @@
         <v>55.02</v>
       </c>
       <c r="C132" t="n">
-        <v>55.05</v>
+        <v>55.02</v>
       </c>
       <c r="D132" t="n">
-        <v>55.06</v>
+        <v>55.02</v>
       </c>
       <c r="E132" t="n">
         <v>55.02</v>
       </c>
       <c r="F132" t="n">
-        <v>11042.61123893</v>
+        <v>20172.2661</v>
       </c>
       <c r="G132" t="n">
-        <v>54.46383333333335</v>
+        <v>54.44650000000001</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5212,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="C133" t="n">
+        <v>55.05</v>
+      </c>
+      <c r="D133" t="n">
         <v>55.06</v>
       </c>
-      <c r="C133" t="n">
-        <v>55.17</v>
-      </c>
-      <c r="D133" t="n">
-        <v>55.17</v>
-      </c>
       <c r="E133" t="n">
-        <v>54.94</v>
+        <v>55.02</v>
       </c>
       <c r="F133" t="n">
-        <v>68323.03205646999</v>
+        <v>11042.61123893</v>
       </c>
       <c r="G133" t="n">
-        <v>54.47866666666668</v>
+        <v>54.46383333333335</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5247,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>55.04</v>
+        <v>55.06</v>
       </c>
       <c r="C134" t="n">
-        <v>55.09</v>
+        <v>55.17</v>
       </c>
       <c r="D134" t="n">
-        <v>55.23</v>
+        <v>55.17</v>
       </c>
       <c r="E134" t="n">
-        <v>55</v>
+        <v>54.94</v>
       </c>
       <c r="F134" t="n">
-        <v>29510.07465298</v>
+        <v>68323.03205646999</v>
       </c>
       <c r="G134" t="n">
-        <v>54.49466666666668</v>
+        <v>54.47866666666668</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5282,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
+        <v>55.04</v>
+      </c>
+      <c r="C135" t="n">
         <v>55.09</v>
       </c>
-      <c r="C135" t="n">
-        <v>55.05</v>
-      </c>
       <c r="D135" t="n">
-        <v>55.14</v>
+        <v>55.23</v>
       </c>
       <c r="E135" t="n">
         <v>55</v>
       </c>
       <c r="F135" t="n">
-        <v>100174.8493</v>
+        <v>29510.07465298</v>
       </c>
       <c r="G135" t="n">
-        <v>54.51200000000001</v>
+        <v>54.49466666666668</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5317,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>55.05</v>
+        <v>55.09</v>
       </c>
       <c r="C136" t="n">
         <v>55.05</v>
       </c>
       <c r="D136" t="n">
-        <v>55.05</v>
+        <v>55.14</v>
       </c>
       <c r="E136" t="n">
-        <v>55.05</v>
+        <v>55</v>
       </c>
       <c r="F136" t="n">
-        <v>609.7825</v>
+        <v>100174.8493</v>
       </c>
       <c r="G136" t="n">
-        <v>54.52950000000001</v>
+        <v>54.51200000000001</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5170,10 +5364,10 @@
         <v>55.05</v>
       </c>
       <c r="F137" t="n">
-        <v>13.6136</v>
+        <v>609.7825</v>
       </c>
       <c r="G137" t="n">
-        <v>54.54850000000002</v>
+        <v>54.52950000000001</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5387,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>55.02</v>
+        <v>55.05</v>
       </c>
       <c r="C138" t="n">
-        <v>55.02</v>
+        <v>55.05</v>
       </c>
       <c r="D138" t="n">
-        <v>55.02</v>
+        <v>55.05</v>
       </c>
       <c r="E138" t="n">
-        <v>55.02</v>
+        <v>55.05</v>
       </c>
       <c r="F138" t="n">
-        <v>35523.5639</v>
+        <v>13.6136</v>
       </c>
       <c r="G138" t="n">
-        <v>54.56800000000002</v>
+        <v>54.54850000000002</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5231,19 +5425,19 @@
         <v>55.02</v>
       </c>
       <c r="C139" t="n">
-        <v>54.96</v>
+        <v>55.02</v>
       </c>
       <c r="D139" t="n">
         <v>55.02</v>
       </c>
       <c r="E139" t="n">
-        <v>54.96</v>
+        <v>55.02</v>
       </c>
       <c r="F139" t="n">
-        <v>23276.28</v>
+        <v>35523.5639</v>
       </c>
       <c r="G139" t="n">
-        <v>54.58650000000002</v>
+        <v>54.56800000000002</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5275,10 +5469,10 @@
         <v>54.96</v>
       </c>
       <c r="F140" t="n">
-        <v>123746.3864</v>
+        <v>23276.28</v>
       </c>
       <c r="G140" t="n">
-        <v>54.60500000000003</v>
+        <v>54.58650000000002</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,22 +5492,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="C141" t="n">
         <v>54.96</v>
       </c>
-      <c r="C141" t="n">
-        <v>54.95</v>
-      </c>
       <c r="D141" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="E141" t="n">
         <v>54.96</v>
       </c>
-      <c r="E141" t="n">
-        <v>54.95</v>
-      </c>
       <c r="F141" t="n">
-        <v>88789.8444</v>
+        <v>123746.3864</v>
       </c>
       <c r="G141" t="n">
-        <v>54.62416666666669</v>
+        <v>54.60500000000003</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5527,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>54.95</v>
+        <v>54.96</v>
       </c>
       <c r="C142" t="n">
         <v>54.95</v>
       </c>
       <c r="D142" t="n">
-        <v>54.95</v>
+        <v>54.96</v>
       </c>
       <c r="E142" t="n">
         <v>54.95</v>
       </c>
       <c r="F142" t="n">
-        <v>31946.7088</v>
+        <v>88789.8444</v>
       </c>
       <c r="G142" t="n">
-        <v>54.63683333333335</v>
+        <v>54.62416666666669</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5371,19 +5565,19 @@
         <v>54.95</v>
       </c>
       <c r="C143" t="n">
-        <v>54.94</v>
+        <v>54.95</v>
       </c>
       <c r="D143" t="n">
         <v>54.95</v>
       </c>
       <c r="E143" t="n">
-        <v>54.94</v>
+        <v>54.95</v>
       </c>
       <c r="F143" t="n">
-        <v>12765.3037</v>
+        <v>31946.7088</v>
       </c>
       <c r="G143" t="n">
-        <v>54.65000000000001</v>
+        <v>54.63683333333335</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5597,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>54.94</v>
+        <v>54.95</v>
       </c>
       <c r="C144" t="n">
         <v>54.94</v>
       </c>
       <c r="D144" t="n">
-        <v>54.94</v>
+        <v>54.95</v>
       </c>
       <c r="E144" t="n">
         <v>54.94</v>
       </c>
       <c r="F144" t="n">
-        <v>81786.5389</v>
+        <v>12765.3037</v>
       </c>
       <c r="G144" t="n">
-        <v>54.66533333333335</v>
+        <v>54.65000000000001</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5444,16 +5638,16 @@
         <v>54.94</v>
       </c>
       <c r="D145" t="n">
-        <v>54.95</v>
+        <v>54.94</v>
       </c>
       <c r="E145" t="n">
         <v>54.94</v>
       </c>
       <c r="F145" t="n">
-        <v>13693.7615</v>
+        <v>81786.5389</v>
       </c>
       <c r="G145" t="n">
-        <v>54.68383333333335</v>
+        <v>54.66533333333335</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5479,16 +5673,16 @@
         <v>54.94</v>
       </c>
       <c r="D146" t="n">
-        <v>54.94</v>
+        <v>54.95</v>
       </c>
       <c r="E146" t="n">
         <v>54.94</v>
       </c>
       <c r="F146" t="n">
-        <v>3077.1071</v>
+        <v>13693.7615</v>
       </c>
       <c r="G146" t="n">
-        <v>54.69866666666668</v>
+        <v>54.68383333333335</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5520,10 +5714,10 @@
         <v>54.94</v>
       </c>
       <c r="F147" t="n">
-        <v>11699.3556</v>
+        <v>3077.1071</v>
       </c>
       <c r="G147" t="n">
-        <v>54.71183333333335</v>
+        <v>54.69866666666668</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,22 +5737,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>54.95</v>
+        <v>54.94</v>
       </c>
       <c r="C148" t="n">
         <v>54.94</v>
       </c>
       <c r="D148" t="n">
-        <v>54.95</v>
+        <v>54.94</v>
       </c>
       <c r="E148" t="n">
         <v>54.94</v>
       </c>
       <c r="F148" t="n">
-        <v>42972.2964</v>
+        <v>11699.3556</v>
       </c>
       <c r="G148" t="n">
-        <v>54.72483333333335</v>
+        <v>54.71183333333335</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5772,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>54.94</v>
+        <v>54.95</v>
       </c>
       <c r="C149" t="n">
         <v>54.94</v>
       </c>
       <c r="D149" t="n">
-        <v>54.94</v>
+        <v>54.95</v>
       </c>
       <c r="E149" t="n">
         <v>54.94</v>
       </c>
       <c r="F149" t="n">
-        <v>5330.623</v>
+        <v>42972.2964</v>
       </c>
       <c r="G149" t="n">
-        <v>54.73783333333336</v>
+        <v>54.72483333333335</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5625,10 +5819,10 @@
         <v>54.94</v>
       </c>
       <c r="F150" t="n">
-        <v>29406.8962</v>
+        <v>5330.623</v>
       </c>
       <c r="G150" t="n">
-        <v>54.75100000000002</v>
+        <v>54.73783333333336</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5651,19 +5845,19 @@
         <v>54.94</v>
       </c>
       <c r="C151" t="n">
-        <v>55</v>
+        <v>54.94</v>
       </c>
       <c r="D151" t="n">
-        <v>55</v>
+        <v>54.94</v>
       </c>
       <c r="E151" t="n">
-        <v>54.91</v>
+        <v>54.94</v>
       </c>
       <c r="F151" t="n">
-        <v>45732.652</v>
+        <v>29406.8962</v>
       </c>
       <c r="G151" t="n">
-        <v>54.76516666666669</v>
+        <v>54.75100000000002</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +5877,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>54.91</v>
+        <v>54.94</v>
       </c>
       <c r="C152" t="n">
-        <v>54.91</v>
+        <v>55</v>
       </c>
       <c r="D152" t="n">
-        <v>55.02</v>
+        <v>55</v>
       </c>
       <c r="E152" t="n">
         <v>54.91</v>
       </c>
       <c r="F152" t="n">
-        <v>61377.5139</v>
+        <v>45732.652</v>
       </c>
       <c r="G152" t="n">
-        <v>54.77883333333335</v>
+        <v>54.76516666666669</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5912,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>54.57</v>
+        <v>54.91</v>
       </c>
       <c r="C153" t="n">
-        <v>54.56</v>
+        <v>54.91</v>
       </c>
       <c r="D153" t="n">
-        <v>54.57</v>
+        <v>55.02</v>
       </c>
       <c r="E153" t="n">
-        <v>54.56</v>
+        <v>54.91</v>
       </c>
       <c r="F153" t="n">
-        <v>6040.327</v>
+        <v>61377.5139</v>
       </c>
       <c r="G153" t="n">
-        <v>54.78650000000002</v>
+        <v>54.77883333333335</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +5947,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>54.56</v>
+        <v>54.57</v>
       </c>
       <c r="C154" t="n">
         <v>54.56</v>
       </c>
       <c r="D154" t="n">
-        <v>54.56</v>
+        <v>54.57</v>
       </c>
       <c r="E154" t="n">
         <v>54.56</v>
       </c>
       <c r="F154" t="n">
-        <v>25925.4</v>
+        <v>6040.327</v>
       </c>
       <c r="G154" t="n">
-        <v>54.79183333333335</v>
+        <v>54.78650000000002</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5800,10 +5994,10 @@
         <v>54.56</v>
       </c>
       <c r="F155" t="n">
-        <v>758.4313</v>
+        <v>25925.4</v>
       </c>
       <c r="G155" t="n">
-        <v>54.79716666666669</v>
+        <v>54.79183333333335</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5835,10 +6029,10 @@
         <v>54.56</v>
       </c>
       <c r="F156" t="n">
-        <v>315.0701</v>
+        <v>758.4313</v>
       </c>
       <c r="G156" t="n">
-        <v>54.79983333333335</v>
+        <v>54.79716666666669</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5870,10 +6064,10 @@
         <v>54.56</v>
       </c>
       <c r="F157" t="n">
-        <v>1841.9144</v>
+        <v>315.0701</v>
       </c>
       <c r="G157" t="n">
-        <v>54.80433333333335</v>
+        <v>54.79983333333335</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,22 +6087,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>54.58</v>
+        <v>54.56</v>
       </c>
       <c r="C158" t="n">
-        <v>54.58</v>
+        <v>54.56</v>
       </c>
       <c r="D158" t="n">
-        <v>54.58</v>
+        <v>54.56</v>
       </c>
       <c r="E158" t="n">
-        <v>54.58</v>
+        <v>54.56</v>
       </c>
       <c r="F158" t="n">
-        <v>76.31789999999999</v>
+        <v>1841.9144</v>
       </c>
       <c r="G158" t="n">
-        <v>54.80733333333335</v>
+        <v>54.80433333333335</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5928,22 +6122,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>54.55</v>
+        <v>54.58</v>
       </c>
       <c r="C159" t="n">
-        <v>54.82</v>
+        <v>54.58</v>
       </c>
       <c r="D159" t="n">
-        <v>54.82</v>
+        <v>54.58</v>
       </c>
       <c r="E159" t="n">
-        <v>54.55</v>
+        <v>54.58</v>
       </c>
       <c r="F159" t="n">
-        <v>18247.75577913</v>
+        <v>76.31789999999999</v>
       </c>
       <c r="G159" t="n">
-        <v>54.81750000000002</v>
+        <v>54.80733333333335</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +6157,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>54.43</v>
+        <v>54.55</v>
       </c>
       <c r="C160" t="n">
-        <v>54.38</v>
+        <v>54.82</v>
       </c>
       <c r="D160" t="n">
-        <v>54.47</v>
+        <v>54.82</v>
       </c>
       <c r="E160" t="n">
-        <v>54.38</v>
+        <v>54.55</v>
       </c>
       <c r="F160" t="n">
-        <v>4807.8008</v>
+        <v>18247.75577913</v>
       </c>
       <c r="G160" t="n">
-        <v>54.81866666666669</v>
+        <v>54.81750000000002</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +6192,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>54.38</v>
+        <v>54.43</v>
       </c>
       <c r="C161" t="n">
         <v>54.38</v>
       </c>
       <c r="D161" t="n">
-        <v>54.38</v>
+        <v>54.47</v>
       </c>
       <c r="E161" t="n">
         <v>54.38</v>
       </c>
       <c r="F161" t="n">
-        <v>3989.156</v>
+        <v>4807.8008</v>
       </c>
       <c r="G161" t="n">
-        <v>54.81816666666669</v>
+        <v>54.81866666666669</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6045,10 +6239,10 @@
         <v>54.38</v>
       </c>
       <c r="F162" t="n">
-        <v>1755.5775</v>
+        <v>3989.156</v>
       </c>
       <c r="G162" t="n">
-        <v>54.8176666666667</v>
+        <v>54.81816666666669</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6071,19 +6265,19 @@
         <v>54.38</v>
       </c>
       <c r="C163" t="n">
-        <v>54.35</v>
+        <v>54.38</v>
       </c>
       <c r="D163" t="n">
         <v>54.38</v>
       </c>
       <c r="E163" t="n">
-        <v>54.35</v>
+        <v>54.38</v>
       </c>
       <c r="F163" t="n">
-        <v>14727.8694</v>
+        <v>1755.5775</v>
       </c>
       <c r="G163" t="n">
-        <v>54.81650000000003</v>
+        <v>54.8176666666667</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6103,22 +6297,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>54.35</v>
+        <v>54.38</v>
       </c>
       <c r="C164" t="n">
         <v>54.35</v>
       </c>
       <c r="D164" t="n">
-        <v>54.35</v>
+        <v>54.38</v>
       </c>
       <c r="E164" t="n">
         <v>54.35</v>
       </c>
       <c r="F164" t="n">
-        <v>2027.7105</v>
+        <v>14727.8694</v>
       </c>
       <c r="G164" t="n">
-        <v>54.81533333333336</v>
+        <v>54.81650000000003</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6138,22 +6332,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>54.31</v>
+        <v>54.35</v>
       </c>
       <c r="C165" t="n">
-        <v>54.3</v>
+        <v>54.35</v>
       </c>
       <c r="D165" t="n">
-        <v>54.31</v>
+        <v>54.35</v>
       </c>
       <c r="E165" t="n">
-        <v>54.3</v>
+        <v>54.35</v>
       </c>
       <c r="F165" t="n">
-        <v>569.4681</v>
+        <v>2027.7105</v>
       </c>
       <c r="G165" t="n">
-        <v>54.81350000000003</v>
+        <v>54.81533333333336</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,22 +6367,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>54.25</v>
+        <v>54.31</v>
       </c>
       <c r="C166" t="n">
-        <v>54.25</v>
+        <v>54.3</v>
       </c>
       <c r="D166" t="n">
-        <v>54.25</v>
+        <v>54.31</v>
       </c>
       <c r="E166" t="n">
-        <v>54.25</v>
+        <v>54.3</v>
       </c>
       <c r="F166" t="n">
-        <v>4326.2599</v>
+        <v>569.4681</v>
       </c>
       <c r="G166" t="n">
-        <v>54.81000000000003</v>
+        <v>54.81350000000003</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6208,22 +6402,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>54.21</v>
+        <v>54.25</v>
       </c>
       <c r="C167" t="n">
-        <v>54.2</v>
+        <v>54.25</v>
       </c>
       <c r="D167" t="n">
-        <v>54.21</v>
+        <v>54.25</v>
       </c>
       <c r="E167" t="n">
-        <v>54.2</v>
+        <v>54.25</v>
       </c>
       <c r="F167" t="n">
-        <v>16958.552</v>
+        <v>4326.2599</v>
       </c>
       <c r="G167" t="n">
-        <v>54.80666666666669</v>
+        <v>54.81000000000003</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6243,22 +6437,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>54.2</v>
+        <v>54.21</v>
       </c>
       <c r="C168" t="n">
         <v>54.2</v>
       </c>
       <c r="D168" t="n">
-        <v>54.2</v>
+        <v>54.21</v>
       </c>
       <c r="E168" t="n">
         <v>54.2</v>
       </c>
       <c r="F168" t="n">
-        <v>23372.7221</v>
+        <v>16958.552</v>
       </c>
       <c r="G168" t="n">
-        <v>54.80233333333335</v>
+        <v>54.80666666666669</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6290,10 +6484,10 @@
         <v>54.2</v>
       </c>
       <c r="F169" t="n">
-        <v>110</v>
+        <v>23372.7221</v>
       </c>
       <c r="G169" t="n">
-        <v>54.79883333333336</v>
+        <v>54.80233333333335</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6322,13 +6516,13 @@
         <v>54.2</v>
       </c>
       <c r="E170" t="n">
-        <v>54.15</v>
+        <v>54.2</v>
       </c>
       <c r="F170" t="n">
-        <v>18358.9622</v>
+        <v>110</v>
       </c>
       <c r="G170" t="n">
-        <v>54.79183333333335</v>
+        <v>54.79883333333336</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6357,13 +6551,13 @@
         <v>54.2</v>
       </c>
       <c r="E171" t="n">
-        <v>54.2</v>
+        <v>54.15</v>
       </c>
       <c r="F171" t="n">
-        <v>22513.1757</v>
+        <v>18358.9622</v>
       </c>
       <c r="G171" t="n">
-        <v>54.78283333333335</v>
+        <v>54.79183333333335</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6395,10 +6589,10 @@
         <v>54.2</v>
       </c>
       <c r="F172" t="n">
-        <v>3887.9297</v>
+        <v>22513.1757</v>
       </c>
       <c r="G172" t="n">
-        <v>54.77650000000002</v>
+        <v>54.78283333333335</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6430,10 +6624,10 @@
         <v>54.2</v>
       </c>
       <c r="F173" t="n">
-        <v>8762.2192</v>
+        <v>3887.9297</v>
       </c>
       <c r="G173" t="n">
-        <v>54.77066666666668</v>
+        <v>54.77650000000002</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6465,10 +6659,10 @@
         <v>54.2</v>
       </c>
       <c r="F174" t="n">
-        <v>81829.0196</v>
+        <v>8762.2192</v>
       </c>
       <c r="G174" t="n">
-        <v>54.76016666666668</v>
+        <v>54.77066666666668</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6488,22 +6682,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>54.21</v>
+        <v>54.2</v>
       </c>
       <c r="C175" t="n">
-        <v>54.21</v>
+        <v>54.2</v>
       </c>
       <c r="D175" t="n">
-        <v>54.21</v>
+        <v>54.2</v>
       </c>
       <c r="E175" t="n">
-        <v>54.21</v>
+        <v>54.2</v>
       </c>
       <c r="F175" t="n">
-        <v>13217.7418</v>
+        <v>81829.0196</v>
       </c>
       <c r="G175" t="n">
-        <v>54.75000000000001</v>
+        <v>54.76016666666668</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6523,22 +6717,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>54.6</v>
+        <v>54.21</v>
       </c>
       <c r="C176" t="n">
-        <v>54.8</v>
+        <v>54.21</v>
       </c>
       <c r="D176" t="n">
-        <v>54.8</v>
+        <v>54.21</v>
       </c>
       <c r="E176" t="n">
-        <v>54.6</v>
+        <v>54.21</v>
       </c>
       <c r="F176" t="n">
-        <v>35878.8052</v>
+        <v>13217.7418</v>
       </c>
       <c r="G176" t="n">
-        <v>54.74850000000001</v>
+        <v>54.75000000000001</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6558,22 +6752,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>54.7</v>
+        <v>54.6</v>
       </c>
       <c r="C177" t="n">
-        <v>54.7</v>
+        <v>54.8</v>
       </c>
       <c r="D177" t="n">
-        <v>54.7</v>
+        <v>54.8</v>
       </c>
       <c r="E177" t="n">
-        <v>54.7</v>
+        <v>54.6</v>
       </c>
       <c r="F177" t="n">
-        <v>81.4716</v>
+        <v>35878.8052</v>
       </c>
       <c r="G177" t="n">
-        <v>54.74350000000001</v>
+        <v>54.74850000000001</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6593,22 +6787,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>54.62</v>
+        <v>54.7</v>
       </c>
       <c r="C178" t="n">
-        <v>54.62</v>
+        <v>54.7</v>
       </c>
       <c r="D178" t="n">
-        <v>54.62</v>
+        <v>54.7</v>
       </c>
       <c r="E178" t="n">
-        <v>54.62</v>
+        <v>54.7</v>
       </c>
       <c r="F178" t="n">
-        <v>568.8026</v>
+        <v>81.4716</v>
       </c>
       <c r="G178" t="n">
-        <v>54.73716666666667</v>
+        <v>54.74350000000001</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6628,7 +6822,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>54.6</v>
+        <v>54.62</v>
       </c>
       <c r="C179" t="n">
         <v>54.62</v>
@@ -6637,13 +6831,13 @@
         <v>54.62</v>
       </c>
       <c r="E179" t="n">
-        <v>54.6</v>
+        <v>54.62</v>
       </c>
       <c r="F179" t="n">
-        <v>18028.16759985</v>
+        <v>568.8026</v>
       </c>
       <c r="G179" t="n">
-        <v>54.73233333333334</v>
+        <v>54.73716666666667</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6663,22 +6857,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>54.3</v>
+        <v>54.6</v>
       </c>
       <c r="C180" t="n">
-        <v>54.29</v>
+        <v>54.62</v>
       </c>
       <c r="D180" t="n">
-        <v>54.3</v>
+        <v>54.62</v>
       </c>
       <c r="E180" t="n">
-        <v>54.29</v>
+        <v>54.6</v>
       </c>
       <c r="F180" t="n">
-        <v>449.4599</v>
+        <v>18028.16759985</v>
       </c>
       <c r="G180" t="n">
-        <v>54.72200000000001</v>
+        <v>54.73233333333334</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6698,22 +6892,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>54.26</v>
+        <v>54.3</v>
       </c>
       <c r="C181" t="n">
-        <v>54.26</v>
+        <v>54.29</v>
       </c>
       <c r="D181" t="n">
-        <v>54.26</v>
+        <v>54.3</v>
       </c>
       <c r="E181" t="n">
-        <v>54.26</v>
+        <v>54.29</v>
       </c>
       <c r="F181" t="n">
-        <v>83.89</v>
+        <v>449.4599</v>
       </c>
       <c r="G181" t="n">
-        <v>54.71100000000001</v>
+        <v>54.72200000000001</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6733,7 +6927,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>54.17</v>
+        <v>54.26</v>
       </c>
       <c r="C182" t="n">
         <v>54.26</v>
@@ -6742,13 +6936,13 @@
         <v>54.26</v>
       </c>
       <c r="E182" t="n">
-        <v>54.17</v>
+        <v>54.26</v>
       </c>
       <c r="F182" t="n">
-        <v>1315.6642</v>
+        <v>83.89</v>
       </c>
       <c r="G182" t="n">
-        <v>54.70000000000002</v>
+        <v>54.71100000000001</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6768,22 +6962,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>54.27</v>
+        <v>54.17</v>
       </c>
       <c r="C183" t="n">
-        <v>54.27</v>
+        <v>54.26</v>
       </c>
       <c r="D183" t="n">
-        <v>54.27</v>
+        <v>54.26</v>
       </c>
       <c r="E183" t="n">
-        <v>54.27</v>
+        <v>54.17</v>
       </c>
       <c r="F183" t="n">
-        <v>10</v>
+        <v>1315.6642</v>
       </c>
       <c r="G183" t="n">
-        <v>54.68916666666668</v>
+        <v>54.70000000000002</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6803,22 +6997,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>54.34</v>
+        <v>54.27</v>
       </c>
       <c r="C184" t="n">
-        <v>54.22</v>
+        <v>54.27</v>
       </c>
       <c r="D184" t="n">
-        <v>54.34</v>
+        <v>54.27</v>
       </c>
       <c r="E184" t="n">
-        <v>54.22</v>
+        <v>54.27</v>
       </c>
       <c r="F184" t="n">
-        <v>18028.1676</v>
+        <v>10</v>
       </c>
       <c r="G184" t="n">
-        <v>54.67366666666668</v>
+        <v>54.68916666666668</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6838,22 +7032,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>54.21</v>
+        <v>54.34</v>
       </c>
       <c r="C185" t="n">
-        <v>54.21</v>
+        <v>54.22</v>
       </c>
       <c r="D185" t="n">
-        <v>54.21</v>
+        <v>54.34</v>
       </c>
       <c r="E185" t="n">
-        <v>54.21</v>
+        <v>54.22</v>
       </c>
       <c r="F185" t="n">
-        <v>28704.8792</v>
+        <v>18028.1676</v>
       </c>
       <c r="G185" t="n">
-        <v>54.66</v>
+        <v>54.67366666666668</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6873,22 +7067,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>54.46</v>
+        <v>54.21</v>
       </c>
       <c r="C186" t="n">
-        <v>54.46</v>
+        <v>54.21</v>
       </c>
       <c r="D186" t="n">
-        <v>54.46</v>
+        <v>54.21</v>
       </c>
       <c r="E186" t="n">
-        <v>54.46</v>
+        <v>54.21</v>
       </c>
       <c r="F186" t="n">
-        <v>10</v>
+        <v>28704.8792</v>
       </c>
       <c r="G186" t="n">
-        <v>54.65000000000001</v>
+        <v>54.66</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6908,22 +7102,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>54.36</v>
+        <v>54.46</v>
       </c>
       <c r="C187" t="n">
-        <v>54.36</v>
+        <v>54.46</v>
       </c>
       <c r="D187" t="n">
-        <v>54.36</v>
+        <v>54.46</v>
       </c>
       <c r="E187" t="n">
-        <v>54.36</v>
+        <v>54.46</v>
       </c>
       <c r="F187" t="n">
-        <v>21201.0224</v>
+        <v>10</v>
       </c>
       <c r="G187" t="n">
-        <v>54.63833333333334</v>
+        <v>54.65000000000001</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6955,10 +7149,10 @@
         <v>54.36</v>
       </c>
       <c r="F188" t="n">
-        <v>13318.1965</v>
+        <v>21201.0224</v>
       </c>
       <c r="G188" t="n">
-        <v>54.62716666666667</v>
+        <v>54.63833333333334</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6990,10 +7184,10 @@
         <v>54.36</v>
       </c>
       <c r="F189" t="n">
-        <v>58156.1</v>
+        <v>13318.1965</v>
       </c>
       <c r="G189" t="n">
-        <v>54.61600000000001</v>
+        <v>54.62716666666667</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7025,10 +7219,10 @@
         <v>54.36</v>
       </c>
       <c r="F190" t="n">
-        <v>2113.8</v>
+        <v>58156.1</v>
       </c>
       <c r="G190" t="n">
-        <v>54.60500000000001</v>
+        <v>54.61600000000001</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7060,10 +7254,10 @@
         <v>54.36</v>
       </c>
       <c r="F191" t="n">
-        <v>5104.4317</v>
+        <v>2113.8</v>
       </c>
       <c r="G191" t="n">
-        <v>54.59400000000002</v>
+        <v>54.60500000000001</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7083,22 +7277,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>54.46</v>
+        <v>54.36</v>
       </c>
       <c r="C192" t="n">
-        <v>54.46</v>
+        <v>54.36</v>
       </c>
       <c r="D192" t="n">
-        <v>54.46</v>
+        <v>54.36</v>
       </c>
       <c r="E192" t="n">
-        <v>54.46</v>
+        <v>54.36</v>
       </c>
       <c r="F192" t="n">
-        <v>24.9658</v>
+        <v>5104.4317</v>
       </c>
       <c r="G192" t="n">
-        <v>54.58416666666668</v>
+        <v>54.59400000000002</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7118,22 +7312,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>54.43</v>
+        <v>54.46</v>
       </c>
       <c r="C193" t="n">
-        <v>54.36</v>
+        <v>54.46</v>
       </c>
       <c r="D193" t="n">
-        <v>54.43</v>
+        <v>54.46</v>
       </c>
       <c r="E193" t="n">
-        <v>54.36</v>
+        <v>54.46</v>
       </c>
       <c r="F193" t="n">
-        <v>323.1671</v>
+        <v>24.9658</v>
       </c>
       <c r="G193" t="n">
-        <v>54.57066666666667</v>
+        <v>54.58416666666668</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7153,22 +7347,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>54.22</v>
+        <v>54.43</v>
       </c>
       <c r="C194" t="n">
-        <v>54.22</v>
+        <v>54.36</v>
       </c>
       <c r="D194" t="n">
-        <v>54.22</v>
+        <v>54.43</v>
       </c>
       <c r="E194" t="n">
-        <v>54.22</v>
+        <v>54.36</v>
       </c>
       <c r="F194" t="n">
-        <v>622.5927</v>
+        <v>323.1671</v>
       </c>
       <c r="G194" t="n">
-        <v>54.55616666666667</v>
+        <v>54.57066666666667</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7200,10 +7394,10 @@
         <v>54.22</v>
       </c>
       <c r="F195" t="n">
-        <v>7561.1086</v>
+        <v>622.5927</v>
       </c>
       <c r="G195" t="n">
-        <v>54.54233333333333</v>
+        <v>54.55616666666667</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7235,10 +7429,10 @@
         <v>54.22</v>
       </c>
       <c r="F196" t="n">
-        <v>10038.3999</v>
+        <v>7561.1086</v>
       </c>
       <c r="G196" t="n">
-        <v>54.52849999999999</v>
+        <v>54.54233333333333</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7261,19 +7455,19 @@
         <v>54.22</v>
       </c>
       <c r="C197" t="n">
-        <v>54.18</v>
+        <v>54.22</v>
       </c>
       <c r="D197" t="n">
         <v>54.22</v>
       </c>
       <c r="E197" t="n">
-        <v>54.18</v>
+        <v>54.22</v>
       </c>
       <c r="F197" t="n">
-        <v>66470.2911</v>
+        <v>10038.3999</v>
       </c>
       <c r="G197" t="n">
-        <v>54.51399999999999</v>
+        <v>54.52849999999999</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7293,22 +7487,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="C198" t="n">
         <v>54.18</v>
       </c>
-      <c r="C198" t="n">
-        <v>54.15</v>
-      </c>
       <c r="D198" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="E198" t="n">
         <v>54.18</v>
       </c>
-      <c r="E198" t="n">
-        <v>54.15</v>
-      </c>
       <c r="F198" t="n">
-        <v>108948.8279</v>
+        <v>66470.2911</v>
       </c>
       <c r="G198" t="n">
-        <v>54.49949999999999</v>
+        <v>54.51399999999999</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7328,22 +7522,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>54.15</v>
+        <v>54.18</v>
       </c>
       <c r="C199" t="n">
         <v>54.15</v>
       </c>
       <c r="D199" t="n">
-        <v>54.15</v>
+        <v>54.18</v>
       </c>
       <c r="E199" t="n">
         <v>54.15</v>
       </c>
       <c r="F199" t="n">
-        <v>35107.3813</v>
+        <v>108948.8279</v>
       </c>
       <c r="G199" t="n">
-        <v>54.48599999999999</v>
+        <v>54.49949999999999</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7375,10 +7569,10 @@
         <v>54.15</v>
       </c>
       <c r="F200" t="n">
-        <v>3047.854</v>
+        <v>35107.3813</v>
       </c>
       <c r="G200" t="n">
-        <v>54.47249999999999</v>
+        <v>54.48599999999999</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7401,19 +7595,19 @@
         <v>54.15</v>
       </c>
       <c r="C201" t="n">
-        <v>54.12</v>
+        <v>54.15</v>
       </c>
       <c r="D201" t="n">
         <v>54.15</v>
       </c>
       <c r="E201" t="n">
-        <v>54.12</v>
+        <v>54.15</v>
       </c>
       <c r="F201" t="n">
-        <v>40019.7845</v>
+        <v>3047.854</v>
       </c>
       <c r="G201" t="n">
-        <v>54.45866666666666</v>
+        <v>54.47249999999999</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7433,22 +7627,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
+        <v>54.15</v>
+      </c>
+      <c r="C202" t="n">
         <v>54.12</v>
       </c>
-      <c r="C202" t="n">
-        <v>54.11</v>
-      </c>
       <c r="D202" t="n">
+        <v>54.15</v>
+      </c>
+      <c r="E202" t="n">
         <v>54.12</v>
       </c>
-      <c r="E202" t="n">
-        <v>54.11</v>
-      </c>
       <c r="F202" t="n">
-        <v>185988.5818</v>
+        <v>40019.7845</v>
       </c>
       <c r="G202" t="n">
-        <v>54.44466666666666</v>
+        <v>54.45866666666666</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7468,22 +7662,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>54.11</v>
+        <v>54.12</v>
       </c>
       <c r="C203" t="n">
         <v>54.11</v>
       </c>
       <c r="D203" t="n">
-        <v>54.11</v>
+        <v>54.12</v>
       </c>
       <c r="E203" t="n">
         <v>54.11</v>
       </c>
       <c r="F203" t="n">
-        <v>669.519</v>
+        <v>185988.5818</v>
       </c>
       <c r="G203" t="n">
-        <v>54.43083333333333</v>
+        <v>54.44466666666666</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7515,10 +7709,10 @@
         <v>54.11</v>
       </c>
       <c r="F204" t="n">
-        <v>12849.4291</v>
+        <v>669.519</v>
       </c>
       <c r="G204" t="n">
-        <v>54.417</v>
+        <v>54.43083333333333</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7538,22 +7732,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>54.14</v>
+        <v>54.11</v>
       </c>
       <c r="C205" t="n">
-        <v>54.14</v>
+        <v>54.11</v>
       </c>
       <c r="D205" t="n">
-        <v>54.14</v>
+        <v>54.11</v>
       </c>
       <c r="E205" t="n">
-        <v>54.14</v>
+        <v>54.11</v>
       </c>
       <c r="F205" t="n">
-        <v>265.1</v>
+        <v>12849.4291</v>
       </c>
       <c r="G205" t="n">
-        <v>54.40366666666667</v>
+        <v>54.417</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7573,22 +7767,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>54.04</v>
+        <v>54.14</v>
       </c>
       <c r="C206" t="n">
-        <v>54.04</v>
+        <v>54.14</v>
       </c>
       <c r="D206" t="n">
-        <v>54.04</v>
+        <v>54.14</v>
       </c>
       <c r="E206" t="n">
-        <v>54.04</v>
+        <v>54.14</v>
       </c>
       <c r="F206" t="n">
-        <v>14.9758</v>
+        <v>265.1</v>
       </c>
       <c r="G206" t="n">
-        <v>54.38866666666666</v>
+        <v>54.40366666666667</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7611,19 +7805,19 @@
         <v>54.04</v>
       </c>
       <c r="C207" t="n">
-        <v>54.02</v>
+        <v>54.04</v>
       </c>
       <c r="D207" t="n">
         <v>54.04</v>
       </c>
       <c r="E207" t="n">
-        <v>54.02</v>
+        <v>54.04</v>
       </c>
       <c r="F207" t="n">
-        <v>4442.0621</v>
+        <v>14.9758</v>
       </c>
       <c r="G207" t="n">
-        <v>54.37333333333333</v>
+        <v>54.38866666666666</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7643,22 +7837,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>54.03</v>
+        <v>54.04</v>
       </c>
       <c r="C208" t="n">
-        <v>54.03</v>
+        <v>54.02</v>
       </c>
       <c r="D208" t="n">
-        <v>54.03</v>
+        <v>54.04</v>
       </c>
       <c r="E208" t="n">
-        <v>54.03</v>
+        <v>54.02</v>
       </c>
       <c r="F208" t="n">
-        <v>10000</v>
+        <v>4442.0621</v>
       </c>
       <c r="G208" t="n">
-        <v>54.35816666666666</v>
+        <v>54.37333333333333</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7678,22 +7872,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>54.04</v>
+        <v>54.03</v>
       </c>
       <c r="C209" t="n">
-        <v>54.04</v>
+        <v>54.03</v>
       </c>
       <c r="D209" t="n">
-        <v>54.04</v>
+        <v>54.03</v>
       </c>
       <c r="E209" t="n">
-        <v>54.04</v>
+        <v>54.03</v>
       </c>
       <c r="F209" t="n">
-        <v>7656.1247</v>
+        <v>10000</v>
       </c>
       <c r="G209" t="n">
-        <v>54.34316666666666</v>
+        <v>54.35816666666666</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7725,10 +7919,10 @@
         <v>54.04</v>
       </c>
       <c r="F210" t="n">
-        <v>284</v>
+        <v>7656.1247</v>
       </c>
       <c r="G210" t="n">
-        <v>54.32816666666666</v>
+        <v>54.34316666666666</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7757,13 +7951,13 @@
         <v>54.04</v>
       </c>
       <c r="E211" t="n">
-        <v>54.01</v>
+        <v>54.04</v>
       </c>
       <c r="F211" t="n">
-        <v>8339</v>
+        <v>284</v>
       </c>
       <c r="G211" t="n">
-        <v>54.31216666666666</v>
+        <v>54.32816666666666</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7792,13 +7986,13 @@
         <v>54.04</v>
       </c>
       <c r="E212" t="n">
-        <v>54.04</v>
+        <v>54.01</v>
       </c>
       <c r="F212" t="n">
-        <v>138</v>
+        <v>8339</v>
       </c>
       <c r="G212" t="n">
-        <v>54.29766666666666</v>
+        <v>54.31216666666666</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7821,19 +8015,19 @@
         <v>54.04</v>
       </c>
       <c r="C213" t="n">
-        <v>54.38</v>
+        <v>54.04</v>
       </c>
       <c r="D213" t="n">
-        <v>54.38</v>
+        <v>54.04</v>
       </c>
       <c r="E213" t="n">
         <v>54.04</v>
       </c>
       <c r="F213" t="n">
-        <v>238435.64207447</v>
+        <v>138</v>
       </c>
       <c r="G213" t="n">
-        <v>54.29466666666666</v>
+        <v>54.29766666666666</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7853,22 +8047,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>54.2</v>
+        <v>54.04</v>
       </c>
       <c r="C214" t="n">
-        <v>54.21</v>
+        <v>54.38</v>
       </c>
       <c r="D214" t="n">
-        <v>54.35</v>
+        <v>54.38</v>
       </c>
       <c r="E214" t="n">
-        <v>54.2</v>
+        <v>54.04</v>
       </c>
       <c r="F214" t="n">
-        <v>7282.848</v>
+        <v>238435.64207447</v>
       </c>
       <c r="G214" t="n">
-        <v>54.28883333333333</v>
+        <v>54.29466666666666</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7888,22 +8082,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>54.25</v>
+        <v>54.2</v>
       </c>
       <c r="C215" t="n">
-        <v>54.04</v>
+        <v>54.21</v>
       </c>
       <c r="D215" t="n">
-        <v>54.3</v>
+        <v>54.35</v>
       </c>
       <c r="E215" t="n">
-        <v>54.04</v>
+        <v>54.2</v>
       </c>
       <c r="F215" t="n">
-        <v>104906.8304</v>
+        <v>7282.848</v>
       </c>
       <c r="G215" t="n">
-        <v>54.28016666666667</v>
+        <v>54.28883333333333</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7923,22 +8117,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>54.33</v>
+        <v>54.25</v>
       </c>
       <c r="C216" t="n">
-        <v>54.33</v>
+        <v>54.04</v>
       </c>
       <c r="D216" t="n">
-        <v>54.33</v>
+        <v>54.3</v>
       </c>
       <c r="E216" t="n">
-        <v>54.33</v>
+        <v>54.04</v>
       </c>
       <c r="F216" t="n">
-        <v>131</v>
+        <v>104906.8304</v>
       </c>
       <c r="G216" t="n">
-        <v>54.27633333333333</v>
+        <v>54.28016666666667</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7970,10 +8164,10 @@
         <v>54.33</v>
       </c>
       <c r="F217" t="n">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="G217" t="n">
-        <v>54.2725</v>
+        <v>54.27633333333333</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -7993,22 +8187,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>54.03</v>
+        <v>54.33</v>
       </c>
       <c r="C218" t="n">
-        <v>54.02</v>
+        <v>54.33</v>
       </c>
       <c r="D218" t="n">
-        <v>54.03</v>
+        <v>54.33</v>
       </c>
       <c r="E218" t="n">
-        <v>54.02</v>
+        <v>54.33</v>
       </c>
       <c r="F218" t="n">
-        <v>9043.8199</v>
+        <v>12</v>
       </c>
       <c r="G218" t="n">
-        <v>54.26316666666666</v>
+        <v>54.2725</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8028,22 +8222,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>54.01</v>
+        <v>54.03</v>
       </c>
       <c r="C219" t="n">
-        <v>54</v>
+        <v>54.02</v>
       </c>
       <c r="D219" t="n">
-        <v>54.01</v>
+        <v>54.03</v>
       </c>
       <c r="E219" t="n">
-        <v>54</v>
+        <v>54.02</v>
       </c>
       <c r="F219" t="n">
-        <v>30514.8469</v>
+        <v>9043.8199</v>
       </c>
       <c r="G219" t="n">
-        <v>54.2495</v>
+        <v>54.26316666666666</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8063,22 +8257,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>54</v>
+        <v>54.01</v>
       </c>
       <c r="C220" t="n">
         <v>54</v>
       </c>
       <c r="D220" t="n">
-        <v>54</v>
+        <v>54.01</v>
       </c>
       <c r="E220" t="n">
         <v>54</v>
       </c>
       <c r="F220" t="n">
-        <v>3831.8436</v>
+        <v>30514.8469</v>
       </c>
       <c r="G220" t="n">
-        <v>54.24316666666666</v>
+        <v>54.2495</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8110,10 +8304,10 @@
         <v>54</v>
       </c>
       <c r="F221" t="n">
-        <v>1135.2677</v>
+        <v>3831.8436</v>
       </c>
       <c r="G221" t="n">
-        <v>54.23683333333333</v>
+        <v>54.24316666666666</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8133,22 +8327,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>53.99</v>
+        <v>54</v>
       </c>
       <c r="C222" t="n">
-        <v>53.99</v>
+        <v>54</v>
       </c>
       <c r="D222" t="n">
-        <v>53.99</v>
+        <v>54</v>
       </c>
       <c r="E222" t="n">
-        <v>53.99</v>
+        <v>54</v>
       </c>
       <c r="F222" t="n">
-        <v>7531.7</v>
+        <v>1135.2677</v>
       </c>
       <c r="G222" t="n">
-        <v>54.23033333333332</v>
+        <v>54.23683333333333</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8180,10 +8374,10 @@
         <v>53.99</v>
       </c>
       <c r="F223" t="n">
-        <v>12468.3</v>
+        <v>7531.7</v>
       </c>
       <c r="G223" t="n">
-        <v>54.22433333333332</v>
+        <v>54.23033333333332</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8203,22 +8397,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>53.93</v>
+        <v>53.99</v>
       </c>
       <c r="C224" t="n">
-        <v>53.93</v>
+        <v>53.99</v>
       </c>
       <c r="D224" t="n">
-        <v>53.93</v>
+        <v>53.99</v>
       </c>
       <c r="E224" t="n">
-        <v>53.93</v>
+        <v>53.99</v>
       </c>
       <c r="F224" t="n">
-        <v>196.8749</v>
+        <v>12468.3</v>
       </c>
       <c r="G224" t="n">
-        <v>54.21733333333331</v>
+        <v>54.22433333333332</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8241,19 +8435,19 @@
         <v>53.93</v>
       </c>
       <c r="C225" t="n">
-        <v>53.92</v>
+        <v>53.93</v>
       </c>
       <c r="D225" t="n">
         <v>53.93</v>
       </c>
       <c r="E225" t="n">
-        <v>53.92</v>
+        <v>53.93</v>
       </c>
       <c r="F225" t="n">
-        <v>445.3101</v>
+        <v>196.8749</v>
       </c>
       <c r="G225" t="n">
-        <v>54.21099999999998</v>
+        <v>54.21733333333331</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8273,22 +8467,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>53.99</v>
+        <v>53.93</v>
       </c>
       <c r="C226" t="n">
-        <v>53.99</v>
+        <v>53.92</v>
       </c>
       <c r="D226" t="n">
-        <v>53.99</v>
+        <v>53.93</v>
       </c>
       <c r="E226" t="n">
-        <v>53.99</v>
+        <v>53.92</v>
       </c>
       <c r="F226" t="n">
-        <v>886.1539</v>
+        <v>445.3101</v>
       </c>
       <c r="G226" t="n">
-        <v>54.20666666666664</v>
+        <v>54.21099999999998</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8311,19 +8505,19 @@
         <v>53.99</v>
       </c>
       <c r="C227" t="n">
-        <v>53.93</v>
+        <v>53.99</v>
       </c>
       <c r="D227" t="n">
         <v>53.99</v>
       </c>
       <c r="E227" t="n">
-        <v>53.93</v>
+        <v>53.99</v>
       </c>
       <c r="F227" t="n">
-        <v>6695.2353</v>
+        <v>886.1539</v>
       </c>
       <c r="G227" t="n">
-        <v>54.20216666666665</v>
+        <v>54.20666666666664</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8346,19 +8540,19 @@
         <v>53.99</v>
       </c>
       <c r="C228" t="n">
-        <v>53.92</v>
+        <v>53.93</v>
       </c>
       <c r="D228" t="n">
         <v>53.99</v>
       </c>
       <c r="E228" t="n">
-        <v>53.92</v>
+        <v>53.93</v>
       </c>
       <c r="F228" t="n">
-        <v>30554.1069</v>
+        <v>6695.2353</v>
       </c>
       <c r="G228" t="n">
-        <v>54.19749999999998</v>
+        <v>54.20216666666665</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8378,22 +8572,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>53.92</v>
+        <v>53.99</v>
       </c>
       <c r="C229" t="n">
         <v>53.92</v>
       </c>
       <c r="D229" t="n">
-        <v>53.92</v>
+        <v>53.99</v>
       </c>
       <c r="E229" t="n">
         <v>53.92</v>
       </c>
       <c r="F229" t="n">
-        <v>4000</v>
+        <v>30554.1069</v>
       </c>
       <c r="G229" t="n">
-        <v>54.19283333333332</v>
+        <v>54.19749999999998</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8428,7 +8622,7 @@
         <v>4000</v>
       </c>
       <c r="G230" t="n">
-        <v>54.18816666666666</v>
+        <v>54.19283333333332</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8448,22 +8642,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>53.99</v>
+        <v>53.92</v>
       </c>
       <c r="C231" t="n">
-        <v>53.99</v>
+        <v>53.92</v>
       </c>
       <c r="D231" t="n">
-        <v>54</v>
+        <v>53.92</v>
       </c>
       <c r="E231" t="n">
-        <v>53.99</v>
+        <v>53.92</v>
       </c>
       <c r="F231" t="n">
-        <v>14482.0001</v>
+        <v>4000</v>
       </c>
       <c r="G231" t="n">
-        <v>54.18466666666666</v>
+        <v>54.18816666666666</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8489,16 +8683,16 @@
         <v>53.99</v>
       </c>
       <c r="D232" t="n">
-        <v>53.99</v>
+        <v>54</v>
       </c>
       <c r="E232" t="n">
         <v>53.99</v>
       </c>
       <c r="F232" t="n">
-        <v>5816.3533</v>
+        <v>14482.0001</v>
       </c>
       <c r="G232" t="n">
-        <v>54.18116666666666</v>
+        <v>54.18466666666666</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8518,22 +8712,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>54</v>
+        <v>53.99</v>
       </c>
       <c r="C233" t="n">
-        <v>53.92</v>
+        <v>53.99</v>
       </c>
       <c r="D233" t="n">
-        <v>54</v>
+        <v>53.99</v>
       </c>
       <c r="E233" t="n">
-        <v>53.92</v>
+        <v>53.99</v>
       </c>
       <c r="F233" t="n">
-        <v>81852.81449999999</v>
+        <v>5816.3533</v>
       </c>
       <c r="G233" t="n">
-        <v>54.1765</v>
+        <v>54.18116666666666</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8553,22 +8747,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>53.87</v>
+        <v>54</v>
       </c>
       <c r="C234" t="n">
-        <v>53.87</v>
+        <v>53.92</v>
       </c>
       <c r="D234" t="n">
-        <v>53.87</v>
+        <v>54</v>
       </c>
       <c r="E234" t="n">
-        <v>53.87</v>
+        <v>53.92</v>
       </c>
       <c r="F234" t="n">
-        <v>6279.0569</v>
+        <v>81852.81449999999</v>
       </c>
       <c r="G234" t="n">
-        <v>54.171</v>
+        <v>54.1765</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8588,22 +8782,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>53.9</v>
+        <v>53.87</v>
       </c>
       <c r="C235" t="n">
-        <v>53.9</v>
+        <v>53.87</v>
       </c>
       <c r="D235" t="n">
-        <v>53.9</v>
+        <v>53.87</v>
       </c>
       <c r="E235" t="n">
-        <v>53.9</v>
+        <v>53.87</v>
       </c>
       <c r="F235" t="n">
-        <v>1083.9995</v>
+        <v>6279.0569</v>
       </c>
       <c r="G235" t="n">
-        <v>54.16583333333333</v>
+        <v>54.171</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8623,22 +8817,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>54</v>
+        <v>53.9</v>
       </c>
       <c r="C236" t="n">
-        <v>54</v>
+        <v>53.9</v>
       </c>
       <c r="D236" t="n">
-        <v>54</v>
+        <v>53.9</v>
       </c>
       <c r="E236" t="n">
-        <v>54</v>
+        <v>53.9</v>
       </c>
       <c r="F236" t="n">
-        <v>1343.3059</v>
+        <v>1083.9995</v>
       </c>
       <c r="G236" t="n">
-        <v>54.1525</v>
+        <v>54.16583333333333</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8658,22 +8852,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>53.87</v>
+        <v>54</v>
       </c>
       <c r="C237" t="n">
-        <v>53.87</v>
+        <v>54</v>
       </c>
       <c r="D237" t="n">
-        <v>53.87</v>
+        <v>54</v>
       </c>
       <c r="E237" t="n">
-        <v>53.87</v>
+        <v>54</v>
       </c>
       <c r="F237" t="n">
-        <v>1916</v>
+        <v>1343.3059</v>
       </c>
       <c r="G237" t="n">
-        <v>54.13866666666666</v>
+        <v>54.1525</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8693,22 +8887,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>54</v>
+        <v>53.87</v>
       </c>
       <c r="C238" t="n">
-        <v>54</v>
+        <v>53.87</v>
       </c>
       <c r="D238" t="n">
-        <v>54</v>
+        <v>53.87</v>
       </c>
       <c r="E238" t="n">
-        <v>54</v>
+        <v>53.87</v>
       </c>
       <c r="F238" t="n">
-        <v>78189.43769999999</v>
+        <v>1916</v>
       </c>
       <c r="G238" t="n">
-        <v>54.12833333333333</v>
+        <v>54.13866666666666</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8731,19 +8925,19 @@
         <v>54</v>
       </c>
       <c r="C239" t="n">
-        <v>53.97</v>
+        <v>54</v>
       </c>
       <c r="D239" t="n">
         <v>54</v>
       </c>
       <c r="E239" t="n">
-        <v>53.97</v>
+        <v>54</v>
       </c>
       <c r="F239" t="n">
-        <v>542</v>
+        <v>78189.43769999999</v>
       </c>
       <c r="G239" t="n">
-        <v>54.11749999999999</v>
+        <v>54.12833333333333</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8763,22 +8957,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>54.04</v>
+        <v>54</v>
       </c>
       <c r="C240" t="n">
-        <v>54.04</v>
+        <v>53.97</v>
       </c>
       <c r="D240" t="n">
-        <v>54.04</v>
+        <v>54</v>
       </c>
       <c r="E240" t="n">
-        <v>54.04</v>
+        <v>53.97</v>
       </c>
       <c r="F240" t="n">
-        <v>78036.1949</v>
+        <v>542</v>
       </c>
       <c r="G240" t="n">
-        <v>54.11333333333333</v>
+        <v>54.11749999999999</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8798,22 +8992,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>54.31</v>
+        <v>54.04</v>
       </c>
       <c r="C241" t="n">
-        <v>54.31</v>
+        <v>54.04</v>
       </c>
       <c r="D241" t="n">
-        <v>54.31</v>
+        <v>54.04</v>
       </c>
       <c r="E241" t="n">
-        <v>54.31</v>
+        <v>54.04</v>
       </c>
       <c r="F241" t="n">
-        <v>196.5599</v>
+        <v>78036.1949</v>
       </c>
       <c r="G241" t="n">
-        <v>54.11416666666666</v>
+        <v>54.11333333333333</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8833,22 +9027,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>54.21</v>
+        <v>54.31</v>
       </c>
       <c r="C242" t="n">
-        <v>54.2</v>
+        <v>54.31</v>
       </c>
       <c r="D242" t="n">
-        <v>54.21</v>
+        <v>54.31</v>
       </c>
       <c r="E242" t="n">
-        <v>54.2</v>
+        <v>54.31</v>
       </c>
       <c r="F242" t="n">
-        <v>67429.0751</v>
+        <v>196.5599</v>
       </c>
       <c r="G242" t="n">
-        <v>54.11316666666665</v>
+        <v>54.11416666666666</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8871,19 +9065,19 @@
         <v>54.21</v>
       </c>
       <c r="C243" t="n">
-        <v>54.21</v>
+        <v>54.2</v>
       </c>
       <c r="D243" t="n">
         <v>54.21</v>
       </c>
       <c r="E243" t="n">
-        <v>54.21</v>
+        <v>54.2</v>
       </c>
       <c r="F243" t="n">
-        <v>62103.16</v>
+        <v>67429.0751</v>
       </c>
       <c r="G243" t="n">
-        <v>54.11216666666665</v>
+        <v>54.11316666666665</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8915,10 +9109,10 @@
         <v>54.21</v>
       </c>
       <c r="F244" t="n">
-        <v>1369.7857</v>
+        <v>62103.16</v>
       </c>
       <c r="G244" t="n">
-        <v>54.11199999999999</v>
+        <v>54.11216666666665</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8950,7 +9144,7 @@
         <v>54.21</v>
       </c>
       <c r="F245" t="n">
-        <v>20694.7934</v>
+        <v>1369.7857</v>
       </c>
       <c r="G245" t="n">
         <v>54.11199999999999</v>
@@ -8976,19 +9170,19 @@
         <v>54.21</v>
       </c>
       <c r="C246" t="n">
-        <v>54.2</v>
+        <v>54.21</v>
       </c>
       <c r="D246" t="n">
         <v>54.21</v>
       </c>
       <c r="E246" t="n">
-        <v>54.2</v>
+        <v>54.21</v>
       </c>
       <c r="F246" t="n">
-        <v>62944.7678</v>
+        <v>20694.7934</v>
       </c>
       <c r="G246" t="n">
-        <v>54.10766666666665</v>
+        <v>54.11199999999999</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9008,22 +9202,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>54.1</v>
+        <v>54.21</v>
       </c>
       <c r="C247" t="n">
-        <v>54.01</v>
+        <v>54.2</v>
       </c>
       <c r="D247" t="n">
-        <v>54.1</v>
+        <v>54.21</v>
       </c>
       <c r="E247" t="n">
-        <v>54.01</v>
+        <v>54.2</v>
       </c>
       <c r="F247" t="n">
-        <v>30472.342</v>
+        <v>62944.7678</v>
       </c>
       <c r="G247" t="n">
-        <v>54.10183333333332</v>
+        <v>54.10766666666665</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9043,22 +9237,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>54.19</v>
+        <v>54.1</v>
       </c>
       <c r="C248" t="n">
-        <v>54.19</v>
+        <v>54.01</v>
       </c>
       <c r="D248" t="n">
-        <v>54.19</v>
+        <v>54.1</v>
       </c>
       <c r="E248" t="n">
-        <v>54.19</v>
+        <v>54.01</v>
       </c>
       <c r="F248" t="n">
-        <v>800</v>
+        <v>30472.342</v>
       </c>
       <c r="G248" t="n">
-        <v>54.09899999999998</v>
+        <v>54.10183333333332</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9078,22 +9272,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>54.12</v>
+        <v>54.19</v>
       </c>
       <c r="C249" t="n">
-        <v>54.12</v>
+        <v>54.19</v>
       </c>
       <c r="D249" t="n">
-        <v>54.12</v>
+        <v>54.19</v>
       </c>
       <c r="E249" t="n">
-        <v>54.12</v>
+        <v>54.19</v>
       </c>
       <c r="F249" t="n">
-        <v>739</v>
+        <v>800</v>
       </c>
       <c r="G249" t="n">
-        <v>54.09499999999998</v>
+        <v>54.09899999999998</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9113,22 +9307,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>54.04</v>
+        <v>54.12</v>
       </c>
       <c r="C250" t="n">
-        <v>54.04</v>
+        <v>54.12</v>
       </c>
       <c r="D250" t="n">
-        <v>54.04</v>
+        <v>54.12</v>
       </c>
       <c r="E250" t="n">
-        <v>54.04</v>
+        <v>54.12</v>
       </c>
       <c r="F250" t="n">
-        <v>361</v>
+        <v>739</v>
       </c>
       <c r="G250" t="n">
-        <v>54.08966666666664</v>
+        <v>54.09499999999998</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9148,22 +9342,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>54.15</v>
+        <v>54.04</v>
       </c>
       <c r="C251" t="n">
-        <v>54.15</v>
+        <v>54.04</v>
       </c>
       <c r="D251" t="n">
-        <v>54.15</v>
+        <v>54.04</v>
       </c>
       <c r="E251" t="n">
-        <v>54.15</v>
+        <v>54.04</v>
       </c>
       <c r="F251" t="n">
-        <v>10</v>
+        <v>361</v>
       </c>
       <c r="G251" t="n">
-        <v>54.08616666666664</v>
+        <v>54.08966666666664</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9186,19 +9380,19 @@
         <v>54.15</v>
       </c>
       <c r="C252" t="n">
-        <v>54.16</v>
+        <v>54.15</v>
       </c>
       <c r="D252" t="n">
-        <v>54.16</v>
+        <v>54.15</v>
       </c>
       <c r="E252" t="n">
         <v>54.15</v>
       </c>
       <c r="F252" t="n">
-        <v>1413.524</v>
+        <v>10</v>
       </c>
       <c r="G252" t="n">
-        <v>54.08116666666664</v>
+        <v>54.08616666666664</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9218,22 +9412,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>54.16</v>
+        <v>54.15</v>
       </c>
       <c r="C253" t="n">
         <v>54.16</v>
       </c>
       <c r="D253" t="n">
-        <v>54.19</v>
+        <v>54.16</v>
       </c>
       <c r="E253" t="n">
-        <v>54.16</v>
+        <v>54.15</v>
       </c>
       <c r="F253" t="n">
-        <v>7238.2054</v>
+        <v>1413.524</v>
       </c>
       <c r="G253" t="n">
-        <v>54.0778333333333</v>
+        <v>54.08116666666664</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9256,7 +9450,7 @@
         <v>54.16</v>
       </c>
       <c r="C254" t="n">
-        <v>54.19</v>
+        <v>54.16</v>
       </c>
       <c r="D254" t="n">
         <v>54.19</v>
@@ -9265,10 +9459,10 @@
         <v>54.16</v>
       </c>
       <c r="F254" t="n">
-        <v>4147.8011</v>
+        <v>7238.2054</v>
       </c>
       <c r="G254" t="n">
-        <v>54.07733333333331</v>
+        <v>54.0778333333333</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9288,22 +9482,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>54.2</v>
+        <v>54.16</v>
       </c>
       <c r="C255" t="n">
-        <v>54.17</v>
+        <v>54.19</v>
       </c>
       <c r="D255" t="n">
-        <v>54.2</v>
+        <v>54.19</v>
       </c>
       <c r="E255" t="n">
-        <v>54.17</v>
+        <v>54.16</v>
       </c>
       <c r="F255" t="n">
-        <v>5685.5264</v>
+        <v>4147.8011</v>
       </c>
       <c r="G255" t="n">
-        <v>54.07649999999998</v>
+        <v>54.07733333333331</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9323,22 +9517,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>54.26</v>
+        <v>54.2</v>
       </c>
       <c r="C256" t="n">
-        <v>54.3</v>
+        <v>54.17</v>
       </c>
       <c r="D256" t="n">
-        <v>54.32</v>
+        <v>54.2</v>
       </c>
       <c r="E256" t="n">
-        <v>54.26</v>
+        <v>54.17</v>
       </c>
       <c r="F256" t="n">
-        <v>3559.9851</v>
+        <v>5685.5264</v>
       </c>
       <c r="G256" t="n">
-        <v>54.07783333333332</v>
+        <v>54.07649999999998</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9358,22 +9552,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>54.29</v>
+        <v>54.26</v>
       </c>
       <c r="C257" t="n">
-        <v>54.28</v>
+        <v>54.3</v>
       </c>
       <c r="D257" t="n">
-        <v>54.29</v>
+        <v>54.32</v>
       </c>
       <c r="E257" t="n">
-        <v>54.28</v>
+        <v>54.26</v>
       </c>
       <c r="F257" t="n">
-        <v>3191</v>
+        <v>3559.9851</v>
       </c>
       <c r="G257" t="n">
-        <v>54.07949999999999</v>
+        <v>54.07783333333332</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9393,22 +9587,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>54.36</v>
+        <v>54.29</v>
       </c>
       <c r="C258" t="n">
-        <v>54.36</v>
+        <v>54.28</v>
       </c>
       <c r="D258" t="n">
-        <v>54.36</v>
+        <v>54.29</v>
       </c>
       <c r="E258" t="n">
-        <v>54.36</v>
+        <v>54.28</v>
       </c>
       <c r="F258" t="n">
-        <v>2298.3123</v>
+        <v>3191</v>
       </c>
       <c r="G258" t="n">
-        <v>54.08299999999999</v>
+        <v>54.07949999999999</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9428,22 +9622,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>54.3</v>
+        <v>54.36</v>
       </c>
       <c r="C259" t="n">
-        <v>54.3</v>
+        <v>54.36</v>
       </c>
       <c r="D259" t="n">
-        <v>54.3</v>
+        <v>54.36</v>
       </c>
       <c r="E259" t="n">
-        <v>54.3</v>
+        <v>54.36</v>
       </c>
       <c r="F259" t="n">
-        <v>603.3999</v>
+        <v>2298.3123</v>
       </c>
       <c r="G259" t="n">
-        <v>54.0855</v>
+        <v>54.08299999999999</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9466,19 +9660,19 @@
         <v>54.3</v>
       </c>
       <c r="C260" t="n">
-        <v>54.19</v>
+        <v>54.3</v>
       </c>
       <c r="D260" t="n">
         <v>54.3</v>
       </c>
       <c r="E260" t="n">
-        <v>54.19</v>
+        <v>54.3</v>
       </c>
       <c r="F260" t="n">
-        <v>42289.3061</v>
+        <v>603.3999</v>
       </c>
       <c r="G260" t="n">
-        <v>54.08616666666666</v>
+        <v>54.0855</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9498,22 +9692,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>54.2</v>
+        <v>54.3</v>
       </c>
       <c r="C261" t="n">
-        <v>54.2</v>
+        <v>54.19</v>
       </c>
       <c r="D261" t="n">
-        <v>54.2</v>
+        <v>54.3</v>
       </c>
       <c r="E261" t="n">
-        <v>54.2</v>
+        <v>54.19</v>
       </c>
       <c r="F261" t="n">
-        <v>3500</v>
+        <v>42289.3061</v>
       </c>
       <c r="G261" t="n">
-        <v>54.08749999999999</v>
+        <v>54.08616666666666</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9548,7 +9742,7 @@
         <v>3500</v>
       </c>
       <c r="G262" t="n">
-        <v>54.08899999999998</v>
+        <v>54.08749999999999</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9574,16 +9768,16 @@
         <v>54.2</v>
       </c>
       <c r="D263" t="n">
-        <v>54.27</v>
+        <v>54.2</v>
       </c>
       <c r="E263" t="n">
         <v>54.2</v>
       </c>
       <c r="F263" t="n">
-        <v>2465.2437</v>
+        <v>3500</v>
       </c>
       <c r="G263" t="n">
-        <v>54.09049999999998</v>
+        <v>54.08899999999998</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9609,16 +9803,16 @@
         <v>54.2</v>
       </c>
       <c r="D264" t="n">
+        <v>54.27</v>
+      </c>
+      <c r="E264" t="n">
         <v>54.2</v>
       </c>
-      <c r="E264" t="n">
-        <v>54.19</v>
-      </c>
       <c r="F264" t="n">
-        <v>12946.8059</v>
+        <v>2465.2437</v>
       </c>
       <c r="G264" t="n">
-        <v>54.09199999999998</v>
+        <v>54.09049999999998</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9638,10 +9832,10 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>54.19</v>
+        <v>54.2</v>
       </c>
       <c r="C265" t="n">
-        <v>54.19</v>
+        <v>54.2</v>
       </c>
       <c r="D265" t="n">
         <v>54.2</v>
@@ -9650,10 +9844,10 @@
         <v>54.19</v>
       </c>
       <c r="F265" t="n">
-        <v>12713.5485</v>
+        <v>12946.8059</v>
       </c>
       <c r="G265" t="n">
-        <v>54.09283333333331</v>
+        <v>54.09199999999998</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9676,19 +9870,19 @@
         <v>54.19</v>
       </c>
       <c r="C266" t="n">
-        <v>54.18</v>
+        <v>54.19</v>
       </c>
       <c r="D266" t="n">
         <v>54.2</v>
       </c>
       <c r="E266" t="n">
-        <v>54.18</v>
+        <v>54.19</v>
       </c>
       <c r="F266" t="n">
-        <v>13016.7992</v>
+        <v>12713.5485</v>
       </c>
       <c r="G266" t="n">
-        <v>54.09516666666664</v>
+        <v>54.09283333333331</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9708,22 +9902,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>54.16</v>
+        <v>54.19</v>
       </c>
       <c r="C267" t="n">
-        <v>54.16</v>
+        <v>54.18</v>
       </c>
       <c r="D267" t="n">
-        <v>54.16</v>
+        <v>54.2</v>
       </c>
       <c r="E267" t="n">
-        <v>54.16</v>
+        <v>54.18</v>
       </c>
       <c r="F267" t="n">
-        <v>2.8515</v>
+        <v>13016.7992</v>
       </c>
       <c r="G267" t="n">
-        <v>54.09749999999998</v>
+        <v>54.09516666666664</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9743,22 +9937,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>54.14</v>
+        <v>54.16</v>
       </c>
       <c r="C268" t="n">
-        <v>54.09</v>
+        <v>54.16</v>
       </c>
       <c r="D268" t="n">
-        <v>54.14</v>
+        <v>54.16</v>
       </c>
       <c r="E268" t="n">
-        <v>54.09</v>
+        <v>54.16</v>
       </c>
       <c r="F268" t="n">
-        <v>43029.4786</v>
+        <v>2.8515</v>
       </c>
       <c r="G268" t="n">
-        <v>54.09849999999997</v>
+        <v>54.09749999999998</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -9778,22 +9972,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>54.02</v>
+        <v>54.14</v>
       </c>
       <c r="C269" t="n">
-        <v>54.02</v>
+        <v>54.09</v>
       </c>
       <c r="D269" t="n">
-        <v>54.02</v>
+        <v>54.14</v>
       </c>
       <c r="E269" t="n">
-        <v>54.02</v>
+        <v>54.09</v>
       </c>
       <c r="F269" t="n">
-        <v>47914.7491</v>
+        <v>43029.4786</v>
       </c>
       <c r="G269" t="n">
-        <v>54.09816666666664</v>
+        <v>54.09849999999997</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -9813,22 +10007,22 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>54.16</v>
+        <v>54.02</v>
       </c>
       <c r="C270" t="n">
-        <v>54.16</v>
+        <v>54.02</v>
       </c>
       <c r="D270" t="n">
-        <v>54.16</v>
+        <v>54.02</v>
       </c>
       <c r="E270" t="n">
-        <v>54.16</v>
+        <v>54.02</v>
       </c>
       <c r="F270" t="n">
-        <v>671.8695</v>
+        <v>47914.7491</v>
       </c>
       <c r="G270" t="n">
-        <v>54.10016666666664</v>
+        <v>54.09816666666664</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -9848,22 +10042,22 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>54.12</v>
+        <v>54.16</v>
       </c>
       <c r="C271" t="n">
-        <v>54.11</v>
+        <v>54.16</v>
       </c>
       <c r="D271" t="n">
-        <v>54.12</v>
+        <v>54.16</v>
       </c>
       <c r="E271" t="n">
-        <v>54.11</v>
+        <v>54.16</v>
       </c>
       <c r="F271" t="n">
-        <v>671</v>
+        <v>671.8695</v>
       </c>
       <c r="G271" t="n">
-        <v>54.10133333333331</v>
+        <v>54.10016666666664</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -9889,16 +10083,16 @@
         <v>54.11</v>
       </c>
       <c r="D272" t="n">
-        <v>54.16</v>
+        <v>54.12</v>
       </c>
       <c r="E272" t="n">
         <v>54.11</v>
       </c>
       <c r="F272" t="n">
-        <v>56784.2313</v>
+        <v>671</v>
       </c>
       <c r="G272" t="n">
-        <v>54.10249999999998</v>
+        <v>54.10133333333331</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -9918,22 +10112,22 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>54.11</v>
+        <v>54.12</v>
       </c>
       <c r="C273" t="n">
         <v>54.11</v>
       </c>
       <c r="D273" t="n">
-        <v>54.11</v>
+        <v>54.16</v>
       </c>
       <c r="E273" t="n">
         <v>54.11</v>
       </c>
       <c r="F273" t="n">
-        <v>90.8976</v>
+        <v>56784.2313</v>
       </c>
       <c r="G273" t="n">
-        <v>54.09799999999998</v>
+        <v>54.10249999999998</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -9965,10 +10159,10 @@
         <v>54.11</v>
       </c>
       <c r="F274" t="n">
-        <v>18.2561</v>
+        <v>90.8976</v>
       </c>
       <c r="G274" t="n">
-        <v>54.09633333333331</v>
+        <v>54.09799999999998</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -9988,22 +10182,22 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>54.01</v>
+        <v>54.11</v>
       </c>
       <c r="C275" t="n">
-        <v>53.87</v>
+        <v>54.11</v>
       </c>
       <c r="D275" t="n">
-        <v>54.01</v>
+        <v>54.11</v>
       </c>
       <c r="E275" t="n">
-        <v>53.87</v>
+        <v>54.11</v>
       </c>
       <c r="F275" t="n">
-        <v>82429.0475</v>
+        <v>18.2561</v>
       </c>
       <c r="G275" t="n">
-        <v>54.09349999999998</v>
+        <v>54.09633333333331</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10023,22 +10217,22 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>54.17</v>
+        <v>54.01</v>
       </c>
       <c r="C276" t="n">
-        <v>54.27</v>
+        <v>53.87</v>
       </c>
       <c r="D276" t="n">
-        <v>54.33</v>
+        <v>54.01</v>
       </c>
       <c r="E276" t="n">
-        <v>54.17</v>
+        <v>53.87</v>
       </c>
       <c r="F276" t="n">
-        <v>42167</v>
+        <v>82429.0475</v>
       </c>
       <c r="G276" t="n">
-        <v>54.09249999999998</v>
+        <v>54.09349999999998</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10058,22 +10252,22 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>54.27</v>
+        <v>54.17</v>
       </c>
       <c r="C277" t="n">
         <v>54.27</v>
       </c>
       <c r="D277" t="n">
-        <v>54.27</v>
+        <v>54.33</v>
       </c>
       <c r="E277" t="n">
-        <v>54.27</v>
+        <v>54.17</v>
       </c>
       <c r="F277" t="n">
-        <v>615.3787</v>
+        <v>42167</v>
       </c>
       <c r="G277" t="n">
-        <v>54.09149999999998</v>
+        <v>54.09249999999998</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10105,10 +10299,10 @@
         <v>54.27</v>
       </c>
       <c r="F278" t="n">
-        <v>91.2871</v>
+        <v>615.3787</v>
       </c>
       <c r="G278" t="n">
-        <v>54.09566666666665</v>
+        <v>54.09149999999998</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10128,22 +10322,22 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>54.17</v>
+        <v>54.27</v>
       </c>
       <c r="C279" t="n">
-        <v>54.17</v>
+        <v>54.27</v>
       </c>
       <c r="D279" t="n">
-        <v>54.17</v>
+        <v>54.27</v>
       </c>
       <c r="E279" t="n">
-        <v>54.17</v>
+        <v>54.27</v>
       </c>
       <c r="F279" t="n">
-        <v>1218.6951</v>
+        <v>91.2871</v>
       </c>
       <c r="G279" t="n">
-        <v>54.09849999999998</v>
+        <v>54.09566666666665</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10166,19 +10360,19 @@
         <v>54.17</v>
       </c>
       <c r="C280" t="n">
-        <v>54.3</v>
+        <v>54.17</v>
       </c>
       <c r="D280" t="n">
-        <v>54.3</v>
+        <v>54.17</v>
       </c>
       <c r="E280" t="n">
         <v>54.17</v>
       </c>
       <c r="F280" t="n">
-        <v>4292.1998523</v>
+        <v>1218.6951</v>
       </c>
       <c r="G280" t="n">
-        <v>54.10349999999998</v>
+        <v>54.09849999999998</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10201,19 +10395,19 @@
         <v>54.17</v>
       </c>
       <c r="C281" t="n">
-        <v>54.17</v>
+        <v>54.3</v>
       </c>
       <c r="D281" t="n">
-        <v>54.17</v>
+        <v>54.3</v>
       </c>
       <c r="E281" t="n">
         <v>54.17</v>
       </c>
       <c r="F281" t="n">
-        <v>1439.2999</v>
+        <v>4292.1998523</v>
       </c>
       <c r="G281" t="n">
-        <v>54.10633333333332</v>
+        <v>54.10349999999998</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10233,22 +10427,22 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>54.36</v>
+        <v>54.17</v>
       </c>
       <c r="C282" t="n">
-        <v>54.26</v>
+        <v>54.17</v>
       </c>
       <c r="D282" t="n">
-        <v>54.36</v>
+        <v>54.17</v>
       </c>
       <c r="E282" t="n">
         <v>54.17</v>
       </c>
       <c r="F282" t="n">
-        <v>32420.4839</v>
+        <v>1439.2999</v>
       </c>
       <c r="G282" t="n">
-        <v>54.11083333333332</v>
+        <v>54.10633333333332</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10268,22 +10462,22 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>54.17</v>
+        <v>54.36</v>
       </c>
       <c r="C283" t="n">
-        <v>54.17</v>
+        <v>54.26</v>
       </c>
       <c r="D283" t="n">
-        <v>54.17</v>
+        <v>54.36</v>
       </c>
       <c r="E283" t="n">
         <v>54.17</v>
       </c>
       <c r="F283" t="n">
-        <v>11384.9799</v>
+        <v>32420.4839</v>
       </c>
       <c r="G283" t="n">
-        <v>54.11383333333333</v>
+        <v>54.11083333333332</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10303,22 +10497,22 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>54.31</v>
+        <v>54.17</v>
       </c>
       <c r="C284" t="n">
-        <v>54.31</v>
+        <v>54.17</v>
       </c>
       <c r="D284" t="n">
-        <v>54.31</v>
+        <v>54.17</v>
       </c>
       <c r="E284" t="n">
-        <v>54.31</v>
+        <v>54.17</v>
       </c>
       <c r="F284" t="n">
-        <v>10</v>
+        <v>11384.9799</v>
       </c>
       <c r="G284" t="n">
-        <v>54.12016666666667</v>
+        <v>54.11383333333333</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10350,10 +10544,10 @@
         <v>54.31</v>
       </c>
       <c r="F285" t="n">
-        <v>7098.8485</v>
+        <v>10</v>
       </c>
       <c r="G285" t="n">
-        <v>54.12666666666667</v>
+        <v>54.12016666666667</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -10373,22 +10567,22 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>54.2</v>
+        <v>54.31</v>
       </c>
       <c r="C286" t="n">
-        <v>54.27</v>
+        <v>54.31</v>
       </c>
       <c r="D286" t="n">
-        <v>54.38</v>
+        <v>54.31</v>
       </c>
       <c r="E286" t="n">
-        <v>54.2</v>
+        <v>54.31</v>
       </c>
       <c r="F286" t="n">
-        <v>51813.743</v>
+        <v>7098.8485</v>
       </c>
       <c r="G286" t="n">
-        <v>54.13133333333334</v>
+        <v>54.12666666666667</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -10408,22 +10602,22 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>54.27</v>
+        <v>54.2</v>
       </c>
       <c r="C287" t="n">
         <v>54.27</v>
       </c>
       <c r="D287" t="n">
-        <v>54.27</v>
+        <v>54.38</v>
       </c>
       <c r="E287" t="n">
-        <v>54.27</v>
+        <v>54.2</v>
       </c>
       <c r="F287" t="n">
-        <v>67.2051</v>
+        <v>51813.743</v>
       </c>
       <c r="G287" t="n">
-        <v>54.13700000000001</v>
+        <v>54.13133333333334</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -10443,22 +10637,22 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>54.17</v>
+        <v>54.27</v>
       </c>
       <c r="C288" t="n">
-        <v>54.17</v>
+        <v>54.27</v>
       </c>
       <c r="D288" t="n">
-        <v>54.17</v>
+        <v>54.27</v>
       </c>
       <c r="E288" t="n">
-        <v>54.17</v>
+        <v>54.27</v>
       </c>
       <c r="F288" t="n">
-        <v>18</v>
+        <v>67.2051</v>
       </c>
       <c r="G288" t="n">
-        <v>54.14116666666667</v>
+        <v>54.13700000000001</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -10490,10 +10684,10 @@
         <v>54.17</v>
       </c>
       <c r="F289" t="n">
-        <v>700.1277</v>
+        <v>18</v>
       </c>
       <c r="G289" t="n">
-        <v>54.14533333333334</v>
+        <v>54.14116666666667</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -10513,22 +10707,22 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>54.18</v>
+        <v>54.17</v>
       </c>
       <c r="C290" t="n">
         <v>54.17</v>
       </c>
       <c r="D290" t="n">
-        <v>54.39</v>
+        <v>54.17</v>
       </c>
       <c r="E290" t="n">
         <v>54.17</v>
       </c>
       <c r="F290" t="n">
-        <v>25023.7837</v>
+        <v>700.1277</v>
       </c>
       <c r="G290" t="n">
-        <v>54.1495</v>
+        <v>54.14533333333334</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -10548,22 +10742,22 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>54.27</v>
+        <v>54.18</v>
       </c>
       <c r="C291" t="n">
-        <v>54.27</v>
+        <v>54.17</v>
       </c>
       <c r="D291" t="n">
-        <v>54.27</v>
+        <v>54.39</v>
       </c>
       <c r="E291" t="n">
-        <v>54.27</v>
+        <v>54.17</v>
       </c>
       <c r="F291" t="n">
-        <v>1283.6404</v>
+        <v>25023.7837</v>
       </c>
       <c r="G291" t="n">
-        <v>54.15416666666668</v>
+        <v>54.1495</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -10583,22 +10777,22 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>54.3</v>
+        <v>54.27</v>
       </c>
       <c r="C292" t="n">
-        <v>54.3</v>
+        <v>54.27</v>
       </c>
       <c r="D292" t="n">
-        <v>54.3</v>
+        <v>54.27</v>
       </c>
       <c r="E292" t="n">
-        <v>54.3</v>
+        <v>54.27</v>
       </c>
       <c r="F292" t="n">
-        <v>6618.2033</v>
+        <v>1283.6404</v>
       </c>
       <c r="G292" t="n">
-        <v>54.15933333333335</v>
+        <v>54.15416666666668</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -10630,10 +10824,10 @@
         <v>54.3</v>
       </c>
       <c r="F293" t="n">
-        <v>13376.3978</v>
+        <v>6618.2033</v>
       </c>
       <c r="G293" t="n">
-        <v>54.16566666666668</v>
+        <v>54.15933333333335</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -10665,10 +10859,10 @@
         <v>54.3</v>
       </c>
       <c r="F294" t="n">
-        <v>6454.0261</v>
+        <v>13376.3978</v>
       </c>
       <c r="G294" t="n">
-        <v>54.17283333333335</v>
+        <v>54.16566666666668</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -10688,22 +10882,22 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>54.27</v>
+        <v>54.3</v>
       </c>
       <c r="C295" t="n">
-        <v>54.27</v>
+        <v>54.3</v>
       </c>
       <c r="D295" t="n">
-        <v>54.27</v>
+        <v>54.3</v>
       </c>
       <c r="E295" t="n">
-        <v>54.27</v>
+        <v>54.3</v>
       </c>
       <c r="F295" t="n">
-        <v>15456.8387</v>
+        <v>6454.0261</v>
       </c>
       <c r="G295" t="n">
-        <v>54.17900000000002</v>
+        <v>54.17283333333335</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -10726,19 +10920,19 @@
         <v>54.27</v>
       </c>
       <c r="C296" t="n">
-        <v>54.4</v>
+        <v>54.27</v>
       </c>
       <c r="D296" t="n">
-        <v>54.4</v>
+        <v>54.27</v>
       </c>
       <c r="E296" t="n">
         <v>54.27</v>
       </c>
       <c r="F296" t="n">
-        <v>18889.8732</v>
+        <v>15456.8387</v>
       </c>
       <c r="G296" t="n">
-        <v>54.18566666666668</v>
+        <v>54.17900000000002</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -10758,7 +10952,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>54.4</v>
+        <v>54.27</v>
       </c>
       <c r="C297" t="n">
         <v>54.4</v>
@@ -10767,13 +10961,13 @@
         <v>54.4</v>
       </c>
       <c r="E297" t="n">
-        <v>54.4</v>
+        <v>54.27</v>
       </c>
       <c r="F297" t="n">
-        <v>937.9609</v>
+        <v>18889.8732</v>
       </c>
       <c r="G297" t="n">
-        <v>54.19450000000003</v>
+        <v>54.18566666666668</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -10793,22 +10987,22 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>54.27</v>
+        <v>54.4</v>
       </c>
       <c r="C298" t="n">
-        <v>54.27</v>
+        <v>54.4</v>
       </c>
       <c r="D298" t="n">
-        <v>54.27</v>
+        <v>54.4</v>
       </c>
       <c r="E298" t="n">
-        <v>54.27</v>
+        <v>54.4</v>
       </c>
       <c r="F298" t="n">
-        <v>378.7007</v>
+        <v>937.9609</v>
       </c>
       <c r="G298" t="n">
-        <v>54.19900000000003</v>
+        <v>54.19450000000003</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -10840,10 +11034,10 @@
         <v>54.27</v>
       </c>
       <c r="F299" t="n">
-        <v>9071.5</v>
+        <v>378.7007</v>
       </c>
       <c r="G299" t="n">
-        <v>54.20400000000003</v>
+        <v>54.19900000000003</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -10875,10 +11069,10 @@
         <v>54.27</v>
       </c>
       <c r="F300" t="n">
-        <v>9881.3665</v>
+        <v>9071.5</v>
       </c>
       <c r="G300" t="n">
-        <v>54.20783333333336</v>
+        <v>54.20400000000003</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -10910,10 +11104,10 @@
         <v>54.27</v>
       </c>
       <c r="F301" t="n">
-        <v>331.2</v>
+        <v>9881.3665</v>
       </c>
       <c r="G301" t="n">
-        <v>54.20716666666669</v>
+        <v>54.20783333333336</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -10945,10 +11139,10 @@
         <v>54.27</v>
       </c>
       <c r="F302" t="n">
-        <v>18.4264</v>
+        <v>331.2</v>
       </c>
       <c r="G302" t="n">
-        <v>54.20833333333336</v>
+        <v>54.20716666666669</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -10968,22 +11162,22 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>54.29</v>
+        <v>54.27</v>
       </c>
       <c r="C303" t="n">
-        <v>54.29</v>
+        <v>54.27</v>
       </c>
       <c r="D303" t="n">
-        <v>54.29</v>
+        <v>54.27</v>
       </c>
       <c r="E303" t="n">
-        <v>54.29</v>
+        <v>54.27</v>
       </c>
       <c r="F303" t="n">
-        <v>144.9</v>
+        <v>18.4264</v>
       </c>
       <c r="G303" t="n">
-        <v>54.2096666666667</v>
+        <v>54.20833333333336</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -11003,22 +11197,22 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>54.41</v>
+        <v>54.29</v>
       </c>
       <c r="C304" t="n">
-        <v>54.39</v>
+        <v>54.29</v>
       </c>
       <c r="D304" t="n">
-        <v>54.44</v>
+        <v>54.29</v>
       </c>
       <c r="E304" t="n">
-        <v>54.39</v>
+        <v>54.29</v>
       </c>
       <c r="F304" t="n">
-        <v>2209.53869158</v>
+        <v>144.9</v>
       </c>
       <c r="G304" t="n">
-        <v>54.21266666666669</v>
+        <v>54.2096666666667</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -11038,22 +11232,22 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
+        <v>54.41</v>
+      </c>
+      <c r="C305" t="n">
         <v>54.39</v>
       </c>
-      <c r="C305" t="n">
-        <v>54.42</v>
-      </c>
       <c r="D305" t="n">
-        <v>54.42</v>
+        <v>54.44</v>
       </c>
       <c r="E305" t="n">
         <v>54.39</v>
       </c>
       <c r="F305" t="n">
-        <v>731.2875</v>
+        <v>2209.53869158</v>
       </c>
       <c r="G305" t="n">
-        <v>54.21616666666669</v>
+        <v>54.21266666666669</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -11073,22 +11267,22 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>54.37</v>
+        <v>54.39</v>
       </c>
       <c r="C306" t="n">
-        <v>54.37</v>
+        <v>54.42</v>
       </c>
       <c r="D306" t="n">
-        <v>54.37</v>
+        <v>54.42</v>
       </c>
       <c r="E306" t="n">
-        <v>54.37</v>
+        <v>54.39</v>
       </c>
       <c r="F306" t="n">
-        <v>509.777</v>
+        <v>731.2875</v>
       </c>
       <c r="G306" t="n">
-        <v>54.21900000000003</v>
+        <v>54.21616666666669</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -11120,10 +11314,10 @@
         <v>54.37</v>
       </c>
       <c r="F307" t="n">
-        <v>16996.9691</v>
+        <v>509.777</v>
       </c>
       <c r="G307" t="n">
-        <v>54.22500000000002</v>
+        <v>54.21900000000003</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -11143,22 +11337,22 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>54.5</v>
+        <v>54.37</v>
       </c>
       <c r="C308" t="n">
-        <v>54.5</v>
+        <v>54.37</v>
       </c>
       <c r="D308" t="n">
-        <v>54.5</v>
+        <v>54.37</v>
       </c>
       <c r="E308" t="n">
-        <v>54.5</v>
+        <v>54.37</v>
       </c>
       <c r="F308" t="n">
-        <v>190</v>
+        <v>16996.9691</v>
       </c>
       <c r="G308" t="n">
-        <v>54.23016666666669</v>
+        <v>54.22500000000002</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -11190,10 +11384,10 @@
         <v>54.5</v>
       </c>
       <c r="F309" t="n">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="G309" t="n">
-        <v>54.23650000000002</v>
+        <v>54.23016666666669</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -11213,22 +11407,22 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>54.27</v>
+        <v>54.5</v>
       </c>
       <c r="C310" t="n">
-        <v>54.27</v>
+        <v>54.5</v>
       </c>
       <c r="D310" t="n">
-        <v>54.27</v>
+        <v>54.5</v>
       </c>
       <c r="E310" t="n">
-        <v>54.27</v>
+        <v>54.5</v>
       </c>
       <c r="F310" t="n">
-        <v>1261.7887</v>
+        <v>10</v>
       </c>
       <c r="G310" t="n">
-        <v>54.24033333333336</v>
+        <v>54.23650000000002</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -11260,10 +11454,10 @@
         <v>54.27</v>
       </c>
       <c r="F311" t="n">
-        <v>7672.2341</v>
+        <v>1261.7887</v>
       </c>
       <c r="G311" t="n">
-        <v>54.24233333333336</v>
+        <v>54.24033333333336</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -11295,10 +11489,10 @@
         <v>54.27</v>
       </c>
       <c r="F312" t="n">
-        <v>5698.8531</v>
+        <v>7672.2341</v>
       </c>
       <c r="G312" t="n">
-        <v>54.24416666666669</v>
+        <v>54.24233333333336</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -11330,10 +11524,10 @@
         <v>54.27</v>
       </c>
       <c r="F313" t="n">
-        <v>30290.8728</v>
+        <v>5698.8531</v>
       </c>
       <c r="G313" t="n">
-        <v>54.24600000000002</v>
+        <v>54.24416666666669</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -11353,22 +11547,22 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>54.28</v>
+        <v>54.27</v>
       </c>
       <c r="C314" t="n">
-        <v>54.28</v>
+        <v>54.27</v>
       </c>
       <c r="D314" t="n">
-        <v>54.28</v>
+        <v>54.27</v>
       </c>
       <c r="E314" t="n">
-        <v>54.28</v>
+        <v>54.27</v>
       </c>
       <c r="F314" t="n">
-        <v>1608.5</v>
+        <v>30290.8728</v>
       </c>
       <c r="G314" t="n">
-        <v>54.24750000000003</v>
+        <v>54.24600000000002</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -11391,19 +11585,19 @@
         <v>54.28</v>
       </c>
       <c r="C315" t="n">
-        <v>54.29</v>
+        <v>54.28</v>
       </c>
       <c r="D315" t="n">
-        <v>54.29</v>
+        <v>54.28</v>
       </c>
       <c r="E315" t="n">
         <v>54.28</v>
       </c>
       <c r="F315" t="n">
-        <v>1494.7676</v>
+        <v>1608.5</v>
       </c>
       <c r="G315" t="n">
-        <v>54.24950000000003</v>
+        <v>54.24750000000003</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -11423,10 +11617,10 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
+        <v>54.28</v>
+      </c>
+      <c r="C316" t="n">
         <v>54.29</v>
-      </c>
-      <c r="C316" t="n">
-        <v>54.28</v>
       </c>
       <c r="D316" t="n">
         <v>54.29</v>
@@ -11435,10 +11629,10 @@
         <v>54.28</v>
       </c>
       <c r="F316" t="n">
-        <v>187393.9362</v>
+        <v>1494.7676</v>
       </c>
       <c r="G316" t="n">
-        <v>54.2491666666667</v>
+        <v>54.24950000000003</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -11458,22 +11652,22 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
+        <v>54.29</v>
+      </c>
+      <c r="C317" t="n">
         <v>54.28</v>
-      </c>
-      <c r="C317" t="n">
-        <v>54.21</v>
       </c>
       <c r="D317" t="n">
         <v>54.29</v>
       </c>
       <c r="E317" t="n">
-        <v>54.21</v>
+        <v>54.28</v>
       </c>
       <c r="F317" t="n">
-        <v>30482.1497</v>
+        <v>187393.9362</v>
       </c>
       <c r="G317" t="n">
-        <v>54.24800000000003</v>
+        <v>54.2491666666667</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -11493,22 +11687,22 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>54.21</v>
+        <v>54.28</v>
       </c>
       <c r="C318" t="n">
         <v>54.21</v>
       </c>
       <c r="D318" t="n">
-        <v>54.21</v>
+        <v>54.29</v>
       </c>
       <c r="E318" t="n">
         <v>54.21</v>
       </c>
       <c r="F318" t="n">
-        <v>1084.7809</v>
+        <v>30482.1497</v>
       </c>
       <c r="G318" t="n">
-        <v>54.24550000000002</v>
+        <v>54.24800000000003</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -11528,22 +11722,22 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>54.23</v>
+        <v>54.21</v>
       </c>
       <c r="C319" t="n">
-        <v>54.23</v>
+        <v>54.21</v>
       </c>
       <c r="D319" t="n">
-        <v>54.23</v>
+        <v>54.21</v>
       </c>
       <c r="E319" t="n">
-        <v>54.23</v>
+        <v>54.21</v>
       </c>
       <c r="F319" t="n">
-        <v>8364.571400000001</v>
+        <v>1084.7809</v>
       </c>
       <c r="G319" t="n">
-        <v>54.24433333333335</v>
+        <v>54.24550000000002</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -11575,10 +11769,10 @@
         <v>54.23</v>
       </c>
       <c r="F320" t="n">
-        <v>0.0001</v>
+        <v>8364.571400000001</v>
       </c>
       <c r="G320" t="n">
-        <v>54.24500000000002</v>
+        <v>54.24433333333335</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -11598,22 +11792,22 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>54.21</v>
+        <v>54.23</v>
       </c>
       <c r="C321" t="n">
-        <v>54.21</v>
+        <v>54.23</v>
       </c>
       <c r="D321" t="n">
-        <v>54.21</v>
+        <v>54.23</v>
       </c>
       <c r="E321" t="n">
-        <v>54.21</v>
+        <v>54.23</v>
       </c>
       <c r="F321" t="n">
-        <v>417.4004</v>
+        <v>0.0001</v>
       </c>
       <c r="G321" t="n">
-        <v>54.24516666666669</v>
+        <v>54.24500000000002</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -11636,19 +11830,19 @@
         <v>54.21</v>
       </c>
       <c r="C322" t="n">
-        <v>54.08</v>
+        <v>54.21</v>
       </c>
       <c r="D322" t="n">
         <v>54.21</v>
       </c>
       <c r="E322" t="n">
-        <v>54.08</v>
+        <v>54.21</v>
       </c>
       <c r="F322" t="n">
-        <v>16773.7461</v>
+        <v>417.4004</v>
       </c>
       <c r="G322" t="n">
-        <v>54.24316666666669</v>
+        <v>54.24516666666669</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -11668,22 +11862,22 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>54.12</v>
+        <v>54.21</v>
       </c>
       <c r="C323" t="n">
-        <v>54.14</v>
+        <v>54.08</v>
       </c>
       <c r="D323" t="n">
-        <v>54.14</v>
+        <v>54.21</v>
       </c>
       <c r="E323" t="n">
-        <v>54.12</v>
+        <v>54.08</v>
       </c>
       <c r="F323" t="n">
-        <v>5904.4174</v>
+        <v>16773.7461</v>
       </c>
       <c r="G323" t="n">
-        <v>54.24216666666669</v>
+        <v>54.24316666666669</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -11703,22 +11897,22 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>54.26</v>
+        <v>54.12</v>
       </c>
       <c r="C324" t="n">
-        <v>54.26</v>
+        <v>54.14</v>
       </c>
       <c r="D324" t="n">
-        <v>54.26</v>
+        <v>54.14</v>
       </c>
       <c r="E324" t="n">
-        <v>54.26</v>
+        <v>54.12</v>
       </c>
       <c r="F324" t="n">
-        <v>55.28934758</v>
+        <v>5904.4174</v>
       </c>
       <c r="G324" t="n">
-        <v>54.2431666666667</v>
+        <v>54.24216666666669</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -11738,22 +11932,22 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>54.14</v>
+        <v>54.26</v>
       </c>
       <c r="C325" t="n">
-        <v>54.14</v>
+        <v>54.26</v>
       </c>
       <c r="D325" t="n">
-        <v>54.14</v>
+        <v>54.26</v>
       </c>
       <c r="E325" t="n">
-        <v>54.14</v>
+        <v>54.26</v>
       </c>
       <c r="F325" t="n">
-        <v>416.3445</v>
+        <v>55.28934758</v>
       </c>
       <c r="G325" t="n">
-        <v>54.24233333333336</v>
+        <v>54.2431666666667</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -11773,22 +11967,22 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>54.07</v>
+        <v>54.14</v>
       </c>
       <c r="C326" t="n">
-        <v>54.07</v>
+        <v>54.14</v>
       </c>
       <c r="D326" t="n">
-        <v>54.07</v>
+        <v>54.14</v>
       </c>
       <c r="E326" t="n">
-        <v>54.07</v>
+        <v>54.14</v>
       </c>
       <c r="F326" t="n">
-        <v>3977.692</v>
+        <v>416.3445</v>
       </c>
       <c r="G326" t="n">
-        <v>54.24050000000003</v>
+        <v>54.24233333333336</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -11811,19 +12005,19 @@
         <v>54.07</v>
       </c>
       <c r="C327" t="n">
-        <v>54.05</v>
+        <v>54.07</v>
       </c>
       <c r="D327" t="n">
         <v>54.07</v>
       </c>
       <c r="E327" t="n">
-        <v>54.05</v>
+        <v>54.07</v>
       </c>
       <c r="F327" t="n">
-        <v>15388.8911</v>
+        <v>3977.692</v>
       </c>
       <c r="G327" t="n">
-        <v>54.23866666666671</v>
+        <v>54.24050000000003</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -11843,22 +12037,22 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>54.04</v>
+        <v>54.07</v>
       </c>
       <c r="C328" t="n">
-        <v>54.01</v>
+        <v>54.05</v>
       </c>
       <c r="D328" t="n">
-        <v>54.04</v>
+        <v>54.07</v>
       </c>
       <c r="E328" t="n">
-        <v>54</v>
+        <v>54.05</v>
       </c>
       <c r="F328" t="n">
-        <v>29974.9374</v>
+        <v>15388.8911</v>
       </c>
       <c r="G328" t="n">
-        <v>54.23733333333337</v>
+        <v>54.23866666666671</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -11887,13 +12081,13 @@
         <v>54.04</v>
       </c>
       <c r="E329" t="n">
-        <v>54.01</v>
+        <v>54</v>
       </c>
       <c r="F329" t="n">
-        <v>23041.2057</v>
+        <v>29974.9374</v>
       </c>
       <c r="G329" t="n">
-        <v>54.23716666666671</v>
+        <v>54.23733333333337</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -11913,22 +12107,22 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>54</v>
+        <v>54.04</v>
       </c>
       <c r="C330" t="n">
-        <v>54</v>
+        <v>54.01</v>
       </c>
       <c r="D330" t="n">
-        <v>54</v>
+        <v>54.04</v>
       </c>
       <c r="E330" t="n">
-        <v>54</v>
+        <v>54.01</v>
       </c>
       <c r="F330" t="n">
-        <v>3599.5629</v>
+        <v>23041.2057</v>
       </c>
       <c r="G330" t="n">
-        <v>54.23450000000005</v>
+        <v>54.23716666666671</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -11960,10 +12154,10 @@
         <v>54</v>
       </c>
       <c r="F331" t="n">
-        <v>31938.8091</v>
+        <v>3599.5629</v>
       </c>
       <c r="G331" t="n">
-        <v>54.23266666666671</v>
+        <v>54.23450000000005</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -11983,22 +12177,22 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="C332" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="D332" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="E332" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="F332" t="n">
-        <v>34307.899</v>
+        <v>31938.8091</v>
       </c>
       <c r="G332" t="n">
-        <v>54.22916666666671</v>
+        <v>54.23266666666671</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -12018,22 +12212,22 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>53.89</v>
+        <v>53.9</v>
       </c>
       <c r="C333" t="n">
-        <v>53.87</v>
+        <v>53.9</v>
       </c>
       <c r="D333" t="n">
-        <v>53.89</v>
+        <v>53.9</v>
       </c>
       <c r="E333" t="n">
-        <v>53.87</v>
+        <v>53.9</v>
       </c>
       <c r="F333" t="n">
-        <v>20823.0922</v>
+        <v>34307.899</v>
       </c>
       <c r="G333" t="n">
-        <v>54.22516666666671</v>
+        <v>54.22916666666671</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -12053,22 +12247,22 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>53.87</v>
+        <v>53.89</v>
       </c>
       <c r="C334" t="n">
         <v>53.87</v>
       </c>
       <c r="D334" t="n">
-        <v>53.87</v>
+        <v>53.89</v>
       </c>
       <c r="E334" t="n">
         <v>53.87</v>
       </c>
       <c r="F334" t="n">
-        <v>22127.406</v>
+        <v>20823.0922</v>
       </c>
       <c r="G334" t="n">
-        <v>54.2211666666667</v>
+        <v>54.22516666666671</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -12091,19 +12285,19 @@
         <v>53.87</v>
       </c>
       <c r="C335" t="n">
-        <v>53.9</v>
+        <v>53.87</v>
       </c>
       <c r="D335" t="n">
-        <v>53.9</v>
+        <v>53.87</v>
       </c>
       <c r="E335" t="n">
         <v>53.87</v>
       </c>
       <c r="F335" t="n">
-        <v>19121.4967</v>
+        <v>22127.406</v>
       </c>
       <c r="G335" t="n">
-        <v>54.22166666666671</v>
+        <v>54.2211666666667</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -12123,22 +12317,22 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>53.86</v>
+        <v>53.87</v>
       </c>
       <c r="C336" t="n">
-        <v>53.86</v>
+        <v>53.9</v>
       </c>
       <c r="D336" t="n">
-        <v>53.86</v>
+        <v>53.9</v>
       </c>
       <c r="E336" t="n">
-        <v>53.86</v>
+        <v>53.87</v>
       </c>
       <c r="F336" t="n">
-        <v>9549.916499999999</v>
+        <v>19121.4967</v>
       </c>
       <c r="G336" t="n">
-        <v>54.21483333333337</v>
+        <v>54.22166666666671</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -12161,19 +12355,19 @@
         <v>53.86</v>
       </c>
       <c r="C337" t="n">
-        <v>53.84</v>
+        <v>53.86</v>
       </c>
       <c r="D337" t="n">
         <v>53.86</v>
       </c>
       <c r="E337" t="n">
-        <v>53.84</v>
+        <v>53.86</v>
       </c>
       <c r="F337" t="n">
-        <v>2341.3852</v>
+        <v>9549.916499999999</v>
       </c>
       <c r="G337" t="n">
-        <v>54.20766666666671</v>
+        <v>54.21483333333337</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -12193,22 +12387,22 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>53.84</v>
+        <v>53.86</v>
       </c>
       <c r="C338" t="n">
         <v>53.84</v>
       </c>
       <c r="D338" t="n">
-        <v>53.84</v>
+        <v>53.86</v>
       </c>
       <c r="E338" t="n">
         <v>53.84</v>
       </c>
       <c r="F338" t="n">
-        <v>4513.8698</v>
+        <v>2341.3852</v>
       </c>
       <c r="G338" t="n">
-        <v>54.20050000000005</v>
+        <v>54.20766666666671</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -12228,22 +12422,22 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>53.83</v>
+        <v>53.84</v>
       </c>
       <c r="C339" t="n">
-        <v>53.83</v>
+        <v>53.84</v>
       </c>
       <c r="D339" t="n">
-        <v>53.83</v>
+        <v>53.84</v>
       </c>
       <c r="E339" t="n">
-        <v>53.83</v>
+        <v>53.84</v>
       </c>
       <c r="F339" t="n">
-        <v>3429.8922</v>
+        <v>4513.8698</v>
       </c>
       <c r="G339" t="n">
-        <v>54.19483333333338</v>
+        <v>54.20050000000005</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -12266,19 +12460,19 @@
         <v>53.83</v>
       </c>
       <c r="C340" t="n">
-        <v>53.85</v>
+        <v>53.83</v>
       </c>
       <c r="D340" t="n">
-        <v>54</v>
+        <v>53.83</v>
       </c>
       <c r="E340" t="n">
         <v>53.83</v>
       </c>
       <c r="F340" t="n">
-        <v>38049.89837385</v>
+        <v>3429.8922</v>
       </c>
       <c r="G340" t="n">
-        <v>54.18733333333338</v>
+        <v>54.19483333333338</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -12298,22 +12492,22 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>53.8</v>
+        <v>53.83</v>
       </c>
       <c r="C341" t="n">
-        <v>53.8</v>
+        <v>53.85</v>
       </c>
       <c r="D341" t="n">
-        <v>53.8</v>
+        <v>54</v>
       </c>
       <c r="E341" t="n">
-        <v>53.8</v>
+        <v>53.83</v>
       </c>
       <c r="F341" t="n">
-        <v>5396.5</v>
+        <v>38049.89837385</v>
       </c>
       <c r="G341" t="n">
-        <v>54.18116666666671</v>
+        <v>54.18733333333338</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -12336,19 +12530,19 @@
         <v>53.8</v>
       </c>
       <c r="C342" t="n">
-        <v>53.79</v>
+        <v>53.8</v>
       </c>
       <c r="D342" t="n">
         <v>53.8</v>
       </c>
       <c r="E342" t="n">
-        <v>53.79</v>
+        <v>53.8</v>
       </c>
       <c r="F342" t="n">
-        <v>45.4461</v>
+        <v>5396.5</v>
       </c>
       <c r="G342" t="n">
-        <v>54.17333333333337</v>
+        <v>54.18116666666671</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -12368,22 +12562,22 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>53.77</v>
+        <v>53.8</v>
       </c>
       <c r="C343" t="n">
-        <v>53.51</v>
+        <v>53.79</v>
       </c>
       <c r="D343" t="n">
-        <v>53.77</v>
+        <v>53.8</v>
       </c>
       <c r="E343" t="n">
-        <v>53.34</v>
+        <v>53.79</v>
       </c>
       <c r="F343" t="n">
-        <v>652723.6583</v>
+        <v>45.4461</v>
       </c>
       <c r="G343" t="n">
-        <v>54.16233333333337</v>
+        <v>54.17333333333337</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -12403,22 +12597,22 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>53.49</v>
+        <v>53.77</v>
       </c>
       <c r="C344" t="n">
-        <v>53.49</v>
+        <v>53.51</v>
       </c>
       <c r="D344" t="n">
-        <v>53.49</v>
+        <v>53.77</v>
       </c>
       <c r="E344" t="n">
-        <v>53.49</v>
+        <v>53.34</v>
       </c>
       <c r="F344" t="n">
-        <v>1563.7791</v>
+        <v>652723.6583</v>
       </c>
       <c r="G344" t="n">
-        <v>54.14866666666671</v>
+        <v>54.16233333333337</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -12438,22 +12632,22 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>53.71</v>
+        <v>53.49</v>
       </c>
       <c r="C345" t="n">
-        <v>53.71</v>
+        <v>53.49</v>
       </c>
       <c r="D345" t="n">
-        <v>53.71</v>
+        <v>53.49</v>
       </c>
       <c r="E345" t="n">
-        <v>53.71</v>
+        <v>53.49</v>
       </c>
       <c r="F345" t="n">
-        <v>7734.0306</v>
+        <v>1563.7791</v>
       </c>
       <c r="G345" t="n">
-        <v>54.13866666666671</v>
+        <v>54.14866666666671</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -12476,19 +12670,19 @@
         <v>53.71</v>
       </c>
       <c r="C346" t="n">
-        <v>53.73</v>
+        <v>53.71</v>
       </c>
       <c r="D346" t="n">
-        <v>53.73</v>
+        <v>53.71</v>
       </c>
       <c r="E346" t="n">
-        <v>53.7</v>
+        <v>53.71</v>
       </c>
       <c r="F346" t="n">
-        <v>32975.5175</v>
+        <v>7734.0306</v>
       </c>
       <c r="G346" t="n">
-        <v>54.12966666666671</v>
+        <v>54.13866666666671</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -12508,22 +12702,22 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>53.72</v>
+        <v>53.71</v>
       </c>
       <c r="C347" t="n">
-        <v>53.72</v>
+        <v>53.73</v>
       </c>
       <c r="D347" t="n">
-        <v>53.72</v>
+        <v>53.73</v>
       </c>
       <c r="E347" t="n">
-        <v>53.72</v>
+        <v>53.7</v>
       </c>
       <c r="F347" t="n">
-        <v>1600</v>
+        <v>32975.5175</v>
       </c>
       <c r="G347" t="n">
-        <v>54.12050000000004</v>
+        <v>54.12966666666671</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -12555,10 +12749,10 @@
         <v>53.72</v>
       </c>
       <c r="F348" t="n">
-        <v>100</v>
+        <v>1600</v>
       </c>
       <c r="G348" t="n">
-        <v>54.11300000000004</v>
+        <v>54.12050000000004</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -12581,19 +12775,19 @@
         <v>53.72</v>
       </c>
       <c r="C349" t="n">
-        <v>53.6</v>
+        <v>53.72</v>
       </c>
       <c r="D349" t="n">
         <v>53.72</v>
       </c>
       <c r="E349" t="n">
-        <v>53.6</v>
+        <v>53.72</v>
       </c>
       <c r="F349" t="n">
-        <v>3926.5823</v>
+        <v>100</v>
       </c>
       <c r="G349" t="n">
-        <v>54.10350000000003</v>
+        <v>54.11300000000004</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -12613,22 +12807,22 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>53.76</v>
+        <v>53.72</v>
       </c>
       <c r="C350" t="n">
-        <v>53.76</v>
+        <v>53.6</v>
       </c>
       <c r="D350" t="n">
-        <v>53.76</v>
+        <v>53.72</v>
       </c>
       <c r="E350" t="n">
-        <v>53.76</v>
+        <v>53.6</v>
       </c>
       <c r="F350" t="n">
-        <v>5257.868</v>
+        <v>3926.5823</v>
       </c>
       <c r="G350" t="n">
-        <v>54.0966666666667</v>
+        <v>54.10350000000003</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -12648,22 +12842,22 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>53.79</v>
+        <v>53.76</v>
       </c>
       <c r="C351" t="n">
-        <v>53.79</v>
+        <v>53.76</v>
       </c>
       <c r="D351" t="n">
-        <v>53.79</v>
+        <v>53.76</v>
       </c>
       <c r="E351" t="n">
-        <v>53.79</v>
+        <v>53.76</v>
       </c>
       <c r="F351" t="n">
-        <v>19906</v>
+        <v>5257.868</v>
       </c>
       <c r="G351" t="n">
-        <v>54.0886666666667</v>
+        <v>54.0966666666667</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -12683,22 +12877,22 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>53.77</v>
+        <v>53.79</v>
       </c>
       <c r="C352" t="n">
-        <v>53.78</v>
+        <v>53.79</v>
       </c>
       <c r="D352" t="n">
-        <v>53.78</v>
+        <v>53.79</v>
       </c>
       <c r="E352" t="n">
-        <v>53.77</v>
+        <v>53.79</v>
       </c>
       <c r="F352" t="n">
-        <v>728.2184</v>
+        <v>19906</v>
       </c>
       <c r="G352" t="n">
-        <v>54.08000000000003</v>
+        <v>54.0886666666667</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -12718,22 +12912,22 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>53.7</v>
+        <v>53.77</v>
       </c>
       <c r="C353" t="n">
-        <v>53.69</v>
+        <v>53.78</v>
       </c>
       <c r="D353" t="n">
-        <v>53.7</v>
+        <v>53.78</v>
       </c>
       <c r="E353" t="n">
-        <v>53.69</v>
+        <v>53.77</v>
       </c>
       <c r="F353" t="n">
-        <v>43835.1963</v>
+        <v>728.2184</v>
       </c>
       <c r="G353" t="n">
-        <v>54.06983333333336</v>
+        <v>54.08000000000003</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -12753,22 +12947,22 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="C354" t="n">
         <v>53.69</v>
-      </c>
-      <c r="C354" t="n">
-        <v>53.68</v>
       </c>
       <c r="D354" t="n">
         <v>53.7</v>
       </c>
       <c r="E354" t="n">
-        <v>53.68</v>
+        <v>53.69</v>
       </c>
       <c r="F354" t="n">
-        <v>25375.2979</v>
+        <v>43835.1963</v>
       </c>
       <c r="G354" t="n">
-        <v>54.05950000000003</v>
+        <v>54.06983333333336</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
@@ -12788,22 +12982,22 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>53.7</v>
+        <v>53.69</v>
       </c>
       <c r="C355" t="n">
-        <v>53.7</v>
+        <v>53.68</v>
       </c>
       <c r="D355" t="n">
         <v>53.7</v>
       </c>
       <c r="E355" t="n">
-        <v>53.7</v>
+        <v>53.68</v>
       </c>
       <c r="F355" t="n">
-        <v>1287.8616</v>
+        <v>25375.2979</v>
       </c>
       <c r="G355" t="n">
-        <v>54.05000000000003</v>
+        <v>54.05950000000003</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -12835,10 +13029,10 @@
         <v>53.7</v>
       </c>
       <c r="F356" t="n">
-        <v>788.5177</v>
+        <v>1287.8616</v>
       </c>
       <c r="G356" t="n">
-        <v>54.03833333333335</v>
+        <v>54.05000000000003</v>
       </c>
       <c r="H356" t="n">
         <v>0</v>
@@ -12870,23 +13064,19 @@
         <v>53.7</v>
       </c>
       <c r="F357" t="n">
-        <v>11138.2447</v>
+        <v>788.5177</v>
       </c>
       <c r="G357" t="n">
-        <v>54.02666666666668</v>
+        <v>54.03833333333335</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
       </c>
-      <c r="J357" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="K357" t="n">
-        <v>53.7</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="inlineStr"/>
       <c r="M357" t="n">
         <v>1</v>
@@ -12897,40 +13087,32 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>53.69</v>
+        <v>53.7</v>
       </c>
       <c r="C358" t="n">
-        <v>53.69</v>
+        <v>53.7</v>
       </c>
       <c r="D358" t="n">
-        <v>53.69</v>
+        <v>53.7</v>
       </c>
       <c r="E358" t="n">
-        <v>53.69</v>
+        <v>53.7</v>
       </c>
       <c r="F358" t="n">
-        <v>2077.6232</v>
+        <v>11138.2447</v>
       </c>
       <c r="G358" t="n">
-        <v>54.01700000000002</v>
+        <v>54.02666666666668</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
       </c>
-      <c r="J358" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="K358" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="L358" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="inlineStr"/>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -12940,40 +13122,32 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>53.7</v>
+        <v>53.69</v>
       </c>
       <c r="C359" t="n">
-        <v>53.7</v>
+        <v>53.69</v>
       </c>
       <c r="D359" t="n">
-        <v>53.7</v>
+        <v>53.69</v>
       </c>
       <c r="E359" t="n">
-        <v>53.7</v>
+        <v>53.69</v>
       </c>
       <c r="F359" t="n">
-        <v>18743.05400372</v>
+        <v>2077.6232</v>
       </c>
       <c r="G359" t="n">
-        <v>54.00750000000001</v>
+        <v>54.01700000000002</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
       </c>
-      <c r="J359" t="n">
-        <v>53.69</v>
-      </c>
-      <c r="K359" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="L359" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="inlineStr"/>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -12995,23 +13169,19 @@
         <v>53.7</v>
       </c>
       <c r="F360" t="n">
-        <v>812.3718</v>
+        <v>18743.05400372</v>
       </c>
       <c r="G360" t="n">
-        <v>53.99800000000001</v>
+        <v>54.00750000000001</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
       </c>
-      <c r="J360" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="K360" t="n">
-        <v>53.7</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="inlineStr"/>
       <c r="M360" t="n">
         <v>1</v>
@@ -13034,10 +13204,10 @@
         <v>53.7</v>
       </c>
       <c r="F361" t="n">
-        <v>8542.0918</v>
+        <v>812.3718</v>
       </c>
       <c r="G361" t="n">
-        <v>53.98850000000001</v>
+        <v>53.99800000000001</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -13046,14 +13216,8 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="L361" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
+      <c r="L361" t="inlineStr"/>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13075,10 +13239,10 @@
         <v>53.7</v>
       </c>
       <c r="F362" t="n">
-        <v>2396.4776</v>
+        <v>8542.0918</v>
       </c>
       <c r="G362" t="n">
-        <v>53.97900000000001</v>
+        <v>53.98850000000001</v>
       </c>
       <c r="H362" t="n">
         <v>0</v>
@@ -13087,14 +13251,8 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="L362" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
+      <c r="L362" t="inlineStr"/>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13116,10 +13274,10 @@
         <v>53.7</v>
       </c>
       <c r="F363" t="n">
-        <v>1157.9431</v>
+        <v>2396.4776</v>
       </c>
       <c r="G363" t="n">
-        <v>53.96916666666667</v>
+        <v>53.97900000000001</v>
       </c>
       <c r="H363" t="n">
         <v>0</v>
@@ -13139,22 +13297,22 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>53.68</v>
+        <v>53.7</v>
       </c>
       <c r="C364" t="n">
-        <v>53.68</v>
+        <v>53.7</v>
       </c>
       <c r="D364" t="n">
-        <v>53.68</v>
+        <v>53.7</v>
       </c>
       <c r="E364" t="n">
-        <v>53.68</v>
+        <v>53.7</v>
       </c>
       <c r="F364" t="n">
-        <v>24309.1393</v>
+        <v>1157.9431</v>
       </c>
       <c r="G364" t="n">
-        <v>53.95733333333333</v>
+        <v>53.96916666666667</v>
       </c>
       <c r="H364" t="n">
         <v>0</v>
@@ -13186,10 +13344,10 @@
         <v>53.68</v>
       </c>
       <c r="F365" t="n">
-        <v>20775.4485</v>
+        <v>24309.1393</v>
       </c>
       <c r="G365" t="n">
-        <v>53.945</v>
+        <v>53.95733333333333</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -13221,10 +13379,10 @@
         <v>53.68</v>
       </c>
       <c r="F366" t="n">
-        <v>4915.4122</v>
+        <v>20775.4485</v>
       </c>
       <c r="G366" t="n">
-        <v>53.9335</v>
+        <v>53.945</v>
       </c>
       <c r="H366" t="n">
         <v>0</v>
@@ -13244,22 +13402,22 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>53.7</v>
+        <v>53.68</v>
       </c>
       <c r="C367" t="n">
-        <v>53.7</v>
+        <v>53.68</v>
       </c>
       <c r="D367" t="n">
-        <v>53.7</v>
+        <v>53.68</v>
       </c>
       <c r="E367" t="n">
-        <v>53.7</v>
+        <v>53.68</v>
       </c>
       <c r="F367" t="n">
-        <v>9.628000000000001e-05</v>
+        <v>4915.4122</v>
       </c>
       <c r="G367" t="n">
-        <v>53.92233333333333</v>
+        <v>53.9335</v>
       </c>
       <c r="H367" t="n">
         <v>0</v>
@@ -13274,6 +13432,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="C368" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="D368" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="E368" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="F368" t="n">
+        <v>9.628000000000001e-05</v>
+      </c>
+      <c r="G368" t="n">
+        <v>53.92233333333333</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0</v>
+      </c>
+      <c r="I368" t="n">
+        <v>0</v>
+      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
+      <c r="L368" t="inlineStr"/>
+      <c r="M368" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-12 BackTest XLM.xlsx
+++ b/BackTest/2020-01-12 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1246591.1342</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1246220.1219</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>1246949.3289</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>1046747.0333</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>1040380.325199999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>1046422.6642</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -946,14 +946,10 @@
         <v>1087993.831472209</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="J17" t="n">
-        <v>53.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
@@ -983,19 +979,11 @@
         <v>1087929.55497221</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>53.56</v>
-      </c>
-      <c r="J18" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1026,17 +1014,9 @@
       <c r="H19" t="n">
         <v>2</v>
       </c>
-      <c r="I19" t="n">
-        <v>53.54</v>
-      </c>
-      <c r="J19" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1068,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1107,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1146,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1185,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1224,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1263,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1302,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1338,17 +1276,11 @@
         <v>923654.5008722094</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1380,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1419,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1458,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1497,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1536,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1575,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1614,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1653,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1692,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1731,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1770,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1809,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1848,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1887,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1926,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1965,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2004,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2043,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2082,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2121,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2160,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2199,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2238,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2277,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2316,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2355,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2394,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2433,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2472,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2511,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2547,19 +2299,11 @@
         <v>890730.4366722094</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>54.04</v>
-      </c>
-      <c r="J58" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2591,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2630,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2669,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2705,19 +2431,11 @@
         <v>852537.3970722094</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>53.65</v>
-      </c>
-      <c r="J62" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2749,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2788,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2827,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2863,19 +2563,11 @@
         <v>860266.0575722094</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>54.02</v>
-      </c>
-      <c r="J66" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2907,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2943,19 +2629,11 @@
         <v>789280.0587722094</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>53.9</v>
-      </c>
-      <c r="J68" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2987,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3023,19 +2695,11 @@
         <v>793468.1648722095</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="n">
-        <v>53.83</v>
-      </c>
-      <c r="J70" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3067,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3106,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3145,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3184,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3223,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3262,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3301,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3340,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3379,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3415,19 +3025,11 @@
         <v>752391.1017722095</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>53.57</v>
-      </c>
-      <c r="J80" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3459,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3495,19 +3091,11 @@
         <v>748161.8485722095</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>53.46</v>
-      </c>
-      <c r="J82" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3536,19 +3124,11 @@
         <v>760578.4059722095</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>53.45</v>
-      </c>
-      <c r="J83" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3577,19 +3157,11 @@
         <v>700074.3930722096</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="n">
-        <v>53.53</v>
-      </c>
-      <c r="J84" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3618,19 +3190,11 @@
         <v>700074.3930722096</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="n">
-        <v>53.38</v>
-      </c>
-      <c r="J85" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3659,19 +3223,11 @@
         <v>700074.3930722096</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="n">
-        <v>53.38</v>
-      </c>
-      <c r="J86" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3700,19 +3256,11 @@
         <v>700632.5326722095</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="n">
-        <v>53.38</v>
-      </c>
-      <c r="J87" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3741,19 +3289,11 @@
         <v>700056.2268722096</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="n">
-        <v>53.75</v>
-      </c>
-      <c r="J88" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3782,19 +3322,11 @@
         <v>-170125.6499277904</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
-      </c>
-      <c r="I89" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="J89" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3826,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3865,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3904,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3943,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3979,19 +3487,11 @@
         <v>-154077.0084277904</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="J94" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4020,19 +3520,11 @@
         <v>-154077.0084277904</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="J95" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4061,19 +3553,11 @@
         <v>-154077.0084277904</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="J96" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4102,19 +3586,11 @@
         <v>-154077.0084277904</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="J97" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4143,19 +3619,11 @@
         <v>-173977.2188277904</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="J98" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4184,19 +3652,11 @@
         <v>-107836.6585277904</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>53.61</v>
-      </c>
-      <c r="J99" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4225,19 +3685,11 @@
         <v>-107836.6585277904</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>53.74</v>
-      </c>
-      <c r="J100" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4266,19 +3718,11 @@
         <v>-107836.6585277904</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>53.74</v>
-      </c>
-      <c r="J101" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4310,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4349,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4385,19 +3817,11 @@
         <v>-53972.89924921038</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="n">
-        <v>53.74</v>
-      </c>
-      <c r="J104" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4429,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4468,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4507,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4546,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4585,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4624,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4663,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4702,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4741,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4780,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4819,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4858,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4897,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4936,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4975,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5014,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5053,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5092,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5131,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5170,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5209,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5245,19 +4543,11 @@
         <v>173981.6262426696</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>53.97</v>
-      </c>
-      <c r="J126" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5286,19 +4576,11 @@
         <v>188305.9742426696</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="n">
-        <v>53.99</v>
-      </c>
-      <c r="J127" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5330,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5369,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5408,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5447,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5486,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5522,19 +4774,11 @@
         <v>83611.78363300965</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>54.28</v>
-      </c>
-      <c r="J133" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5563,19 +4807,11 @@
         <v>82031.08943300965</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>54.13</v>
-      </c>
-      <c r="J134" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5604,19 +4840,11 @@
         <v>44141.68923300965</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="n">
-        <v>54.01</v>
-      </c>
-      <c r="J135" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5645,19 +4873,11 @@
         <v>1193.426033009651</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>54</v>
-      </c>
-      <c r="J136" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5689,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5725,19 +4939,11 @@
         <v>-116279.5148669904</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>53.85</v>
-      </c>
-      <c r="J138" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5766,19 +4972,11 @@
         <v>-116279.5148669904</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="n">
-        <v>53.85</v>
-      </c>
-      <c r="J139" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5807,19 +5005,11 @@
         <v>-119165.6526669904</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="n">
-        <v>53.85</v>
-      </c>
-      <c r="J140" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5848,19 +5038,11 @@
         <v>-117884.1791669904</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="n">
-        <v>53.8</v>
-      </c>
-      <c r="J141" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5892,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5931,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5970,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6006,19 +5170,11 @@
         <v>-177677.4121669904</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="n">
-        <v>53.83</v>
-      </c>
-      <c r="J145" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6047,19 +5203,11 @@
         <v>-166177.4121669904</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I146" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="J146" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6088,19 +5236,11 @@
         <v>-164835.4115669904</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
-      </c>
-      <c r="I147" t="n">
-        <v>54.15</v>
-      </c>
-      <c r="J147" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6129,19 +5269,11 @@
         <v>-164835.4115669904</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="n">
-        <v>54.16</v>
-      </c>
-      <c r="J148" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6173,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6212,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6251,14 +5371,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6290,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6329,14 +5437,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6368,14 +5470,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6404,19 +5500,11 @@
         <v>-175098.8527692904</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="n">
-        <v>54.24</v>
-      </c>
-      <c r="J155" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6445,19 +5533,11 @@
         <v>-182097.0324692904</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I156" t="n">
-        <v>54.4</v>
-      </c>
-      <c r="J156" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6489,14 +5569,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6528,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6567,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6606,14 +5668,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6645,14 +5701,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6684,14 +5734,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6723,14 +5767,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6762,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6801,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6840,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6876,19 +5896,13 @@
         <v>-220372.3313238703</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
-        <v>1.016571937722754</v>
+        <v>1</v>
       </c>
       <c r="M167" t="inlineStr"/>
     </row>
@@ -7080,7 +6094,7 @@
         <v>-430590.3002481003</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -7113,7 +6127,7 @@
         <v>-439458.4783481003</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -7146,7 +6160,7 @@
         <v>-288475.2457858903</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -7179,7 +6193,7 @@
         <v>-174935.1825499203</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7212,7 +6226,7 @@
         <v>-174935.1825499203</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7245,7 +6259,7 @@
         <v>-226675.9057782003</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7278,7 +6292,7 @@
         <v>-226675.9057782003</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7344,7 +6358,7 @@
         <v>-218675.9057782003</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7542,7 +6556,7 @@
         <v>-141039.4470384503</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7608,7 +6622,7 @@
         <v>-154558.1269384503</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7641,7 +6655,7 @@
         <v>-154558.1269384503</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7674,7 +6688,7 @@
         <v>-143515.5156995203</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7707,7 +6721,7 @@
         <v>-75192.48364305033</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7740,7 +6754,7 @@
         <v>-104702.5582960303</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7773,7 +6787,7 @@
         <v>-204877.4075960303</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7806,7 +6820,7 @@
         <v>-204877.4075960303</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7839,7 +6853,7 @@
         <v>-204877.4075960303</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7872,7 +6886,7 @@
         <v>-240400.9714960303</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7905,7 +6919,7 @@
         <v>-263677.2514960304</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7938,7 +6952,7 @@
         <v>-263677.2514960304</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7971,7 +6985,7 @@
         <v>-352467.0958960304</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -8004,7 +7018,7 @@
         <v>-352467.0958960304</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -8037,7 +7051,7 @@
         <v>-365232.3995960304</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8070,7 +7084,7 @@
         <v>-365232.3995960304</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -8103,7 +7117,7 @@
         <v>-365232.3995960304</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8136,7 +7150,7 @@
         <v>-365232.3995960304</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8169,7 +7183,7 @@
         <v>-365232.3995960304</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8202,7 +7216,7 @@
         <v>-365232.3995960304</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8235,7 +7249,7 @@
         <v>-365232.3995960304</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8268,7 +7282,7 @@
         <v>-365232.3995960304</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8301,7 +7315,7 @@
         <v>-319499.7475960304</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8334,7 +7348,7 @@
         <v>-380877.2614960304</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8367,7 +7381,7 @@
         <v>-386917.5884960304</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8400,7 +7414,7 @@
         <v>-386917.5884960304</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8433,7 +7447,7 @@
         <v>-386917.5884960304</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8466,7 +7480,7 @@
         <v>-386917.5884960304</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8499,7 +7513,7 @@
         <v>-386917.5884960304</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8532,7 +7546,7 @@
         <v>-386841.2705960303</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8565,7 +7579,7 @@
         <v>-368593.5148169004</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8598,7 +7612,7 @@
         <v>-373401.3156169004</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8631,7 +7645,7 @@
         <v>-373401.3156169004</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8664,7 +7678,7 @@
         <v>-373401.3156169004</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8697,7 +7711,7 @@
         <v>-388129.1850169004</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8730,7 +7744,7 @@
         <v>-388129.1850169004</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8763,7 +7777,7 @@
         <v>-388698.6531169004</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8796,7 +7810,7 @@
         <v>-393024.9130169004</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8829,7 +7843,7 @@
         <v>-409983.4650169004</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8862,7 +7876,7 @@
         <v>-409983.4650169004</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8895,7 +7909,7 @@
         <v>-409983.4650169004</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8928,7 +7942,7 @@
         <v>-409983.4650169004</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8961,7 +7975,7 @@
         <v>-409983.4650169004</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -9093,7 +8107,7 @@
         <v>-396765.7232169004</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9126,7 +8140,7 @@
         <v>-360886.9180169004</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9159,7 +8173,7 @@
         <v>-360968.3896169004</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9225,7 +8239,7 @@
         <v>-361537.1922169004</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9357,7 +8371,7 @@
         <v>-362060.5421169004</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9390,7 +8404,7 @@
         <v>-380088.7097169004</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9423,7 +8437,7 @@
         <v>-408793.5889169005</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9456,7 +8470,7 @@
         <v>-408783.5889169005</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9489,7 +8503,7 @@
         <v>-429984.6113169005</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9753,7 +8767,7 @@
         <v>-430905.4053169005</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9819,7 +8833,7 @@
         <v>-497375.6964169005</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9885,7 +8899,7 @@
         <v>-606324.5243169005</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9951,7 +8965,7 @@
         <v>-646344.3088169005</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9984,7 +8998,7 @@
         <v>-832332.8906169005</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10017,7 +9031,7 @@
         <v>-832332.8906169005</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10116,7 +9130,7 @@
         <v>-832082.7664169006</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10149,7 +9163,7 @@
         <v>-836524.8285169005</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10182,7 +9196,7 @@
         <v>-826524.8285169005</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10215,7 +9229,7 @@
         <v>-818868.7038169005</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10248,7 +9262,7 @@
         <v>-818868.7038169005</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10611,7 +9625,7 @@
         <v>-732050.4069424305</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10644,7 +9658,7 @@
         <v>-739582.1069424305</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -14175,11 +13189,17 @@
         <v>-1270756.34115097</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>54.01</v>
+      </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14208,11 +13228,17 @@
         <v>-1274355.90405097</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>54.01</v>
+      </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14241,11 +13267,17 @@
         <v>-1274355.90405097</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>54</v>
+      </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14274,11 +13306,17 @@
         <v>-1308663.80305097</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>54</v>
+      </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14307,11 +13345,17 @@
         <v>-1329486.89525097</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>53.9</v>
+      </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14340,11 +13384,17 @@
         <v>-1329486.89525097</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>53.87</v>
+      </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14373,11 +13423,17 @@
         <v>-1310365.39855097</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>53.87</v>
+      </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14406,11 +13462,17 @@
         <v>-1319915.31505097</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>53.9</v>
+      </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14439,11 +13501,17 @@
         <v>-1322256.70025097</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>53.86</v>
+      </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14472,11 +13540,17 @@
         <v>-1322256.70025097</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>53.84</v>
+      </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14505,11 +13579,17 @@
         <v>-1325686.59245097</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>53.84</v>
+      </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14538,11 +13618,17 @@
         <v>-1287636.69407712</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>53.83</v>
+      </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14571,11 +13657,17 @@
         <v>-1293033.19407712</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>53.85</v>
+      </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14604,11 +13696,17 @@
         <v>-1293078.64017712</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>53.8</v>
+      </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14637,7 +13735,7 @@
         <v>-1945802.29847712</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I402" t="n">
         <v>53.79</v>
@@ -14645,7 +13743,7 @@
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L402" t="n">
@@ -14861,9 +13959,11 @@
         <v>-1912183.11177712</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>53.72</v>
+      </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
@@ -14898,9 +13998,11 @@
         <v>-1906925.24377712</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>53.6</v>
+      </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
@@ -14935,9 +14037,11 @@
         <v>-1887019.24377712</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>53.76</v>
+      </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
@@ -14972,9 +14076,11 @@
         <v>-1887747.46217712</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>53.79</v>
+      </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
@@ -15009,9 +14115,11 @@
         <v>-1931582.65847712</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>53.78</v>
+      </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
@@ -15046,7 +14154,7 @@
         <v>-1956957.95637712</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I413" t="n">
         <v>53.69</v>
@@ -15085,7 +14193,7 @@
         <v>-1955670.09477712</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I414" t="n">
         <v>53.68</v>
@@ -15124,9 +14232,11 @@
         <v>-1955670.09477712</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>53.7</v>
+      </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
@@ -15161,9 +14271,11 @@
         <v>-1955670.09477712</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>53.7</v>
+      </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
@@ -15198,7 +14310,7 @@
         <v>-1957747.71797712</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I417" t="n">
         <v>53.7</v>
@@ -15237,7 +14349,7 @@
         <v>-1939004.6639734</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I418" t="n">
         <v>53.69</v>
@@ -15276,7 +14388,7 @@
         <v>-1939004.6639734</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I419" t="n">
         <v>53.7</v>
@@ -15315,7 +14427,7 @@
         <v>-1939004.6639734</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I420" t="n">
         <v>53.7</v>
@@ -15354,7 +14466,7 @@
         <v>-1939004.6639734</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I421" t="n">
         <v>53.7</v>
@@ -15393,7 +14505,7 @@
         <v>-1939004.6639734</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I422" t="n">
         <v>53.7</v>
@@ -15432,7 +14544,7 @@
         <v>-1963313.8032734</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I423" t="n">
         <v>53.7</v>
@@ -15471,7 +14583,7 @@
         <v>-1963313.8032734</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I424" t="n">
         <v>53.68</v>
@@ -15510,7 +14622,7 @@
         <v>-1963313.8032734</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I425" t="n">
         <v>53.68</v>
@@ -15549,7 +14661,7 @@
         <v>-1963313.80317712</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I426" t="n">
         <v>53.68</v>
@@ -15588,7 +14700,7 @@
         <v>-1961313.80317712</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I427" t="n">
         <v>53.7</v>
@@ -15664,9 +14776,11 @@
         <v>-1963836.45287712</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>53.93</v>
+      </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
@@ -15738,9 +14852,11 @@
         <v>-2045460.45287712</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>53.94</v>
+      </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
@@ -15812,9 +14928,11 @@
         <v>-2045460.45287712</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>53.83</v>
+      </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
@@ -15849,9 +14967,11 @@
         <v>-2045460.45287712</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>53.83</v>
+      </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
@@ -15886,7 +15006,7 @@
         <v>-2045460.45287712</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I435" t="n">
         <v>53.83</v>
@@ -15925,7 +15045,7 @@
         <v>-2040414.72967712</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I436" t="n">
         <v>53.83</v>
@@ -15942,6 +15062,6 @@
       <c r="M436" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest XLM.xlsx
+++ b/BackTest/2020-01-12 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1246591.1342</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1246220.1219</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>1246949.3289</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>1046747.0333</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>1040380.325199999</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>1046422.6642</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>1086539.754972209</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>923654.5008722094</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>890730.4366722094</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>870729.4436722094</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>860729.4436722094</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>852237.3970722094</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>852537.3970722094</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>860865.3970722094</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>790743.3948722094</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>789280.0587722094</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>148134.2892426696</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>173981.6262426696</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>188305.9742426696</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>101351.9004426696</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>115685.2795426697</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>80311.38704266965</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>66146.40284266965</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>84885.87463300965</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>83611.78363300965</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>82031.08943300965</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>44141.68923300965</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-161069.2121669904</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-164835.4115669904</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-164835.4115669904</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-227431.6580669904</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-227431.6580669904</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-228205.6580669904</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-219490.4035669904</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-207978.9849407804</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-207978.9849407804</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-175098.8527692904</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-182097.0324692904</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-177097.0325398704</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-208460.2493398704</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-207684.2493398704</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-205960.1321398703</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-205960.1321398703</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-203960.1321398703</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-203960.1321398703</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-154558.1269384503</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-154558.1269384503</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-143515.5156995203</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-75192.48364305033</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-104702.5582960303</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-204877.4075960303</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-204877.4075960303</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-204877.4075960303</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-240400.9714960303</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-263677.2514960304</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-263677.2514960304</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-352467.0958960304</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-352467.0958960304</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-365232.3995960304</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-365232.3995960304</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-365232.3995960304</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-365232.3995960304</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-365232.3995960304</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-365232.3995960304</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-365232.3995960304</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-365232.3995960304</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-319499.7475960304</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-380877.2614960304</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-386917.5884960304</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-386917.5884960304</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-386917.5884960304</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-386917.5884960304</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-386917.5884960304</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-386841.2705960303</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-368593.5148169004</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-373401.3156169004</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-373401.3156169004</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-373401.3156169004</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-388129.1850169004</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-388129.1850169004</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-388698.6531169004</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-393024.9130169004</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-409983.4650169004</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-409983.4650169004</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-946405.0458424303</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-963987.3844901304</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-1015801.12749013</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-1015801.12749013</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13189,17 +13189,11 @@
         <v>-1270756.34115097</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
-      </c>
-      <c r="I388" t="n">
-        <v>54.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13228,17 +13222,11 @@
         <v>-1274355.90405097</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
-      </c>
-      <c r="I389" t="n">
-        <v>54.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13267,17 +13255,11 @@
         <v>-1274355.90405097</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
-      </c>
-      <c r="I390" t="n">
-        <v>54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13306,17 +13288,11 @@
         <v>-1308663.80305097</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
-      </c>
-      <c r="I391" t="n">
-        <v>54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13345,17 +13321,11 @@
         <v>-1329486.89525097</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
-      </c>
-      <c r="I392" t="n">
-        <v>53.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13384,17 +13354,11 @@
         <v>-1329486.89525097</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
-      </c>
-      <c r="I393" t="n">
-        <v>53.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13423,17 +13387,11 @@
         <v>-1310365.39855097</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
-      </c>
-      <c r="I394" t="n">
-        <v>53.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13462,17 +13420,11 @@
         <v>-1319915.31505097</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
-      </c>
-      <c r="I395" t="n">
-        <v>53.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13501,17 +13453,11 @@
         <v>-1322256.70025097</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
-      </c>
-      <c r="I396" t="n">
-        <v>53.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13540,17 +13486,11 @@
         <v>-1322256.70025097</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
-      </c>
-      <c r="I397" t="n">
-        <v>53.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13579,17 +13519,11 @@
         <v>-1325686.59245097</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>53.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13618,17 +13552,11 @@
         <v>-1287636.69407712</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>53.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13657,17 +13585,11 @@
         <v>-1293033.19407712</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>53.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13696,17 +13618,11 @@
         <v>-1293078.64017712</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>53.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13735,17 +13651,11 @@
         <v>-1945802.29847712</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>53.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13778,11 +13688,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13815,11 +13721,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13852,11 +13754,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13889,11 +13787,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13926,11 +13820,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13959,17 +13849,11 @@
         <v>-1912183.11177712</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>53.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13998,17 +13882,11 @@
         <v>-1906925.24377712</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
-      </c>
-      <c r="I409" t="n">
-        <v>53.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14037,17 +13915,11 @@
         <v>-1887019.24377712</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
-      </c>
-      <c r="I410" t="n">
-        <v>53.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14076,17 +13948,11 @@
         <v>-1887747.46217712</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>53.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14115,17 +13981,11 @@
         <v>-1931582.65847712</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>53.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14154,17 +14014,11 @@
         <v>-1956957.95637712</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>53.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14193,17 +14047,11 @@
         <v>-1955670.09477712</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
-        <v>53.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14232,17 +14080,11 @@
         <v>-1955670.09477712</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>53.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14271,17 +14113,11 @@
         <v>-1955670.09477712</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>53.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14315,12 +14151,10 @@
       <c r="I417" t="n">
         <v>53.7</v>
       </c>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14354,10 +14188,12 @@
       <c r="I418" t="n">
         <v>53.69</v>
       </c>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>53.7</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L418" t="n">
@@ -14393,10 +14229,12 @@
       <c r="I419" t="n">
         <v>53.7</v>
       </c>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>53.7</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L419" t="n">
@@ -14427,17 +14265,11 @@
         <v>-1939004.6639734</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
-        <v>53.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14471,12 +14303,10 @@
       <c r="I421" t="n">
         <v>53.7</v>
       </c>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14510,10 +14340,12 @@
       <c r="I422" t="n">
         <v>53.7</v>
       </c>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>53.7</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L422" t="n">
@@ -14549,10 +14381,12 @@
       <c r="I423" t="n">
         <v>53.7</v>
       </c>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>53.7</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L423" t="n">
@@ -14588,12 +14422,10 @@
       <c r="I424" t="n">
         <v>53.68</v>
       </c>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="n">
+        <v>53.68</v>
+      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14627,10 +14459,12 @@
       <c r="I425" t="n">
         <v>53.68</v>
       </c>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>53.68</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L425" t="n">
@@ -14666,10 +14500,12 @@
       <c r="I426" t="n">
         <v>53.68</v>
       </c>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>53.68</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L426" t="n">
@@ -14705,12 +14541,10 @@
       <c r="I427" t="n">
         <v>53.7</v>
       </c>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14742,10 +14576,12 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>53.7</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L428" t="n">
@@ -14776,15 +14612,15 @@
         <v>-1963836.45287712</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
-      </c>
-      <c r="I429" t="n">
-        <v>53.93</v>
-      </c>
-      <c r="J429" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>53.7</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L429" t="n">
@@ -14819,11 +14655,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14852,17 +14684,11 @@
         <v>-2045460.45287712</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
-      </c>
-      <c r="I431" t="n">
-        <v>53.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14895,11 +14721,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14928,17 +14750,11 @@
         <v>-2045460.45287712</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>53.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14967,17 +14783,11 @@
         <v>-2045460.45287712</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>53.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15006,17 +14816,11 @@
         <v>-2045460.45287712</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>53.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15045,23 +14849,17 @@
         <v>-2040414.72967712</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>53.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
       <c r="M436" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest XLM.xlsx
+++ b/BackTest/2020-01-12 BackTest XLM.xlsx
@@ -2299,7 +2299,7 @@
         <v>890730.4366722094</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>870729.4436722094</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>860729.4436722094</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>852237.3970722094</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>852537.3970722094</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>860865.3970722094</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>790743.3948722094</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>789280.0587722094</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>148134.2892426696</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>173981.6262426696</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>188305.9742426696</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>101351.9004426696</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>115685.2795426697</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>80311.38704266965</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>66146.40284266965</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>84885.87463300965</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>83611.78363300965</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>82031.08943300965</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>44141.68923300965</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-161069.2121669904</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-164835.4115669904</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-164835.4115669904</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-227431.6580669904</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-227431.6580669904</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-228205.6580669904</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-219490.4035669904</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-207978.9849407804</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-207978.9849407804</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-175098.8527692904</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-182097.0324692904</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-177097.0325398704</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-208460.2493398704</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-207684.2493398704</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-205960.1321398703</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-205960.1321398703</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-203960.1321398703</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-203960.1321398703</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-226675.9057782003</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-226675.9057782003</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-218675.9057782003</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-218675.9057782003</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-184550.6517384503</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-185193.6197384503</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-128576.9814384503</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-128576.9814384503</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-141039.4470384503</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-141039.4470384503</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-154558.1269384503</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-154558.1269384503</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-143515.5156995203</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-75192.48364305033</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-104702.5582960303</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-204877.4075960303</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-204877.4075960303</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-204877.4075960303</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-240400.9714960303</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-263677.2514960304</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-263677.2514960304</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-352467.0958960304</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-352467.0958960304</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-365232.3995960304</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-365232.3995960304</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-365232.3995960304</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-365232.3995960304</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-365232.3995960304</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-365232.3995960304</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-365232.3995960304</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-365232.3995960304</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-319499.7475960304</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-380877.2614960304</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-386917.5884960304</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-946405.0458424303</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-963987.3844901304</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-1015801.12749013</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-1015801.12749013</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13651,11 +13651,17 @@
         <v>-1945802.29847712</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>53.79</v>
+      </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13688,7 +13694,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13721,7 +13731,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13754,7 +13768,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13787,7 +13805,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13820,7 +13842,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13853,7 +13879,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13882,11 +13912,17 @@
         <v>-1906925.24377712</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>53.6</v>
+      </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13919,7 +13955,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -13952,7 +13992,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -13981,11 +14025,17 @@
         <v>-1931582.65847712</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>53.78</v>
+      </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14014,11 +14064,17 @@
         <v>-1956957.95637712</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>53.69</v>
+      </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14047,11 +14103,17 @@
         <v>-1955670.09477712</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>53.68</v>
+      </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14084,7 +14146,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14113,11 +14179,17 @@
         <v>-1955670.09477712</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>53.7</v>
+      </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14151,10 +14223,12 @@
       <c r="I417" t="n">
         <v>53.7</v>
       </c>
-      <c r="J417" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14188,12 +14262,10 @@
       <c r="I418" t="n">
         <v>53.69</v>
       </c>
-      <c r="J418" t="n">
-        <v>53.7</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L418" t="n">
@@ -14229,12 +14301,10 @@
       <c r="I419" t="n">
         <v>53.7</v>
       </c>
-      <c r="J419" t="n">
-        <v>53.7</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L419" t="n">
@@ -14265,11 +14335,17 @@
         <v>-1939004.6639734</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>53.7</v>
+      </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14303,10 +14379,12 @@
       <c r="I421" t="n">
         <v>53.7</v>
       </c>
-      <c r="J421" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14340,12 +14418,10 @@
       <c r="I422" t="n">
         <v>53.7</v>
       </c>
-      <c r="J422" t="n">
-        <v>53.7</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L422" t="n">
@@ -14381,12 +14457,10 @@
       <c r="I423" t="n">
         <v>53.7</v>
       </c>
-      <c r="J423" t="n">
-        <v>53.7</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L423" t="n">
@@ -14422,10 +14496,12 @@
       <c r="I424" t="n">
         <v>53.68</v>
       </c>
-      <c r="J424" t="n">
-        <v>53.68</v>
-      </c>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14459,12 +14535,10 @@
       <c r="I425" t="n">
         <v>53.68</v>
       </c>
-      <c r="J425" t="n">
-        <v>53.68</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L425" t="n">
@@ -14500,12 +14574,10 @@
       <c r="I426" t="n">
         <v>53.68</v>
       </c>
-      <c r="J426" t="n">
-        <v>53.68</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L426" t="n">
@@ -14541,10 +14613,12 @@
       <c r="I427" t="n">
         <v>53.7</v>
       </c>
-      <c r="J427" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14573,15 +14647,15 @@
         <v>-1964836.45287712</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>53.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>53.94</v>
+      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L428" t="n">
@@ -14612,15 +14686,15 @@
         <v>-1963836.45287712</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>53.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>53.93</v>
+      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L429" t="n">
@@ -14651,11 +14725,17 @@
         <v>-1965836.45287712</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>54.01</v>
+      </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14684,11 +14764,17 @@
         <v>-2045460.45287712</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>53.94</v>
+      </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14717,11 +14803,17 @@
         <v>-2045460.45287712</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>53.83</v>
+      </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14750,11 +14842,17 @@
         <v>-2045460.45287712</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>53.83</v>
+      </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14783,11 +14881,17 @@
         <v>-2045460.45287712</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>53.83</v>
+      </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14816,11 +14920,17 @@
         <v>-2045460.45287712</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>53.83</v>
+      </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14849,11 +14959,17 @@
         <v>-2040414.72967712</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>53.83</v>
+      </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
